--- a/Pricing Logic/modules/manual/output_1123_chunk_1.xlsx
+++ b/Pricing Logic/modules/manual/output_1123_chunk_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,10 +37,7 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>اوكسي سائل أطباق  اخضر - 100 جم</t>
-  </si>
-  <si>
-    <t>اوكسي يدوي لافندر - 175 جم</t>
+    <t>صلصة هاينز - 360 جم</t>
   </si>
   <si>
     <t>YES</t>
@@ -401,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,36 +429,19 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>11765</v>
+        <v>3478</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>87</v>
+        <v>410</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>11952</v>
-      </c>
-      <c r="B3" t="s">
         <v>8</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>147</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/manual/output_1123_chunk_1.xlsx
+++ b/Pricing Logic/modules/manual/output_1123_chunk_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,7 +37,13 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>صلصة هاينز - 360 جم</t>
+    <t>سمن كريستال ابيض - 1.5 كجم</t>
+  </si>
+  <si>
+    <t>ستينج فراولة زجاج - 275 مل</t>
+  </si>
+  <si>
+    <t>ارز حبوبة عريض الحبة - 5 كجم</t>
   </si>
   <si>
     <t>YES</t>
@@ -398,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,19 +435,70 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>3478</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>604.5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>1124</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="D2">
-        <v>410</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
+      <c r="D3">
+        <v>160</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>3258</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>146</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>3258</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>730</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/manual/output_1123_chunk_1.xlsx
+++ b/Pricing Logic/modules/manual/output_1123_chunk_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,13 +37,10 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>سمن كريستال ابيض - 1.5 كجم</t>
-  </si>
-  <si>
-    <t>ستينج فراولة زجاج - 275 مل</t>
-  </si>
-  <si>
-    <t>ارز حبوبة عريض الحبة - 5 كجم</t>
+    <t>شاى ليبتون ناعم  - 250 جم</t>
+  </si>
+  <si>
+    <t>عصير بيتى كوكتيل - 235 مل</t>
   </si>
   <si>
     <t>YES</t>
@@ -404,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,70 +432,53 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>604.5</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>1124</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>160</v>
+        <v>2544</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>3258</v>
+        <v>144</v>
       </c>
       <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>186.5</v>
+      </c>
+      <c r="E4" t="s">
         <v>9</v>
-      </c>
-      <c r="C4">
-        <v>7</v>
-      </c>
-      <c r="D4">
-        <v>146</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>3258</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>730</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/manual/output_1123_chunk_1.xlsx
+++ b/Pricing Logic/modules/manual/output_1123_chunk_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,10 +37,16 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>شاى ليبتون ناعم  - 250 جم</t>
-  </si>
-  <si>
-    <t>عصير بيتى كوكتيل - 235 مل</t>
+    <t>مكرونة بساطة لسان عصفور - 350 جم</t>
+  </si>
+  <si>
+    <t>هارفست فول مدمس سادة خصم %20 - 400 جم</t>
+  </si>
+  <si>
+    <t>شاى الكبوس ناعم عرض 65 ج - 200 جم</t>
+  </si>
+  <si>
+    <t>سندة سكر - 1 كجم</t>
   </si>
   <si>
     <t>YES</t>
@@ -401,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,53 +438,104 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>88</v>
+        <v>7706</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>53</v>
+        <v>167.75</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>88</v>
+        <v>8216</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>2544</v>
+        <v>378</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>144</v>
+        <v>8216</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>15.75</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>9081</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>62.25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>9081</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1494</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>11404</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
         <v>2</v>
       </c>
-      <c r="D4">
-        <v>186.5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
+      <c r="D7">
+        <v>266.25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/manual/output_1123_chunk_1.xlsx
+++ b/Pricing Logic/modules/manual/output_1123_chunk_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,16 +37,13 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>مكرونة بساطة لسان عصفور - 350 جم</t>
-  </si>
-  <si>
-    <t>هارفست فول مدمس سادة خصم %20 - 400 جم</t>
-  </si>
-  <si>
-    <t>شاى الكبوس ناعم عرض 65 ج - 200 جم</t>
-  </si>
-  <si>
-    <t>سندة سكر - 1 كجم</t>
+    <t>تونة صن شاين اكسبريس مفتتة بارد - 150 جم</t>
+  </si>
+  <si>
+    <t>زيت ثمرات خليط - 550 مل</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
   <si>
     <t>YES</t>
@@ -407,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -438,104 +435,87 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>7706</v>
+        <v>3558</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D2">
-        <v>167.75</v>
+        <v>28.5</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>8216</v>
+        <v>3558</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D3">
-        <v>378</v>
+        <v>684</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>8216</v>
+        <v>3558</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>342</v>
+      </c>
+      <c r="E4" t="s">
         <v>10</v>
-      </c>
-      <c r="D4">
-        <v>15.75</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>9081</v>
+        <v>3558</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>62.25</v>
+        <v>1368</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>9081</v>
+        <v>12925</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>1494</v>
+        <v>483</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>11404</v>
-      </c>
-      <c r="B7" t="s">
         <v>10</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>266.25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/manual/output_1123_chunk_1.xlsx
+++ b/Pricing Logic/modules/manual/output_1123_chunk_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="309">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,16 +37,910 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>تونة صن شاين اكسبريس مفتتة بارد - 150 جم</t>
-  </si>
-  <si>
-    <t>زيت ثمرات خليط - 550 مل</t>
+    <t>سمن كريستال ابيض ظرف - 350 جم</t>
+  </si>
+  <si>
+    <t>سمن كريستال اصفر ظرف - 350 جم</t>
+  </si>
+  <si>
+    <t>سمن كريستال ابيض - 1.5 كجم</t>
+  </si>
+  <si>
+    <t>سمن كريستال اصفر - 1.5 كجم</t>
+  </si>
+  <si>
+    <t>دقيق حبوبة - 1 كجم</t>
+  </si>
+  <si>
+    <t>شاى ليبتون ناعم  - 250 جم</t>
+  </si>
+  <si>
+    <t>شاى ليبتون  ناعم  - 40 جم</t>
+  </si>
+  <si>
+    <t>فجيتار كنور عادى - 35 جم</t>
+  </si>
+  <si>
+    <t>ارز حبوبة رفيع - 5 كجم</t>
+  </si>
+  <si>
+    <t>فاين فودز مرقة دجاج 8 مكعب- 72 جم</t>
+  </si>
+  <si>
+    <t>كنور مرقة دجاج 12 مكعب عبوة اقتصادية- 108 جم</t>
+  </si>
+  <si>
+    <t>لبن بخيره - 500 مل</t>
+  </si>
+  <si>
+    <t>عصير جهينة كوكتيل - 235 مل</t>
+  </si>
+  <si>
+    <t>عصير بيتى كوكتيل - 235 مل</t>
+  </si>
+  <si>
+    <t>عصير بيتى جوافة - 235 مل</t>
+  </si>
+  <si>
+    <t>كورونا كاكاو محلي  وسط ( 60 جرام )- 25 جنية</t>
+  </si>
+  <si>
+    <t>عصير تانج برتقال ظرف - 20 جم</t>
+  </si>
+  <si>
+    <t>البوادي حلاوة- 255 جم</t>
+  </si>
+  <si>
+    <t>بن عبد المعبود محوج فاتح - 100 جم</t>
+  </si>
+  <si>
+    <t>سائل اطباق وفير بلس ليمون اصفر - 4 كجم</t>
+  </si>
+  <si>
+    <t>لبن جهينة كامل الدسم - 1 لتر</t>
+  </si>
+  <si>
+    <t>عصير بيتى مانجو - 235 مل</t>
+  </si>
+  <si>
+    <t>عصير بيتى اناناس - 235 مل</t>
+  </si>
+  <si>
+    <t>بيبسى كانز ستار - 320 مل</t>
+  </si>
+  <si>
+    <t>طحينة البوادى - 125 جم</t>
+  </si>
+  <si>
+    <t>حفاضات بامبرز عبوة التوفير مقاس 5 - 58 حفاضة</t>
+  </si>
+  <si>
+    <t>صلصة هارفست ظرف - 30 جم</t>
+  </si>
+  <si>
+    <t>لبن جهينة كامل الدسم - 200 مل</t>
+  </si>
+  <si>
+    <t>عصير جهينة برتقال - 1 لتر</t>
+  </si>
+  <si>
+    <t>عصير جهينة جوافة - 1 لتر</t>
+  </si>
+  <si>
+    <t>مشروب كادبوري مشروب كاكاو - 30 جم</t>
+  </si>
+  <si>
+    <t>بيبسى كانز جيب - 240 مل</t>
+  </si>
+  <si>
+    <t>سفن اب كانز جيب - 240 مل</t>
+  </si>
+  <si>
+    <t>كنور خلطة بشاميل- 70 جم</t>
+  </si>
+  <si>
+    <t>زيت كريستال الممتاز خليط - 700 مل</t>
+  </si>
+  <si>
+    <t>زيت قلية خليط - 1 لتر</t>
+  </si>
+  <si>
+    <t>سمنة هانم ظرف بطعم الزبدة الصفرا- 350 جم</t>
+  </si>
+  <si>
+    <t>هانم سمنة اصفر - 6 عبوة- 650 جم</t>
+  </si>
+  <si>
+    <t>عصير بيتى برتقال - 1 لتر</t>
+  </si>
+  <si>
+    <t>راني عصير مانجو حبيبات- 235 مل</t>
+  </si>
+  <si>
+    <t>بيبسى تربو - 390 مل</t>
+  </si>
+  <si>
+    <t>حلوانى مربى  فراولة - 700 جم</t>
+  </si>
+  <si>
+    <t>حلوانى مربى تين- 700 جم</t>
+  </si>
+  <si>
+    <t>زيت حبوبة خليط - 900 مل</t>
+  </si>
+  <si>
+    <t>بن عبد المعبود محوج فاتح - 50 جم</t>
+  </si>
+  <si>
+    <t>حلاوة الرشيدى الميزان سبريد شوكولاتة - 300 جم</t>
+  </si>
+  <si>
+    <t>لبن المراعى كامل دسم بلاستيك - 1 لتر</t>
+  </si>
+  <si>
+    <t>بيبسى مينى تربو - 250 مل</t>
+  </si>
+  <si>
+    <t>هوت صوص هاينز - 165 جم</t>
+  </si>
+  <si>
+    <t>فريك الضحى - 500 جم</t>
+  </si>
+  <si>
+    <t>صابون لوكس حلم السعادة - 75 جم</t>
+  </si>
+  <si>
+    <t>ستينج فراولة زجاج - 275 مل</t>
+  </si>
+  <si>
+    <t>ارز حبوبة عريض الحبة - 1 كجم</t>
+  </si>
+  <si>
+    <t>فيبا سائل أطباق ليمون أصفر- 4 كجم</t>
+  </si>
+  <si>
+    <t>حفاضات مولفيكس جامبو مقاس 5  - 58 حفاضة</t>
+  </si>
+  <si>
+    <t>زيت حبوبة خليط - 1 لتر</t>
+  </si>
+  <si>
+    <t>منعم ملابس فلفيتا رائحة الاسترخاء - 1 لتر</t>
+  </si>
+  <si>
+    <t>سائل اطباق وفير بلس ليمون اخضر - 4 كجم</t>
+  </si>
+  <si>
+    <t>شامبو كلير رجالى ازرق اخضر و اسود - 5 مل</t>
+  </si>
+  <si>
+    <t>سيجنال مكافح التسوس 12 عبوة- 25 مل</t>
+  </si>
+  <si>
+    <t>مناديل فاميليا مطبخ كلاسيك 5 رول + 1 رول هدية - 6 رول</t>
+  </si>
+  <si>
+    <t>كابتشينو كوفى بريك فانيليا 8 ظرف - 18.5 جم</t>
+  </si>
+  <si>
+    <t>كابتشينو كوفى بريك بندق 8 ظرف - 18.5 جم</t>
+  </si>
+  <si>
+    <t>البوادى حلاوة سادة- 550 جم</t>
+  </si>
+  <si>
+    <t>البوادى حلاوة سادة عائلى- 760 جم</t>
+  </si>
+  <si>
+    <t>اولويز ماكسى سميكة فردى ملمس قطنى طويل - 8 فوطة</t>
+  </si>
+  <si>
+    <t>مكتفيز بسكويت شوفان الذهبي - 5 ج</t>
+  </si>
+  <si>
+    <t>كنور خلطة كفتة  عرض خاص- 35 جم</t>
+  </si>
+  <si>
+    <t>لوبيا حبوبة بيضاء - 500 جم</t>
+  </si>
+  <si>
+    <t>صانسيلك اكياس شامبو للشعر الاسود- 240 كيس 7 مل</t>
+  </si>
+  <si>
+    <t>شوكولاته مورو نوجا بالكراميل مغطاه بشكولاتة -حجم اكبر - 40 جرام</t>
+  </si>
+  <si>
+    <t>لبان تشكلتس بالنعناع صغير - 1.5 ج</t>
+  </si>
+  <si>
+    <t>لبان تشكلتس بالفراولة صغير - 1.5 ج</t>
+  </si>
+  <si>
+    <t>صابون جوى عرض خاص - 110 جم</t>
+  </si>
+  <si>
+    <t>سبرايت - 1.45 لتر</t>
+  </si>
+  <si>
+    <t>مناديل فاميليا تواليت 2 طبقة 20 رول + 4 رول هدية - 24 رول</t>
+  </si>
+  <si>
+    <t>شوكولاتة كادبورى بابلى - 24 جم</t>
+  </si>
+  <si>
+    <t>شوكولاتة كادبورى بندق - 30 جم</t>
+  </si>
+  <si>
+    <t>بسكويت اوريو بكريمة الشوكولاتة حجم جديد 5 قطع - 43.75 جم</t>
+  </si>
+  <si>
+    <t>لبان تشكلتس فرقعة فراولة - 1.5 ج</t>
+  </si>
+  <si>
+    <t>فانتا برتقال - 2.45 لتر</t>
+  </si>
+  <si>
+    <t>مسحوق غسيل فل ازرق يدوى - 9 كجم</t>
+  </si>
+  <si>
+    <t>حلاوة الرشيدى الميزان - 130 جم</t>
+  </si>
+  <si>
+    <t>زيت كريستال عباد الشمس 6 زجاجة - 700 مل</t>
+  </si>
+  <si>
+    <t>زيت كريستال عباد الشمس 4 زجاجة - 2.2 لتر</t>
+  </si>
+  <si>
+    <t>زيت كريستال ذرة 4 زجاجة - 2.2 لتر</t>
+  </si>
+  <si>
+    <t>زيت كريستال ذرة 6 زجاجة - 1.6 لتر</t>
+  </si>
+  <si>
+    <t>زيت كريستال عباد الشمس 6 زجاجة - 1.6 لتر</t>
+  </si>
+  <si>
+    <t>مارى بسكويت- 15 جنية</t>
+  </si>
+  <si>
+    <t>بسكويت جولى - 10 قطعه</t>
+  </si>
+  <si>
+    <t>ماكينة حلاقة جيليت بلو تو بلاس حصيرة - 48 ماكينة</t>
+  </si>
+  <si>
+    <t>بسكاتو بسكويت كريمة شيكولاتة- 60 جرام</t>
+  </si>
+  <si>
+    <t>مسحوق غسيل فل يدوى ابيض - 9 كجم</t>
+  </si>
+  <si>
+    <t>تونة دولفين مفتتة بارد 170 جم + 30 جم - 200 جم</t>
+  </si>
+  <si>
+    <t>مناديل فاميليا تواليت مضغوط 5 رول + 1 رول هدية - 6 رول</t>
+  </si>
+  <si>
+    <t>جبنة رودس فيتا بيضاء - 250 جم</t>
+  </si>
+  <si>
+    <t>صلصة هاينز - 360 جم</t>
+  </si>
+  <si>
+    <t>جبنـة ابو الولد - 8 مثلث</t>
+  </si>
+  <si>
+    <t>اوكسى اوتوماتيك نسيم الشرق 4 ك + 1 ك - 5 كجم</t>
+  </si>
+  <si>
+    <t>مسحوق غسيل فل يدوى ابيض - 2.5 كجم</t>
+  </si>
+  <si>
+    <t>حفاضات مولفيكس جامبو مقاس 6 - 48 حفاضة</t>
+  </si>
+  <si>
+    <t>بن ابو عوف وسط سادة صفيح - 200 جم</t>
+  </si>
+  <si>
+    <t>بن ابو عوف فاتح سادة صفيح - 200 جم</t>
+  </si>
+  <si>
+    <t>كلوز اب انتعاش ثلاثي احمر- 25 مل</t>
+  </si>
+  <si>
+    <t>مناديل بابيا تواليت 3 طبقات 5 رول + 1 رول هدية - 6 رول</t>
+  </si>
+  <si>
+    <t>حفاضات بى بم جامبو بانتس مقاس 6 - 46 حفاضة</t>
+  </si>
+  <si>
+    <t>رويال أعشاب كركديه - 12 فتلة</t>
+  </si>
+  <si>
+    <t>بن عبد المعبود محوج وسط - 100 جم</t>
+  </si>
+  <si>
+    <t>حفاضات جود كير مقاس 6 - 40 حفاضة</t>
+  </si>
+  <si>
+    <t>كمفورت اكياس ازرق ندي الربيع عبوه التوفير 4*1- 400 مل</t>
+  </si>
+  <si>
+    <t>سمن كريستال ابيض صفيحة - 4.25 كجم</t>
+  </si>
+  <si>
+    <t>لبان تشكلتس نعناع - 0.5 جنية</t>
+  </si>
+  <si>
+    <t>مولتو ميني شوكولاتة بالبندق قطع أكبر - 10 جنية</t>
+  </si>
+  <si>
+    <t>مولتو ماجنم شوكولاتة بالبندق - 15 جنية</t>
+  </si>
+  <si>
+    <t>ارز الضحى - 1 كجم</t>
+  </si>
+  <si>
+    <t>فيبا سائل أطباق تفاح- 4 كجم</t>
+  </si>
+  <si>
+    <t>كنور خلطه فيجيتار اكسترا كرسبي  - 55 جم</t>
+  </si>
+  <si>
+    <t>كنور خلطة بطاطس - 6 جم</t>
+  </si>
+  <si>
+    <t>جبنة رودس شيدر - 250 جم</t>
+  </si>
+  <si>
+    <t>جبنة رودس شيدر - 125 جم</t>
+  </si>
+  <si>
+    <t>جبنة رودس قشطة - 250 جم</t>
+  </si>
+  <si>
+    <t>بسكويت بيمبو شوكو ماكس - 5 جنية</t>
+  </si>
+  <si>
+    <t>بسكويت بيمبو اوريجنال - 5 جنية</t>
+  </si>
+  <si>
+    <t>مكرونة خطيرة هلالية - 280 جم</t>
+  </si>
+  <si>
+    <t>مناديل بابيا جيب كلاسيك 3 طبقة - 10 باكت</t>
+  </si>
+  <si>
+    <t>كتاكيتو فنجرز - 10 جنية</t>
+  </si>
+  <si>
+    <t>ستينج فراولة مينى تربو - 250 مل</t>
+  </si>
+  <si>
+    <t>سندة زيت خليط - 700 مل</t>
+  </si>
+  <si>
+    <t>حفاضات جود كير مقاس 3 - 100 حفاضة</t>
+  </si>
+  <si>
+    <t>كوكاكولا اكشن - 300 مل</t>
+  </si>
+  <si>
+    <t>سبرايت اكشن - 300 مل</t>
+  </si>
+  <si>
+    <t>اندومى لحمة بيف جامبو عرض 44 كيس - 100 جم</t>
+  </si>
+  <si>
+    <t>كلوركس الوان ظرف - 210 جم</t>
+  </si>
+  <si>
+    <t>زيت كريستال ذرة - 3.5 لتر</t>
+  </si>
+  <si>
+    <t>مايونيز هاينز دوى باك - 285 جم</t>
+  </si>
+  <si>
+    <t>كاتشب هاينز اسكويزى دوى باك - 285 جم</t>
+  </si>
+  <si>
+    <t>كلوروكس الوان باودر جديد 5 جنيه - 30 جم</t>
+  </si>
+  <si>
+    <t>مكرونة بساطة خواتم - 350 جم</t>
+  </si>
+  <si>
+    <t>مكرونة بساطة شعرية - 350 جم</t>
+  </si>
+  <si>
+    <t>مكرونة بساطة مرمرية - 350 جم</t>
+  </si>
+  <si>
+    <t>مكرونة بساطة هلالية - 350 جم</t>
+  </si>
+  <si>
+    <t>شاى العروسة -. 40 جم</t>
+  </si>
+  <si>
+    <t>اوكسى يدوى لافندر - 1.5 كجم</t>
+  </si>
+  <si>
+    <t>مناديل فاميليا سحب تريبل 3 طبقة - 500 منديل</t>
+  </si>
+  <si>
+    <t>حفاضات بامبرز بانتس مقاس 5 - 58 حفاضة</t>
+  </si>
+  <si>
+    <t>حفاضات بامبرز بانتس مقاس 4 - 58 حفاضة</t>
+  </si>
+  <si>
+    <t>حفاضات بى بم جامبو مقاس 5 - 58 حفاضة</t>
+  </si>
+  <si>
+    <t>عسل نحل البوادى زهرة الموالح - 235 جم</t>
+  </si>
+  <si>
+    <t>اوكسى يدوى نسيم الشرق - 1.5 كجم</t>
+  </si>
+  <si>
+    <t>لبان ترايدنت توت و فراولة 65 قطعة- 1.5 جنية</t>
+  </si>
+  <si>
+    <t>شويبس جولد اناناس - 950 مل</t>
+  </si>
+  <si>
+    <t>شويبس يوسفى - 950 مل</t>
+  </si>
+  <si>
+    <t>ماكسى تفاح - 400 مل</t>
+  </si>
+  <si>
+    <t>بسكويت ماندولين بالشوكولاتة و الكراميل- 34 جم</t>
+  </si>
+  <si>
+    <t>صابون كامى اناقة - 165 جم</t>
+  </si>
+  <si>
+    <t>بيبسى - 1.47 لتر</t>
+  </si>
+  <si>
+    <t>بلوبيف الذهبية - 340 جم</t>
+  </si>
+  <si>
+    <t>سفن اب 1.47 لتر</t>
+  </si>
+  <si>
+    <t>طحينة البوادى ظرف - 42 جم</t>
+  </si>
+  <si>
+    <t>سمن كريستال اصفر ظرف - 55 جم</t>
+  </si>
+  <si>
+    <t>زيت كريستال عباد الشمس - 5 لتر</t>
+  </si>
+  <si>
+    <t>حفاضات بى بم جامبو مقاس 4 - 58 حفاضة</t>
+  </si>
+  <si>
+    <t>حفاضات بى بم جامبو مقاس 6 - 48 حفاضة</t>
+  </si>
+  <si>
+    <t>زيت شعر فيانسيه مغذى باللوز - 175 مل</t>
+  </si>
+  <si>
+    <t>اوكسي سائل أطباق ليمون اخضر ( 9 عبوة ) - 1 كيلو</t>
+  </si>
+  <si>
+    <t>سمن كريستال ابيض - 1 كجم</t>
+  </si>
+  <si>
+    <t>هيركود جيل سبوت  - 10 مل</t>
+  </si>
+  <si>
+    <t>سمن كريستال ابيض - 700 جم</t>
+  </si>
+  <si>
+    <t>مناديل زينة تريو عرض خاص - 500 منديل</t>
+  </si>
+  <si>
+    <t>عصير جهينة بيور تفاح - 1 لتر</t>
+  </si>
+  <si>
+    <t>عصير جهينة بيور جوافة كوكتيل - 235 مل</t>
+  </si>
+  <si>
+    <t>شاى ليبتون اخضر - 25 فتلة</t>
+  </si>
+  <si>
+    <t>جبنة كيرى بالقشطة - 4 قطعه</t>
+  </si>
+  <si>
+    <t>امريكانا فول مدمس بالصلصة والتسبيكة - 400 جم</t>
+  </si>
+  <si>
+    <t>كادبوري بسكويت شوكو ديلايت - 25.5 جرام</t>
+  </si>
+  <si>
+    <t>حفاضات جود كير مقاس 4 - 58 حفاضة</t>
+  </si>
+  <si>
+    <t>سباركل شامبو مشكل (عادي/لامع/شيروسا ) - 40 شريط</t>
+  </si>
+  <si>
+    <t>مسحوق باهى لافندر اوتوماتيك 8 ك + 1 ك - 9 كجم</t>
+  </si>
+  <si>
+    <t>مربى البوادى تين - 365 جم</t>
+  </si>
+  <si>
+    <t>مربى البوادى مشمش - 680 جم</t>
+  </si>
+  <si>
+    <t>هارفست فول مقشور بالفلفل الحار خصم %15 - 400 جم</t>
+  </si>
+  <si>
+    <t>15% هارفست فول بزيت الزيتون خصم  - 400 جم</t>
+  </si>
+  <si>
+    <t>هارفست فول بالخلطة اللبنانية خصم %15 - 400 جم</t>
+  </si>
+  <si>
+    <t>هارفست فول بالطحينة خصم 15% - 400 جم</t>
+  </si>
+  <si>
+    <t>حفاضات بى بم ميجا مقاس 3 - 80 حفاضة</t>
+  </si>
+  <si>
+    <t>العبد كوكيز شكولاتة بقطع الشكولاتة - 29 جنية</t>
+  </si>
+  <si>
+    <t>بسكاتو دايجستا بسكوت مينى  ساده - 8 جنية</t>
+  </si>
+  <si>
+    <t>كورونا شوكولاتة داكنة 72%- 45 جنية</t>
+  </si>
+  <si>
+    <t>مسحوق ليدر عادى لافندر - 65 جم</t>
+  </si>
+  <si>
+    <t>مناديل فاميليا جيب 2 طبقة - 10 منديل</t>
+  </si>
+  <si>
+    <t>اندومى لحم بقرى - 44 كيس - 75 جم</t>
+  </si>
+  <si>
+    <t>اندومى فراخ بالكارى عرض 44  كيس - 75 جم</t>
+  </si>
+  <si>
+    <t>اندومى فراخ متبلة بالزيت عرض 44  كيس - 75 جم</t>
+  </si>
+  <si>
+    <t>اوكسى جل يدوى لافندر - 30 جم</t>
+  </si>
+  <si>
+    <t>اوكسى جل بلاك - 30 جم</t>
+  </si>
+  <si>
+    <t>اوكسى يدوى لافندر - 1 كجم</t>
+  </si>
+  <si>
+    <t>اوكسى يدوى نسيم الشرق - 1 كجم</t>
+  </si>
+  <si>
+    <t>راني عصير مشروب فراولة وموز - 235 مل</t>
+  </si>
+  <si>
+    <t>ارز حبوبة بسمتى زهبى هندى طويل الحبة - 1 كجم</t>
+  </si>
+  <si>
+    <t>سمنة حبوبة نباتى صفراء - 300 جم</t>
+  </si>
+  <si>
+    <t>صابون لوكس سحر الاوركيد - 75 جم</t>
+  </si>
+  <si>
+    <t>صابون لوكس بشرة مثالية - 75 جم</t>
+  </si>
+  <si>
+    <t>صابون لوكس بشرة نضرة - 75 جم</t>
+  </si>
+  <si>
+    <t>كنور فاين فودز مرقة دجاج عرض خاص - 12 مكعب 108 جرام</t>
+  </si>
+  <si>
+    <t>سمنة حبوبة نباتى صفراء برطمان - 600 جم</t>
+  </si>
+  <si>
+    <t>بسكويت اولكر بالتمر 4 قطع - 5 جنية</t>
+  </si>
+  <si>
+    <t>جود كير مناديل تواليت 2طبقة- 2 رول</t>
+  </si>
+  <si>
+    <t>اوكسى سائل اطباق ليمون أخضر ظرف 35 جرام</t>
+  </si>
+  <si>
+    <t>اوكسى سائل اطباق ليمون أصفر ظرف 35 جرام</t>
+  </si>
+  <si>
+    <t>مورو ماكس نوجا كراميل مغطي شكولاته- 50 جم</t>
+  </si>
+  <si>
+    <t>سائل اطباق وفير بلس ليمون اصفر - 40 جم</t>
+  </si>
+  <si>
+    <t>شويبس اناناس بلاستيك - 250 مل</t>
+  </si>
+  <si>
+    <t>صابون لوكس بشرة نضرة - 115 جم</t>
+  </si>
+  <si>
+    <t>اوكسي سائل أطباق ليمون اصفر- 100 جم</t>
+  </si>
+  <si>
+    <t>اوكسى يدوى نسيم الشرق - 330 جم</t>
+  </si>
+  <si>
+    <t>مسحوق باهى يدوى لافندر - 310 جم</t>
+  </si>
+  <si>
+    <t>كل يوم عصير تفاح - 200 مل</t>
+  </si>
+  <si>
+    <t>كل يوم عصير مانجو - 200 مل</t>
+  </si>
+  <si>
+    <t>XXL مولتو شيكولاته بالبندق  - 10 جنية</t>
+  </si>
+  <si>
+    <t>صابون لوكس بشرة مثالية - 165 جم</t>
+  </si>
+  <si>
+    <t>سندة أرز رفيع- 1 كجم</t>
+  </si>
+  <si>
+    <t>أد- مى مربى تين - 360 جم</t>
+  </si>
+  <si>
+    <t>لبن بالهنا - 450 مل</t>
+  </si>
+  <si>
+    <t>ياس عصير مانجو - بلاستك 200 مل</t>
+  </si>
+  <si>
+    <t>مناديل بابيا مطبخ 3 طبقة 5 رول + 1 رول هدية 6 رول</t>
+  </si>
+  <si>
+    <t>اوكسى يدوى نسيم الربيع 15 جنيه - 175 جم</t>
+  </si>
+  <si>
+    <t>زيت كريستال عباد الشمس 6 زجاجة - 1 لتر</t>
+  </si>
+  <si>
+    <t>تيكا شوكوبون هابي شوكو - 30 جرام 10 جنية</t>
+  </si>
+  <si>
+    <t>تيكا مارشملو كبير- 10 جنية</t>
+  </si>
+  <si>
+    <t>مناديل زينة ميجا باك تريو الوان 3 طبقة - 700 منديل</t>
+  </si>
+  <si>
+    <t>حلو الشام فانيليا سائلة - 35 مل</t>
+  </si>
+  <si>
+    <t>أجين عصير مانجو محلى ظرف- 19 جم</t>
+  </si>
+  <si>
+    <t>أجين عصير برتقال محلى ظرف- 19 جم</t>
+  </si>
+  <si>
+    <t>بريكس مزيل بقع - 30 جم</t>
+  </si>
+  <si>
+    <t>ريد اقراص طارد للناموس - 60 قرص</t>
+  </si>
+  <si>
+    <t>فرسكا شوكو ستكس شوكولاتة مغطي شوكولاته بيضاءمحشو كاكاو وبندق 2 قطعه</t>
+  </si>
+  <si>
+    <t>فرسكا ستكس ويفر ملفوف محشو بكريمه الكاكاو والبندق 3 قطعه</t>
+  </si>
+  <si>
+    <t>فرسكا شوكوبار مغطى بالشوكولاتة -حجم اكبر 5 جنية</t>
+  </si>
+  <si>
+    <t>-أريال يدوى داونى 105 جم</t>
+  </si>
+  <si>
+    <t>أريال يدوى داونى - 340 جم</t>
+  </si>
+  <si>
+    <t>-أريال يدوى لافندر 1 كجم</t>
+  </si>
+  <si>
+    <t>صابون دوش عرض خاص - 110 جم</t>
+  </si>
+  <si>
+    <t>زيت ثمرات خليط - 700 مل</t>
+  </si>
+  <si>
+    <t>ارز ثمرات عريض - 1 كجم</t>
+  </si>
+  <si>
+    <t>لارش ميلت كيك بصوص الكاكاو ومغطي بالكاكاو - 10 جنية</t>
+  </si>
+  <si>
+    <t>ويفر تاوتاو كليك كاكاو - 5 جنية</t>
+  </si>
+  <si>
+    <t>منعم و معطر فلفيتا للمنسوجات رائحة الإسترخاء - 3 لتر</t>
+  </si>
+  <si>
+    <t>أمريكانا فول سادة 20% خصم-( 12عرض*2عبوة ) 400 جم</t>
+  </si>
+  <si>
+    <t>فاين سوبر تول برو مطبخ 2 رول  *3 طبقة 2 رول</t>
+  </si>
+  <si>
+    <t>مناديل فاميليا سحب 2 طبقة 3 عبوة عرض خاص - 650 منديل</t>
+  </si>
+  <si>
+    <t>مكرونة مرمرية بساطة - 1 كجم</t>
+  </si>
+  <si>
+    <t>مكرونة شعرية بساطة - 1 كجم</t>
+  </si>
+  <si>
+    <t>مكرونة بساطة اسباجيتى - 1 كجم</t>
+  </si>
+  <si>
+    <t>مكرونة فرن بساطة - 1 كجم</t>
+  </si>
+  <si>
+    <t>ليندو برو برائحه اللافندر - 130 جرام</t>
+  </si>
+  <si>
+    <t>ليندو برو برائحه اللافندر - 200 جرام</t>
+  </si>
+  <si>
+    <t>ليندو برو برائحه اللافندر - 400 جرام</t>
+  </si>
+  <si>
+    <t>ليندو برو برائحه اللافندر - 1 كجم</t>
+  </si>
+  <si>
+    <t>ليندو برو برائحه اللافندر  - 2 كجم</t>
+  </si>
+  <si>
+    <t>ليندو برو برائحه اللافندر - 2.5 كجم</t>
+  </si>
+  <si>
+    <t>شوكولاتة كادبورى بندق 15 جنيه - 18.5 جم</t>
+  </si>
+  <si>
+    <t>فاتيكا زيت شعر الارجان خصم 10% - 45 مل</t>
+  </si>
+  <si>
+    <t>-اريال أتوماتيك داونى - 9 كجم</t>
+  </si>
+  <si>
+    <t>بيتي حليب كامل الدسم - 900 مل</t>
+  </si>
+  <si>
+    <t>مولفيكس بريميوم جامبو اقتصادى مقاس5 كبير- 56 حفاضة</t>
+  </si>
+  <si>
+    <t>اندومي سوبر مى خضار حارجامبو عرض 44 كيس - 100 جم</t>
+  </si>
+  <si>
+    <t>اريال اوتوماتيك مسحوق لافندرعرض 400جرام-- 2.9 كجم</t>
+  </si>
+  <si>
+    <t>سولا فواكه - 240 قطعه</t>
+  </si>
+  <si>
+    <t>باراديس طوفي - 240 قطعه</t>
+  </si>
+  <si>
+    <t>جبنة باندا بسطرمة - 500 جم</t>
+  </si>
+  <si>
+    <t>جبنة ديرى فيتا بلس - 500 جم</t>
+  </si>
+  <si>
+    <t>اوكسي يدوي 32 كيس - 50 جم</t>
+  </si>
+  <si>
+    <t>اوكسي يدوي مسحوق 24 كيس - 110 جم</t>
+  </si>
+  <si>
+    <t>فيانسيه شامبو 7فى1 اكياس بالروزمارى والجوجوبا 5 مل</t>
+  </si>
+  <si>
+    <t>بقسماط ناعم ريتش بيك - 400 جرام</t>
+  </si>
+  <si>
+    <t>برسيل عالي الرغوة لافندر - 110 جم</t>
+  </si>
+  <si>
+    <t>راز كب كيك راز شيكولاته - 12 قطعه</t>
+  </si>
+  <si>
+    <t>راز كب كيك راز ذهبي فانليا - 12 قطعه</t>
+  </si>
+  <si>
+    <t>راز مينى كب كيك 8 قطع راز شيكولاته 16 كيس</t>
+  </si>
+  <si>
+    <t>بسكريم كوفى تايم بطعم القرفه - 10 جنية</t>
+  </si>
+  <si>
+    <t>بسكريم كوفى تايم بطعم التراميسو - 10 جنية</t>
+  </si>
+  <si>
+    <t>علبة كوكيز ميكس - 18 قطعه</t>
+  </si>
+  <si>
+    <t>مولفيكس بانتس جامبو اقتصادي مقاس 5 - 56 حفاضة</t>
+  </si>
+  <si>
+    <t>عصير تانج مانجو بودر برطمان - 450 جم</t>
+  </si>
+  <si>
+    <t>ماكسى كانز ليمون نعناع اورجينال - 300 مل</t>
+  </si>
+  <si>
+    <t>حفاضات بى بم بانتس مقاس 4 - 76 حفاضة</t>
+  </si>
+  <si>
+    <t>حفاضات بى بم بانتس مقاس 5 - 72 حفاضة</t>
+  </si>
+  <si>
+    <t>مشروب بودرة تانج  برتقال جديد 2 لتر - 40 جرام</t>
+  </si>
+  <si>
+    <t>مشروب بودرة تانج مانجو جديد 2 لتر - 40 جرام</t>
+  </si>
+  <si>
+    <t>كيك كمارا تورنيدو كريمة الفانيليا و مربى الفراولة- 6 قطعة - 5 جنية</t>
+  </si>
+  <si>
+    <t>بسكويت باى لاك ﺑﺎﻟﺘﻤﺮ- 5 جنية</t>
+  </si>
+  <si>
+    <t>شوكولاته تابلت حشو كريمة كاكاو - 10 جنية</t>
+  </si>
+  <si>
+    <t>اندومى فراخ - 5 جنية 56 جم</t>
+  </si>
+  <si>
+    <t>اندومى سوبر مى خضار - 5 جنيه - 56 جم</t>
+  </si>
+  <si>
+    <t>مسحوق باهى يدوى لافندر 12 كيس- 135 جم</t>
+  </si>
+  <si>
+    <t>اريال اوتوماتيك برائحة البخور 2 كيس-- 9 كجم</t>
+  </si>
+  <si>
+    <t>المراعي جبنة فيتا بالشيدر -عرض الكل كسبان 250 جم</t>
+  </si>
+  <si>
+    <t>المراعي جبنة فيتا بالرومي -عرض الكل كسبان 250 جم</t>
+  </si>
+  <si>
+    <t>شوكولاتة ديرى ميلك بابلي اوريو - 27 جم</t>
+  </si>
+  <si>
+    <t>شوكولاتة بابلي فاميلى بالحليب ونكهة الفراوله - 27 جم</t>
+  </si>
+  <si>
+    <t>YES</t>
   </si>
   <si>
     <t>NO</t>
-  </si>
-  <si>
-    <t>YES</t>
   </si>
 </sst>
 </file>
@@ -404,7 +1298,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G438"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,87 +1329,7431 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>3558</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>28.5</v>
+        <v>452.5</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>3558</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>684</v>
+        <v>456.25</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>3558</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>342</v>
+        <v>582.5</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>3558</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>1368</v>
+        <v>582.5</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>12925</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>483</v>
+        <v>198</v>
       </c>
       <c r="E6" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>88</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
         <v>10</v>
+      </c>
+      <c r="D7">
+        <v>51.25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>88</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>2460</v>
+      </c>
+      <c r="E8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>94</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>236.5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>94</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>2838</v>
+      </c>
+      <c r="E10" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>105</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>664.5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>105</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>110.75</v>
+      </c>
+      <c r="E12" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>107</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>630</v>
+      </c>
+      <c r="E13" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>107</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14">
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <v>126</v>
+      </c>
+      <c r="E14" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>109</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>125.5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>109</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1506</v>
+      </c>
+      <c r="E16" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>110</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1088</v>
+      </c>
+      <c r="E17" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>110</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>136</v>
+      </c>
+      <c r="E18" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>130</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>490</v>
+      </c>
+      <c r="E19" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>142</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>189.5</v>
+      </c>
+      <c r="E20" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>144</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>195</v>
+      </c>
+      <c r="E21" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>145</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>195</v>
+      </c>
+      <c r="E22" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>192</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>936</v>
+      </c>
+      <c r="E23" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>192</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>19.5</v>
+      </c>
+      <c r="E24" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>201</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>101.25</v>
+      </c>
+      <c r="E25" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>201</v>
+      </c>
+      <c r="B26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1012.5</v>
+      </c>
+      <c r="E26" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>214</v>
+      </c>
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>52</v>
+      </c>
+      <c r="E27" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>214</v>
+      </c>
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1248</v>
+      </c>
+      <c r="E28" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>215</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>8781</v>
+      </c>
+      <c r="E29" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>215</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="D30">
+        <v>731.75</v>
+      </c>
+      <c r="E30" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>247</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>335</v>
+      </c>
+      <c r="E31" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>248</v>
+      </c>
+      <c r="B32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>551.25</v>
+      </c>
+      <c r="E32" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>305</v>
+      </c>
+      <c r="B33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>197.25</v>
+      </c>
+      <c r="E33" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>307</v>
+      </c>
+      <c r="B34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>196.25</v>
+      </c>
+      <c r="E34" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>326</v>
+      </c>
+      <c r="B35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>347.75</v>
+      </c>
+      <c r="E35" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>336</v>
+      </c>
+      <c r="B36" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36">
+        <v>16</v>
+      </c>
+      <c r="D36">
+        <v>535</v>
+      </c>
+      <c r="E36" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>336</v>
+      </c>
+      <c r="B37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37">
+        <v>15</v>
+      </c>
+      <c r="D37">
+        <v>267.5</v>
+      </c>
+      <c r="E37" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>336</v>
+      </c>
+      <c r="B38" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1070</v>
+      </c>
+      <c r="E38" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>336</v>
+      </c>
+      <c r="B39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39">
+        <v>10</v>
+      </c>
+      <c r="D39">
+        <v>26.75</v>
+      </c>
+      <c r="E39" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>344</v>
+      </c>
+      <c r="B40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40">
+        <v>25</v>
+      </c>
+      <c r="D40">
+        <v>364.25</v>
+      </c>
+      <c r="E40" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>344</v>
+      </c>
+      <c r="B41" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>1092.75</v>
+      </c>
+      <c r="E41" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>346</v>
+      </c>
+      <c r="B42" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>192</v>
+      </c>
+      <c r="E42" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>346</v>
+      </c>
+      <c r="B43" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43">
+        <v>48</v>
+      </c>
+      <c r="E43" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>410</v>
+      </c>
+      <c r="B44" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>275</v>
+      </c>
+      <c r="E44" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>414</v>
+      </c>
+      <c r="B45" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>344.25</v>
+      </c>
+      <c r="E45" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <v>416</v>
+      </c>
+      <c r="B46" t="s">
+        <v>36</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>339.5</v>
+      </c>
+      <c r="E46" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>432</v>
+      </c>
+      <c r="B47" t="s">
+        <v>37</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="D47">
+        <v>99.75</v>
+      </c>
+      <c r="E47" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
+        <v>432</v>
+      </c>
+      <c r="B48" t="s">
+        <v>37</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>798</v>
+      </c>
+      <c r="E48" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>434</v>
+      </c>
+      <c r="B49" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49">
+        <v>280.5</v>
+      </c>
+      <c r="E49" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50">
+        <v>435</v>
+      </c>
+      <c r="B50" t="s">
+        <v>39</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50">
+        <v>291</v>
+      </c>
+      <c r="E50" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>440</v>
+      </c>
+      <c r="B51" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51">
+        <v>3</v>
+      </c>
+      <c r="D51">
+        <v>160</v>
+      </c>
+      <c r="E51" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52">
+        <v>440</v>
+      </c>
+      <c r="B52" t="s">
+        <v>40</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>960</v>
+      </c>
+      <c r="E52" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53">
+        <v>448</v>
+      </c>
+      <c r="B53" t="s">
+        <v>41</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>625</v>
+      </c>
+      <c r="E53" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54">
+        <v>470</v>
+      </c>
+      <c r="B54" t="s">
+        <v>42</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>837</v>
+      </c>
+      <c r="E54" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55">
+        <v>473</v>
+      </c>
+      <c r="B55" t="s">
+        <v>43</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>432</v>
+      </c>
+      <c r="E55" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56">
+        <v>474</v>
+      </c>
+      <c r="B56" t="s">
+        <v>44</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>416</v>
+      </c>
+      <c r="E56" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57">
+        <v>506</v>
+      </c>
+      <c r="B57" t="s">
+        <v>45</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>323.25</v>
+      </c>
+      <c r="E57" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58">
+        <v>563</v>
+      </c>
+      <c r="B58" t="s">
+        <v>46</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
+      </c>
+      <c r="D58">
+        <v>402.5</v>
+      </c>
+      <c r="E58" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59">
+        <v>593</v>
+      </c>
+      <c r="B59" t="s">
+        <v>47</v>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+      <c r="D59">
+        <v>129</v>
+      </c>
+      <c r="E59" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60">
+        <v>790</v>
+      </c>
+      <c r="B60" t="s">
+        <v>48</v>
+      </c>
+      <c r="C60">
+        <v>2</v>
+      </c>
+      <c r="D60">
+        <v>718.25</v>
+      </c>
+      <c r="E60" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61">
+        <v>791</v>
+      </c>
+      <c r="B61" t="s">
+        <v>49</v>
+      </c>
+      <c r="C61">
+        <v>2</v>
+      </c>
+      <c r="D61">
+        <v>729.25</v>
+      </c>
+      <c r="E61" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62">
+        <v>823</v>
+      </c>
+      <c r="B62" t="s">
+        <v>50</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>727.5</v>
+      </c>
+      <c r="E62" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63">
+        <v>952</v>
+      </c>
+      <c r="B63" t="s">
+        <v>51</v>
+      </c>
+      <c r="C63">
+        <v>4</v>
+      </c>
+      <c r="D63">
+        <v>355</v>
+      </c>
+      <c r="E63" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64">
+        <v>952</v>
+      </c>
+      <c r="B64" t="s">
+        <v>51</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>4260</v>
+      </c>
+      <c r="E64" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65">
+        <v>962</v>
+      </c>
+      <c r="B65" t="s">
+        <v>52</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>657</v>
+      </c>
+      <c r="E65" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66">
+        <v>962</v>
+      </c>
+      <c r="B66" t="s">
+        <v>52</v>
+      </c>
+      <c r="C66">
+        <v>10</v>
+      </c>
+      <c r="D66">
+        <v>54.75</v>
+      </c>
+      <c r="E66" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67">
+        <v>990</v>
+      </c>
+      <c r="B67" t="s">
+        <v>53</v>
+      </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
+      <c r="D67">
+        <v>556.75</v>
+      </c>
+      <c r="E67" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68">
+        <v>1007</v>
+      </c>
+      <c r="B68" t="s">
+        <v>54</v>
+      </c>
+      <c r="C68">
+        <v>2</v>
+      </c>
+      <c r="D68">
+        <v>108</v>
+      </c>
+      <c r="E68" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69">
+        <v>1055</v>
+      </c>
+      <c r="B69" t="s">
+        <v>55</v>
+      </c>
+      <c r="C69">
+        <v>2</v>
+      </c>
+      <c r="D69">
+        <v>773</v>
+      </c>
+      <c r="E69" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70">
+        <v>1070</v>
+      </c>
+      <c r="B70" t="s">
+        <v>56</v>
+      </c>
+      <c r="C70">
+        <v>2</v>
+      </c>
+      <c r="D70">
+        <v>1035</v>
+      </c>
+      <c r="E70" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71">
+        <v>1070</v>
+      </c>
+      <c r="B71" t="s">
+        <v>56</v>
+      </c>
+      <c r="C71">
+        <v>7</v>
+      </c>
+      <c r="D71">
+        <v>51.75</v>
+      </c>
+      <c r="E71" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72">
+        <v>1095</v>
+      </c>
+      <c r="B72" t="s">
+        <v>57</v>
+      </c>
+      <c r="C72">
+        <v>2</v>
+      </c>
+      <c r="D72">
+        <v>59.75</v>
+      </c>
+      <c r="E72" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73">
+        <v>1095</v>
+      </c>
+      <c r="B73" t="s">
+        <v>57</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>478</v>
+      </c>
+      <c r="E73" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74">
+        <v>1124</v>
+      </c>
+      <c r="B74" t="s">
+        <v>58</v>
+      </c>
+      <c r="C74">
+        <v>2</v>
+      </c>
+      <c r="D74">
+        <v>157</v>
+      </c>
+      <c r="E74" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75">
+        <v>1243</v>
+      </c>
+      <c r="B75" t="s">
+        <v>59</v>
+      </c>
+      <c r="C75">
+        <v>2</v>
+      </c>
+      <c r="D75">
+        <v>305.5</v>
+      </c>
+      <c r="E75" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76">
+        <v>1274</v>
+      </c>
+      <c r="B76" t="s">
+        <v>60</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>394.25</v>
+      </c>
+      <c r="E76" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77">
+        <v>1406</v>
+      </c>
+      <c r="B77" t="s">
+        <v>61</v>
+      </c>
+      <c r="C77">
+        <v>2</v>
+      </c>
+      <c r="D77">
+        <v>1058.25</v>
+      </c>
+      <c r="E77" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78">
+        <v>1406</v>
+      </c>
+      <c r="B78" t="s">
+        <v>61</v>
+      </c>
+      <c r="C78">
+        <v>25</v>
+      </c>
+      <c r="D78">
+        <v>352.75</v>
+      </c>
+      <c r="E78" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79">
+        <v>1492</v>
+      </c>
+      <c r="B79" t="s">
+        <v>62</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>788</v>
+      </c>
+      <c r="E79" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80">
+        <v>1576</v>
+      </c>
+      <c r="B80" t="s">
+        <v>63</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>604.75</v>
+      </c>
+      <c r="E80" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81">
+        <v>1691</v>
+      </c>
+      <c r="B81" t="s">
+        <v>64</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>328</v>
+      </c>
+      <c r="E81" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82">
+        <v>1801</v>
+      </c>
+      <c r="B82" t="s">
+        <v>65</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>291.5</v>
+      </c>
+      <c r="E82" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83">
+        <v>1805</v>
+      </c>
+      <c r="B83" t="s">
+        <v>66</v>
+      </c>
+      <c r="C83">
+        <v>2</v>
+      </c>
+      <c r="D83">
+        <v>147</v>
+      </c>
+      <c r="E83" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84">
+        <v>1805</v>
+      </c>
+      <c r="B84" t="s">
+        <v>66</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>1764</v>
+      </c>
+      <c r="E84" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85">
+        <v>1886</v>
+      </c>
+      <c r="B85" t="s">
+        <v>67</v>
+      </c>
+      <c r="C85">
+        <v>2</v>
+      </c>
+      <c r="D85">
+        <v>196.5</v>
+      </c>
+      <c r="E85" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86">
+        <v>2050</v>
+      </c>
+      <c r="B86" t="s">
+        <v>68</v>
+      </c>
+      <c r="C86">
+        <v>3</v>
+      </c>
+      <c r="D86">
+        <v>62</v>
+      </c>
+      <c r="E86" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87">
+        <v>2050</v>
+      </c>
+      <c r="B87" t="s">
+        <v>68</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>1488</v>
+      </c>
+      <c r="E87" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88">
+        <v>2055</v>
+      </c>
+      <c r="B88" t="s">
+        <v>69</v>
+      </c>
+      <c r="C88">
+        <v>3</v>
+      </c>
+      <c r="D88">
+        <v>62.5</v>
+      </c>
+      <c r="E88" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89">
+        <v>2055</v>
+      </c>
+      <c r="B89" t="s">
+        <v>69</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89">
+        <v>1500</v>
+      </c>
+      <c r="E89" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90">
+        <v>2104</v>
+      </c>
+      <c r="B90" t="s">
+        <v>70</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>1038</v>
+      </c>
+      <c r="E90" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91">
+        <v>2104</v>
+      </c>
+      <c r="B91" t="s">
+        <v>70</v>
+      </c>
+      <c r="C91">
+        <v>3</v>
+      </c>
+      <c r="D91">
+        <v>86.5</v>
+      </c>
+      <c r="E91" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92">
+        <v>2108</v>
+      </c>
+      <c r="B92" t="s">
+        <v>71</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>672</v>
+      </c>
+      <c r="E92" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93">
+        <v>2108</v>
+      </c>
+      <c r="B93" t="s">
+        <v>71</v>
+      </c>
+      <c r="C93">
+        <v>3</v>
+      </c>
+      <c r="D93">
+        <v>112</v>
+      </c>
+      <c r="E93" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94">
+        <v>2216</v>
+      </c>
+      <c r="B94" t="s">
+        <v>72</v>
+      </c>
+      <c r="C94">
+        <v>15</v>
+      </c>
+      <c r="D94">
+        <v>95</v>
+      </c>
+      <c r="E94" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95">
+        <v>2216</v>
+      </c>
+      <c r="B95" t="s">
+        <v>72</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>380</v>
+      </c>
+      <c r="E95" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96">
+        <v>2216</v>
+      </c>
+      <c r="B96" t="s">
+        <v>72</v>
+      </c>
+      <c r="C96">
+        <v>10</v>
+      </c>
+      <c r="D96">
+        <v>23.75</v>
+      </c>
+      <c r="E96" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97">
+        <v>2216</v>
+      </c>
+      <c r="B97" t="s">
+        <v>72</v>
+      </c>
+      <c r="C97">
+        <v>16</v>
+      </c>
+      <c r="D97">
+        <v>190</v>
+      </c>
+      <c r="E97" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98">
+        <v>2225</v>
+      </c>
+      <c r="B98" t="s">
+        <v>73</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>591</v>
+      </c>
+      <c r="E98" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99">
+        <v>2225</v>
+      </c>
+      <c r="B99" t="s">
+        <v>73</v>
+      </c>
+      <c r="C99">
+        <v>3</v>
+      </c>
+      <c r="D99">
+        <v>49.25</v>
+      </c>
+      <c r="E99" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100">
+        <v>2244</v>
+      </c>
+      <c r="B100" t="s">
+        <v>74</v>
+      </c>
+      <c r="C100">
+        <v>3</v>
+      </c>
+      <c r="D100">
+        <v>204.5</v>
+      </c>
+      <c r="E100" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101">
+        <v>2244</v>
+      </c>
+      <c r="B101" t="s">
+        <v>74</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <v>1227</v>
+      </c>
+      <c r="E101" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102">
+        <v>2325</v>
+      </c>
+      <c r="B102" t="s">
+        <v>75</v>
+      </c>
+      <c r="C102">
+        <v>2</v>
+      </c>
+      <c r="D102">
+        <v>286</v>
+      </c>
+      <c r="E102" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103">
+        <v>2331</v>
+      </c>
+      <c r="B103" t="s">
+        <v>76</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>242</v>
+      </c>
+      <c r="E103" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104">
+        <v>2335</v>
+      </c>
+      <c r="B104" t="s">
+        <v>77</v>
+      </c>
+      <c r="C104">
+        <v>3</v>
+      </c>
+      <c r="D104">
+        <v>138.25</v>
+      </c>
+      <c r="E104" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105">
+        <v>2335</v>
+      </c>
+      <c r="B105" t="s">
+        <v>77</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105">
+        <v>1659</v>
+      </c>
+      <c r="E105" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106">
+        <v>2368</v>
+      </c>
+      <c r="B106" t="s">
+        <v>78</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106">
+        <v>1755</v>
+      </c>
+      <c r="E106" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107">
+        <v>2368</v>
+      </c>
+      <c r="B107" t="s">
+        <v>78</v>
+      </c>
+      <c r="C107">
+        <v>3</v>
+      </c>
+      <c r="D107">
+        <v>87.75</v>
+      </c>
+      <c r="E107" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108">
+        <v>2369</v>
+      </c>
+      <c r="B108" t="s">
+        <v>79</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108">
+        <v>1785</v>
+      </c>
+      <c r="E108" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109">
+        <v>2369</v>
+      </c>
+      <c r="B109" t="s">
+        <v>79</v>
+      </c>
+      <c r="C109">
+        <v>3</v>
+      </c>
+      <c r="D109">
+        <v>89.25</v>
+      </c>
+      <c r="E109" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110">
+        <v>2438</v>
+      </c>
+      <c r="B110" t="s">
+        <v>80</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110">
+        <v>534</v>
+      </c>
+      <c r="E110" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111">
+        <v>2438</v>
+      </c>
+      <c r="B111" t="s">
+        <v>80</v>
+      </c>
+      <c r="C111">
+        <v>2</v>
+      </c>
+      <c r="D111">
+        <v>44.5</v>
+      </c>
+      <c r="E111" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112">
+        <v>2497</v>
+      </c>
+      <c r="B112" t="s">
+        <v>81</v>
+      </c>
+      <c r="C112">
+        <v>2</v>
+      </c>
+      <c r="D112">
+        <v>185.75</v>
+      </c>
+      <c r="E112" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113">
+        <v>2539</v>
+      </c>
+      <c r="B113" t="s">
+        <v>82</v>
+      </c>
+      <c r="C113">
+        <v>29</v>
+      </c>
+      <c r="D113">
+        <v>277.5</v>
+      </c>
+      <c r="E113" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114">
+        <v>2726</v>
+      </c>
+      <c r="B114" t="s">
+        <v>83</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+      <c r="D114">
+        <v>2715</v>
+      </c>
+      <c r="E114" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115">
+        <v>2726</v>
+      </c>
+      <c r="B115" t="s">
+        <v>83</v>
+      </c>
+      <c r="C115">
+        <v>3</v>
+      </c>
+      <c r="D115">
+        <v>226.25</v>
+      </c>
+      <c r="E115" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116">
+        <v>2730</v>
+      </c>
+      <c r="B116" t="s">
+        <v>84</v>
+      </c>
+      <c r="C116">
+        <v>3</v>
+      </c>
+      <c r="D116">
+        <v>338</v>
+      </c>
+      <c r="E116" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117">
+        <v>2730</v>
+      </c>
+      <c r="B117" t="s">
+        <v>84</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117">
+        <v>4056</v>
+      </c>
+      <c r="E117" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118">
+        <v>2738</v>
+      </c>
+      <c r="B118" t="s">
+        <v>85</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+      <c r="D118">
+        <v>766</v>
+      </c>
+      <c r="E118" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119">
+        <v>2738</v>
+      </c>
+      <c r="B119" t="s">
+        <v>85</v>
+      </c>
+      <c r="C119">
+        <v>3</v>
+      </c>
+      <c r="D119">
+        <v>95.75</v>
+      </c>
+      <c r="E119" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120">
+        <v>2743</v>
+      </c>
+      <c r="B120" t="s">
+        <v>86</v>
+      </c>
+      <c r="C120">
+        <v>3</v>
+      </c>
+      <c r="D120">
+        <v>83.5</v>
+      </c>
+      <c r="E120" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121">
+        <v>2743</v>
+      </c>
+      <c r="B121" t="s">
+        <v>86</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+      <c r="D121">
+        <v>1670</v>
+      </c>
+      <c r="E121" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122">
+        <v>2776</v>
+      </c>
+      <c r="B122" t="s">
+        <v>87</v>
+      </c>
+      <c r="C122">
+        <v>2</v>
+      </c>
+      <c r="D122">
+        <v>199.75</v>
+      </c>
+      <c r="E122" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123">
+        <v>2805</v>
+      </c>
+      <c r="B123" t="s">
+        <v>88</v>
+      </c>
+      <c r="C123">
+        <v>137</v>
+      </c>
+      <c r="D123">
+        <v>160</v>
+      </c>
+      <c r="E123" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124">
+        <v>2821</v>
+      </c>
+      <c r="B124" t="s">
+        <v>89</v>
+      </c>
+      <c r="C124">
+        <v>3</v>
+      </c>
+      <c r="D124">
+        <v>21.75</v>
+      </c>
+      <c r="E124" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125">
+        <v>2821</v>
+      </c>
+      <c r="B125" t="s">
+        <v>89</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+      <c r="D125">
+        <v>522</v>
+      </c>
+      <c r="E125" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126">
+        <v>2878</v>
+      </c>
+      <c r="B126" t="s">
+        <v>90</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+      <c r="D126">
+        <v>372</v>
+      </c>
+      <c r="E126" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127">
+        <v>2879</v>
+      </c>
+      <c r="B127" t="s">
+        <v>91</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="D127">
+        <v>773</v>
+      </c>
+      <c r="E127" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128">
+        <v>2916</v>
+      </c>
+      <c r="B128" t="s">
+        <v>92</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="D128">
+        <v>948</v>
+      </c>
+      <c r="E128" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129">
+        <v>2934</v>
+      </c>
+      <c r="B129" t="s">
+        <v>93</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+      <c r="D129">
+        <v>1049.75</v>
+      </c>
+      <c r="E129" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130">
+        <v>2935</v>
+      </c>
+      <c r="B130" t="s">
+        <v>94</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+      <c r="D130">
+        <v>863.75</v>
+      </c>
+      <c r="E130" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131">
+        <v>2989</v>
+      </c>
+      <c r="B131" t="s">
+        <v>95</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+      <c r="D131">
+        <v>503</v>
+      </c>
+      <c r="E131" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132">
+        <v>2989</v>
+      </c>
+      <c r="B132" t="s">
+        <v>95</v>
+      </c>
+      <c r="C132">
+        <v>3</v>
+      </c>
+      <c r="D132">
+        <v>125.75</v>
+      </c>
+      <c r="E132" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133">
+        <v>2992</v>
+      </c>
+      <c r="B133" t="s">
+        <v>96</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+      <c r="D133">
+        <v>825</v>
+      </c>
+      <c r="E133" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134">
+        <v>2992</v>
+      </c>
+      <c r="B134" t="s">
+        <v>96</v>
+      </c>
+      <c r="C134">
+        <v>3</v>
+      </c>
+      <c r="D134">
+        <v>206.25</v>
+      </c>
+      <c r="E134" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135">
+        <v>3016</v>
+      </c>
+      <c r="B135" t="s">
+        <v>97</v>
+      </c>
+      <c r="C135">
+        <v>3</v>
+      </c>
+      <c r="D135">
+        <v>1078.5</v>
+      </c>
+      <c r="E135" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136">
+        <v>3016</v>
+      </c>
+      <c r="B136" t="s">
+        <v>97</v>
+      </c>
+      <c r="C136">
+        <v>68</v>
+      </c>
+      <c r="D136">
+        <v>539.25</v>
+      </c>
+      <c r="E136" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137">
+        <v>3016</v>
+      </c>
+      <c r="B137" t="s">
+        <v>97</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+      <c r="D137">
+        <v>6471</v>
+      </c>
+      <c r="E137" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138">
+        <v>3024</v>
+      </c>
+      <c r="B138" t="s">
+        <v>98</v>
+      </c>
+      <c r="C138">
+        <v>3</v>
+      </c>
+      <c r="D138">
+        <v>109.5</v>
+      </c>
+      <c r="E138" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139">
+        <v>3024</v>
+      </c>
+      <c r="B139" t="s">
+        <v>98</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+      <c r="D139">
+        <v>328.5</v>
+      </c>
+      <c r="E139" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140">
+        <v>3334</v>
+      </c>
+      <c r="B140" t="s">
+        <v>99</v>
+      </c>
+      <c r="C140">
+        <v>5</v>
+      </c>
+      <c r="D140">
+        <v>174.5</v>
+      </c>
+      <c r="E140" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141">
+        <v>3430</v>
+      </c>
+      <c r="B141" t="s">
+        <v>100</v>
+      </c>
+      <c r="C141">
+        <v>15</v>
+      </c>
+      <c r="D141">
+        <v>411</v>
+      </c>
+      <c r="E141" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142">
+        <v>3430</v>
+      </c>
+      <c r="B142" t="s">
+        <v>100</v>
+      </c>
+      <c r="C142">
+        <v>16</v>
+      </c>
+      <c r="D142">
+        <v>822</v>
+      </c>
+      <c r="E142" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143">
+        <v>3430</v>
+      </c>
+      <c r="B143" t="s">
+        <v>100</v>
+      </c>
+      <c r="C143">
+        <v>11</v>
+      </c>
+      <c r="D143">
+        <v>34.25</v>
+      </c>
+      <c r="E143" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144">
+        <v>3430</v>
+      </c>
+      <c r="B144" t="s">
+        <v>100</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
+      </c>
+      <c r="D144">
+        <v>1644</v>
+      </c>
+      <c r="E144" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145">
+        <v>3442</v>
+      </c>
+      <c r="B145" t="s">
+        <v>101</v>
+      </c>
+      <c r="C145">
+        <v>29</v>
+      </c>
+      <c r="D145">
+        <v>280.75</v>
+      </c>
+      <c r="E145" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146">
+        <v>3477</v>
+      </c>
+      <c r="B146" t="s">
+        <v>102</v>
+      </c>
+      <c r="C146">
+        <v>2</v>
+      </c>
+      <c r="D146">
+        <v>544.25</v>
+      </c>
+      <c r="E146" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147">
+        <v>3478</v>
+      </c>
+      <c r="B147" t="s">
+        <v>103</v>
+      </c>
+      <c r="C147">
+        <v>2</v>
+      </c>
+      <c r="D147">
+        <v>381</v>
+      </c>
+      <c r="E147" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148">
+        <v>3495</v>
+      </c>
+      <c r="B148" t="s">
+        <v>104</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+      <c r="D148">
+        <v>1120</v>
+      </c>
+      <c r="E148" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149">
+        <v>3495</v>
+      </c>
+      <c r="B149" t="s">
+        <v>104</v>
+      </c>
+      <c r="C149">
+        <v>3</v>
+      </c>
+      <c r="D149">
+        <v>28</v>
+      </c>
+      <c r="E149" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150">
+        <v>3658</v>
+      </c>
+      <c r="B150" t="s">
+        <v>105</v>
+      </c>
+      <c r="C150">
+        <v>1</v>
+      </c>
+      <c r="D150">
+        <v>811.25</v>
+      </c>
+      <c r="E150" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151">
+        <v>3664</v>
+      </c>
+      <c r="B151" t="s">
+        <v>106</v>
+      </c>
+      <c r="C151">
+        <v>5</v>
+      </c>
+      <c r="D151">
+        <v>53</v>
+      </c>
+      <c r="E151" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152">
+        <v>3896</v>
+      </c>
+      <c r="B152" t="s">
+        <v>107</v>
+      </c>
+      <c r="C152">
+        <v>29</v>
+      </c>
+      <c r="D152">
+        <v>927.75</v>
+      </c>
+      <c r="E152" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153">
+        <v>3896</v>
+      </c>
+      <c r="B153" t="s">
+        <v>107</v>
+      </c>
+      <c r="C153">
+        <v>25</v>
+      </c>
+      <c r="D153">
+        <v>309.25</v>
+      </c>
+      <c r="E153" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154">
+        <v>3903</v>
+      </c>
+      <c r="B154" t="s">
+        <v>108</v>
+      </c>
+      <c r="C154">
+        <v>14</v>
+      </c>
+      <c r="D154">
+        <v>162.75</v>
+      </c>
+      <c r="E154" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155">
+        <v>3903</v>
+      </c>
+      <c r="B155" t="s">
+        <v>108</v>
+      </c>
+      <c r="C155">
+        <v>1</v>
+      </c>
+      <c r="D155">
+        <v>1953</v>
+      </c>
+      <c r="E155" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156">
+        <v>3906</v>
+      </c>
+      <c r="B156" t="s">
+        <v>109</v>
+      </c>
+      <c r="C156">
+        <v>14</v>
+      </c>
+      <c r="D156">
+        <v>153.25</v>
+      </c>
+      <c r="E156" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157">
+        <v>3906</v>
+      </c>
+      <c r="B157" t="s">
+        <v>109</v>
+      </c>
+      <c r="C157">
+        <v>1</v>
+      </c>
+      <c r="D157">
+        <v>1839</v>
+      </c>
+      <c r="E157" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158">
+        <v>3970</v>
+      </c>
+      <c r="B158" t="s">
+        <v>110</v>
+      </c>
+      <c r="C158">
+        <v>1</v>
+      </c>
+      <c r="D158">
+        <v>2022</v>
+      </c>
+      <c r="E158" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159">
+        <v>3970</v>
+      </c>
+      <c r="B159" t="s">
+        <v>110</v>
+      </c>
+      <c r="C159">
+        <v>2</v>
+      </c>
+      <c r="D159">
+        <v>168.5</v>
+      </c>
+      <c r="E159" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160">
+        <v>4032</v>
+      </c>
+      <c r="B160" t="s">
+        <v>111</v>
+      </c>
+      <c r="C160">
+        <v>29</v>
+      </c>
+      <c r="D160">
+        <v>307.75</v>
+      </c>
+      <c r="E160" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161">
+        <v>4043</v>
+      </c>
+      <c r="B161" t="s">
+        <v>112</v>
+      </c>
+      <c r="C161">
+        <v>29</v>
+      </c>
+      <c r="D161">
+        <v>807.75</v>
+      </c>
+      <c r="E161" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162">
+        <v>4043</v>
+      </c>
+      <c r="B162" t="s">
+        <v>112</v>
+      </c>
+      <c r="C162">
+        <v>25</v>
+      </c>
+      <c r="D162">
+        <v>269.25</v>
+      </c>
+      <c r="E162" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163">
+        <v>4176</v>
+      </c>
+      <c r="B163" t="s">
+        <v>113</v>
+      </c>
+      <c r="C163">
+        <v>4</v>
+      </c>
+      <c r="D163">
+        <v>60.75</v>
+      </c>
+      <c r="E163" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164">
+        <v>4176</v>
+      </c>
+      <c r="B164" t="s">
+        <v>113</v>
+      </c>
+      <c r="C164">
+        <v>1</v>
+      </c>
+      <c r="D164">
+        <v>1458</v>
+      </c>
+      <c r="E164" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165">
+        <v>4223</v>
+      </c>
+      <c r="B165" t="s">
+        <v>114</v>
+      </c>
+      <c r="C165">
+        <v>1</v>
+      </c>
+      <c r="D165">
+        <v>8388</v>
+      </c>
+      <c r="E165" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166">
+        <v>4223</v>
+      </c>
+      <c r="B166" t="s">
+        <v>114</v>
+      </c>
+      <c r="C166">
+        <v>4</v>
+      </c>
+      <c r="D166">
+        <v>699</v>
+      </c>
+      <c r="E166" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167">
+        <v>4232</v>
+      </c>
+      <c r="B167" t="s">
+        <v>115</v>
+      </c>
+      <c r="C167">
+        <v>29</v>
+      </c>
+      <c r="D167">
+        <v>968.75</v>
+      </c>
+      <c r="E167" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168">
+        <v>4232</v>
+      </c>
+      <c r="B168" t="s">
+        <v>115</v>
+      </c>
+      <c r="C168">
+        <v>80</v>
+      </c>
+      <c r="D168">
+        <v>193.75</v>
+      </c>
+      <c r="E168" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169">
+        <v>4866</v>
+      </c>
+      <c r="B169" t="s">
+        <v>116</v>
+      </c>
+      <c r="C169">
+        <v>1</v>
+      </c>
+      <c r="D169">
+        <v>372.25</v>
+      </c>
+      <c r="E169" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170">
+        <v>4926</v>
+      </c>
+      <c r="B170" t="s">
+        <v>117</v>
+      </c>
+      <c r="C170">
+        <v>12</v>
+      </c>
+      <c r="D170">
+        <v>384.25</v>
+      </c>
+      <c r="E170" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171">
+        <v>5208</v>
+      </c>
+      <c r="B171" t="s">
+        <v>118</v>
+      </c>
+      <c r="C171">
+        <v>3</v>
+      </c>
+      <c r="D171">
+        <v>51.75</v>
+      </c>
+      <c r="E171" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172">
+        <v>5208</v>
+      </c>
+      <c r="B172" t="s">
+        <v>118</v>
+      </c>
+      <c r="C172">
+        <v>1</v>
+      </c>
+      <c r="D172">
+        <v>1552.5</v>
+      </c>
+      <c r="E172" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173">
+        <v>5452</v>
+      </c>
+      <c r="B173" t="s">
+        <v>119</v>
+      </c>
+      <c r="C173">
+        <v>1</v>
+      </c>
+      <c r="D173">
+        <v>202</v>
+      </c>
+      <c r="E173" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174">
+        <v>5453</v>
+      </c>
+      <c r="B174" t="s">
+        <v>120</v>
+      </c>
+      <c r="C174">
+        <v>1</v>
+      </c>
+      <c r="D174">
+        <v>286.5</v>
+      </c>
+      <c r="E174" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175">
+        <v>5513</v>
+      </c>
+      <c r="B175" t="s">
+        <v>121</v>
+      </c>
+      <c r="C175">
+        <v>2</v>
+      </c>
+      <c r="D175">
+        <v>372.5</v>
+      </c>
+      <c r="E175" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176">
+        <v>5517</v>
+      </c>
+      <c r="B176" t="s">
+        <v>122</v>
+      </c>
+      <c r="C176">
+        <v>1</v>
+      </c>
+      <c r="D176">
+        <v>362.75</v>
+      </c>
+      <c r="E176" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177">
+        <v>5577</v>
+      </c>
+      <c r="B177" t="s">
+        <v>123</v>
+      </c>
+      <c r="C177">
+        <v>3</v>
+      </c>
+      <c r="D177">
+        <v>138.25</v>
+      </c>
+      <c r="E177" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178">
+        <v>5577</v>
+      </c>
+      <c r="B178" t="s">
+        <v>123</v>
+      </c>
+      <c r="C178">
+        <v>1</v>
+      </c>
+      <c r="D178">
+        <v>829.5</v>
+      </c>
+      <c r="E178" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179">
+        <v>5584</v>
+      </c>
+      <c r="B179" t="s">
+        <v>124</v>
+      </c>
+      <c r="C179">
+        <v>1</v>
+      </c>
+      <c r="D179">
+        <v>1162.5</v>
+      </c>
+      <c r="E179" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180">
+        <v>5584</v>
+      </c>
+      <c r="B180" t="s">
+        <v>124</v>
+      </c>
+      <c r="C180">
+        <v>3</v>
+      </c>
+      <c r="D180">
+        <v>116.25</v>
+      </c>
+      <c r="E180" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181">
+        <v>5729</v>
+      </c>
+      <c r="B181" t="s">
+        <v>125</v>
+      </c>
+      <c r="C181">
+        <v>2</v>
+      </c>
+      <c r="D181">
+        <v>588.25</v>
+      </c>
+      <c r="E181" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182">
+        <v>5731</v>
+      </c>
+      <c r="B182" t="s">
+        <v>126</v>
+      </c>
+      <c r="C182">
+        <v>2</v>
+      </c>
+      <c r="D182">
+        <v>463.5</v>
+      </c>
+      <c r="E182" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183">
+        <v>5736</v>
+      </c>
+      <c r="B183" t="s">
+        <v>127</v>
+      </c>
+      <c r="C183">
+        <v>2</v>
+      </c>
+      <c r="D183">
+        <v>559.25</v>
+      </c>
+      <c r="E183" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184">
+        <v>5812</v>
+      </c>
+      <c r="B184" t="s">
+        <v>128</v>
+      </c>
+      <c r="C184">
+        <v>3</v>
+      </c>
+      <c r="D184">
+        <v>48</v>
+      </c>
+      <c r="E184" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185">
+        <v>5812</v>
+      </c>
+      <c r="B185" t="s">
+        <v>128</v>
+      </c>
+      <c r="C185">
+        <v>1</v>
+      </c>
+      <c r="D185">
+        <v>576</v>
+      </c>
+      <c r="E185" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186">
+        <v>5813</v>
+      </c>
+      <c r="B186" t="s">
+        <v>129</v>
+      </c>
+      <c r="C186">
+        <v>3</v>
+      </c>
+      <c r="D186">
+        <v>47.75</v>
+      </c>
+      <c r="E186" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187">
+        <v>5813</v>
+      </c>
+      <c r="B187" t="s">
+        <v>129</v>
+      </c>
+      <c r="C187">
+        <v>1</v>
+      </c>
+      <c r="D187">
+        <v>573</v>
+      </c>
+      <c r="E187" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188">
+        <v>5867</v>
+      </c>
+      <c r="B188" t="s">
+        <v>130</v>
+      </c>
+      <c r="C188">
+        <v>1</v>
+      </c>
+      <c r="D188">
+        <v>136</v>
+      </c>
+      <c r="E188" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189">
+        <v>5976</v>
+      </c>
+      <c r="B189" t="s">
+        <v>131</v>
+      </c>
+      <c r="C189">
+        <v>1</v>
+      </c>
+      <c r="D189">
+        <v>189</v>
+      </c>
+      <c r="E189" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190">
+        <v>6083</v>
+      </c>
+      <c r="B190" t="s">
+        <v>132</v>
+      </c>
+      <c r="C190">
+        <v>3</v>
+      </c>
+      <c r="D190">
+        <v>113.75</v>
+      </c>
+      <c r="E190" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191">
+        <v>6083</v>
+      </c>
+      <c r="B191" t="s">
+        <v>132</v>
+      </c>
+      <c r="C191">
+        <v>1</v>
+      </c>
+      <c r="D191">
+        <v>1365</v>
+      </c>
+      <c r="E191" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192">
+        <v>6158</v>
+      </c>
+      <c r="B192" t="s">
+        <v>133</v>
+      </c>
+      <c r="C192">
+        <v>2</v>
+      </c>
+      <c r="D192">
+        <v>110</v>
+      </c>
+      <c r="E192" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193">
+        <v>6494</v>
+      </c>
+      <c r="B193" t="s">
+        <v>134</v>
+      </c>
+      <c r="C193">
+        <v>1</v>
+      </c>
+      <c r="D193">
+        <v>577.5</v>
+      </c>
+      <c r="E193" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194">
+        <v>6540</v>
+      </c>
+      <c r="B194" t="s">
+        <v>135</v>
+      </c>
+      <c r="C194">
+        <v>29</v>
+      </c>
+      <c r="D194">
+        <v>743.5</v>
+      </c>
+      <c r="E194" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195">
+        <v>6540</v>
+      </c>
+      <c r="B195" t="s">
+        <v>135</v>
+      </c>
+      <c r="C195">
+        <v>25</v>
+      </c>
+      <c r="D195">
+        <v>371.75</v>
+      </c>
+      <c r="E195" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196">
+        <v>6935</v>
+      </c>
+      <c r="B196" t="s">
+        <v>136</v>
+      </c>
+      <c r="C196">
+        <v>2</v>
+      </c>
+      <c r="D196">
+        <v>105.25</v>
+      </c>
+      <c r="E196" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197">
+        <v>6936</v>
+      </c>
+      <c r="B197" t="s">
+        <v>137</v>
+      </c>
+      <c r="C197">
+        <v>2</v>
+      </c>
+      <c r="D197">
+        <v>105.25</v>
+      </c>
+      <c r="E197" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198">
+        <v>7005</v>
+      </c>
+      <c r="B198" t="s">
+        <v>138</v>
+      </c>
+      <c r="C198">
+        <v>1</v>
+      </c>
+      <c r="D198">
+        <v>365</v>
+      </c>
+      <c r="E198" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199">
+        <v>7036</v>
+      </c>
+      <c r="B199" t="s">
+        <v>139</v>
+      </c>
+      <c r="C199">
+        <v>1</v>
+      </c>
+      <c r="D199">
+        <v>229</v>
+      </c>
+      <c r="E199" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200">
+        <v>7520</v>
+      </c>
+      <c r="B200" t="s">
+        <v>140</v>
+      </c>
+      <c r="C200">
+        <v>1</v>
+      </c>
+      <c r="D200">
+        <v>1429.75</v>
+      </c>
+      <c r="E200" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201">
+        <v>7558</v>
+      </c>
+      <c r="B201" t="s">
+        <v>141</v>
+      </c>
+      <c r="C201">
+        <v>3</v>
+      </c>
+      <c r="D201">
+        <v>435.75</v>
+      </c>
+      <c r="E201" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202">
+        <v>7567</v>
+      </c>
+      <c r="B202" t="s">
+        <v>142</v>
+      </c>
+      <c r="C202">
+        <v>3</v>
+      </c>
+      <c r="D202">
+        <v>411</v>
+      </c>
+      <c r="E202" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203">
+        <v>7573</v>
+      </c>
+      <c r="B203" t="s">
+        <v>143</v>
+      </c>
+      <c r="C203">
+        <v>1</v>
+      </c>
+      <c r="D203">
+        <v>78.25</v>
+      </c>
+      <c r="E203" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204">
+        <v>7703</v>
+      </c>
+      <c r="B204" t="s">
+        <v>144</v>
+      </c>
+      <c r="C204">
+        <v>2</v>
+      </c>
+      <c r="D204">
+        <v>163.5</v>
+      </c>
+      <c r="E204" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205">
+        <v>7704</v>
+      </c>
+      <c r="B205" t="s">
+        <v>145</v>
+      </c>
+      <c r="C205">
+        <v>2</v>
+      </c>
+      <c r="D205">
+        <v>163.5</v>
+      </c>
+      <c r="E205" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206">
+        <v>7707</v>
+      </c>
+      <c r="B206" t="s">
+        <v>146</v>
+      </c>
+      <c r="C206">
+        <v>2</v>
+      </c>
+      <c r="D206">
+        <v>165.25</v>
+      </c>
+      <c r="E206" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207">
+        <v>7708</v>
+      </c>
+      <c r="B207" t="s">
+        <v>147</v>
+      </c>
+      <c r="C207">
+        <v>2</v>
+      </c>
+      <c r="D207">
+        <v>165.25</v>
+      </c>
+      <c r="E207" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208">
+        <v>7885</v>
+      </c>
+      <c r="B208" t="s">
+        <v>148</v>
+      </c>
+      <c r="C208">
+        <v>1</v>
+      </c>
+      <c r="D208">
+        <v>2496</v>
+      </c>
+      <c r="E208" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209">
+        <v>7885</v>
+      </c>
+      <c r="B209" t="s">
+        <v>148</v>
+      </c>
+      <c r="C209">
+        <v>4</v>
+      </c>
+      <c r="D209">
+        <v>208</v>
+      </c>
+      <c r="E209" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210">
+        <v>8085</v>
+      </c>
+      <c r="B210" t="s">
+        <v>149</v>
+      </c>
+      <c r="C210">
+        <v>1</v>
+      </c>
+      <c r="D210">
+        <v>325.75</v>
+      </c>
+      <c r="E210" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211">
+        <v>8089</v>
+      </c>
+      <c r="B211" t="s">
+        <v>150</v>
+      </c>
+      <c r="C211">
+        <v>1</v>
+      </c>
+      <c r="D211">
+        <v>419</v>
+      </c>
+      <c r="E211" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212">
+        <v>8155</v>
+      </c>
+      <c r="B212" t="s">
+        <v>151</v>
+      </c>
+      <c r="C212">
+        <v>25</v>
+      </c>
+      <c r="D212">
+        <v>357.25</v>
+      </c>
+      <c r="E212" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213">
+        <v>8155</v>
+      </c>
+      <c r="B213" t="s">
+        <v>151</v>
+      </c>
+      <c r="C213">
+        <v>2</v>
+      </c>
+      <c r="D213">
+        <v>1071.75</v>
+      </c>
+      <c r="E213" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214">
+        <v>8156</v>
+      </c>
+      <c r="B214" t="s">
+        <v>152</v>
+      </c>
+      <c r="C214">
+        <v>2</v>
+      </c>
+      <c r="D214">
+        <v>1041.75</v>
+      </c>
+      <c r="E214" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215">
+        <v>8156</v>
+      </c>
+      <c r="B215" t="s">
+        <v>152</v>
+      </c>
+      <c r="C215">
+        <v>25</v>
+      </c>
+      <c r="D215">
+        <v>347.25</v>
+      </c>
+      <c r="E215" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216">
+        <v>8157</v>
+      </c>
+      <c r="B216" t="s">
+        <v>153</v>
+      </c>
+      <c r="C216">
+        <v>29</v>
+      </c>
+      <c r="D216">
+        <v>912.75</v>
+      </c>
+      <c r="E216" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217">
+        <v>8157</v>
+      </c>
+      <c r="B217" t="s">
+        <v>153</v>
+      </c>
+      <c r="C217">
+        <v>80</v>
+      </c>
+      <c r="D217">
+        <v>304.25</v>
+      </c>
+      <c r="E217" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218">
+        <v>8191</v>
+      </c>
+      <c r="B218" t="s">
+        <v>154</v>
+      </c>
+      <c r="C218">
+        <v>10</v>
+      </c>
+      <c r="D218">
+        <v>40.5</v>
+      </c>
+      <c r="E218" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219">
+        <v>8191</v>
+      </c>
+      <c r="B219" t="s">
+        <v>154</v>
+      </c>
+      <c r="C219">
+        <v>1</v>
+      </c>
+      <c r="D219">
+        <v>972</v>
+      </c>
+      <c r="E219" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220">
+        <v>8356</v>
+      </c>
+      <c r="B220" t="s">
+        <v>155</v>
+      </c>
+      <c r="C220">
+        <v>1</v>
+      </c>
+      <c r="D220">
+        <v>326.25</v>
+      </c>
+      <c r="E220" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221">
+        <v>8635</v>
+      </c>
+      <c r="B221" t="s">
+        <v>156</v>
+      </c>
+      <c r="C221">
+        <v>1</v>
+      </c>
+      <c r="D221">
+        <v>1680</v>
+      </c>
+      <c r="E221" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222">
+        <v>8635</v>
+      </c>
+      <c r="B222" t="s">
+        <v>156</v>
+      </c>
+      <c r="C222">
+        <v>3</v>
+      </c>
+      <c r="D222">
+        <v>84</v>
+      </c>
+      <c r="E222" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223">
+        <v>8648</v>
+      </c>
+      <c r="B223" t="s">
+        <v>157</v>
+      </c>
+      <c r="C223">
+        <v>2</v>
+      </c>
+      <c r="D223">
+        <v>137.5</v>
+      </c>
+      <c r="E223" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224">
+        <v>8649</v>
+      </c>
+      <c r="B224" t="s">
+        <v>158</v>
+      </c>
+      <c r="C224">
+        <v>2</v>
+      </c>
+      <c r="D224">
+        <v>137.5</v>
+      </c>
+      <c r="E224" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225">
+        <v>8673</v>
+      </c>
+      <c r="B225" t="s">
+        <v>159</v>
+      </c>
+      <c r="C225">
+        <v>2</v>
+      </c>
+      <c r="D225">
+        <v>103.5</v>
+      </c>
+      <c r="E225" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226">
+        <v>8677</v>
+      </c>
+      <c r="B226" t="s">
+        <v>160</v>
+      </c>
+      <c r="C226">
+        <v>3</v>
+      </c>
+      <c r="D226">
+        <v>99.5</v>
+      </c>
+      <c r="E226" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227">
+        <v>8677</v>
+      </c>
+      <c r="B227" t="s">
+        <v>160</v>
+      </c>
+      <c r="C227">
+        <v>1</v>
+      </c>
+      <c r="D227">
+        <v>1194</v>
+      </c>
+      <c r="E227" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228">
+        <v>8753</v>
+      </c>
+      <c r="B228" t="s">
+        <v>161</v>
+      </c>
+      <c r="C228">
+        <v>2</v>
+      </c>
+      <c r="D228">
+        <v>82.75</v>
+      </c>
+      <c r="E228" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229">
+        <v>8753</v>
+      </c>
+      <c r="B229" t="s">
+        <v>161</v>
+      </c>
+      <c r="C229">
+        <v>1</v>
+      </c>
+      <c r="D229">
+        <v>993</v>
+      </c>
+      <c r="E229" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230">
+        <v>8915</v>
+      </c>
+      <c r="B230" t="s">
+        <v>162</v>
+      </c>
+      <c r="C230">
+        <v>2</v>
+      </c>
+      <c r="D230">
+        <v>183.75</v>
+      </c>
+      <c r="E230" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231">
+        <v>8927</v>
+      </c>
+      <c r="B231" t="s">
+        <v>163</v>
+      </c>
+      <c r="C231">
+        <v>1</v>
+      </c>
+      <c r="D231">
+        <v>864</v>
+      </c>
+      <c r="E231" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232">
+        <v>8927</v>
+      </c>
+      <c r="B232" t="s">
+        <v>163</v>
+      </c>
+      <c r="C232">
+        <v>10</v>
+      </c>
+      <c r="D232">
+        <v>36</v>
+      </c>
+      <c r="E232" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233">
+        <v>8938</v>
+      </c>
+      <c r="B233" t="s">
+        <v>164</v>
+      </c>
+      <c r="C233">
+        <v>2</v>
+      </c>
+      <c r="D233">
+        <v>176.25</v>
+      </c>
+      <c r="E233" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234">
+        <v>8944</v>
+      </c>
+      <c r="B234" t="s">
+        <v>165</v>
+      </c>
+      <c r="C234">
+        <v>1</v>
+      </c>
+      <c r="D234">
+        <v>529</v>
+      </c>
+      <c r="E234" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235">
+        <v>8944</v>
+      </c>
+      <c r="B235" t="s">
+        <v>165</v>
+      </c>
+      <c r="C235">
+        <v>3</v>
+      </c>
+      <c r="D235">
+        <v>132.25</v>
+      </c>
+      <c r="E235" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236">
+        <v>9069</v>
+      </c>
+      <c r="B236" t="s">
+        <v>166</v>
+      </c>
+      <c r="C236">
+        <v>1</v>
+      </c>
+      <c r="D236">
+        <v>233.25</v>
+      </c>
+      <c r="E236" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237">
+        <v>9070</v>
+      </c>
+      <c r="B237" t="s">
+        <v>167</v>
+      </c>
+      <c r="C237">
+        <v>1</v>
+      </c>
+      <c r="D237">
+        <v>856.25</v>
+      </c>
+      <c r="E237" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238">
+        <v>9087</v>
+      </c>
+      <c r="B238" t="s">
+        <v>168</v>
+      </c>
+      <c r="C238">
+        <v>29</v>
+      </c>
+      <c r="D238">
+        <v>788.25</v>
+      </c>
+      <c r="E238" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239">
+        <v>9087</v>
+      </c>
+      <c r="B239" t="s">
+        <v>168</v>
+      </c>
+      <c r="C239">
+        <v>25</v>
+      </c>
+      <c r="D239">
+        <v>262.75</v>
+      </c>
+      <c r="E239" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240">
+        <v>9088</v>
+      </c>
+      <c r="B240" t="s">
+        <v>169</v>
+      </c>
+      <c r="C240">
+        <v>29</v>
+      </c>
+      <c r="D240">
+        <v>785.25</v>
+      </c>
+      <c r="E240" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241">
+        <v>9088</v>
+      </c>
+      <c r="B241" t="s">
+        <v>169</v>
+      </c>
+      <c r="C241">
+        <v>25</v>
+      </c>
+      <c r="D241">
+        <v>261.75</v>
+      </c>
+      <c r="E241" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242">
+        <v>9153</v>
+      </c>
+      <c r="B242" t="s">
+        <v>170</v>
+      </c>
+      <c r="C242">
+        <v>1</v>
+      </c>
+      <c r="D242">
+        <v>963</v>
+      </c>
+      <c r="E242" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243">
+        <v>9153</v>
+      </c>
+      <c r="B243" t="s">
+        <v>170</v>
+      </c>
+      <c r="C243">
+        <v>2</v>
+      </c>
+      <c r="D243">
+        <v>160.5</v>
+      </c>
+      <c r="E243" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244">
+        <v>9153</v>
+      </c>
+      <c r="B244" t="s">
+        <v>170</v>
+      </c>
+      <c r="C244">
+        <v>23</v>
+      </c>
+      <c r="D244">
+        <v>26.75</v>
+      </c>
+      <c r="E244" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245">
+        <v>9355</v>
+      </c>
+      <c r="B245" t="s">
+        <v>171</v>
+      </c>
+      <c r="C245">
+        <v>1</v>
+      </c>
+      <c r="D245">
+        <v>327.5</v>
+      </c>
+      <c r="E245" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246">
+        <v>9357</v>
+      </c>
+      <c r="B246" t="s">
+        <v>172</v>
+      </c>
+      <c r="C246">
+        <v>1</v>
+      </c>
+      <c r="D246">
+        <v>635.25</v>
+      </c>
+      <c r="E246" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247">
+        <v>9491</v>
+      </c>
+      <c r="B247" t="s">
+        <v>173</v>
+      </c>
+      <c r="C247">
+        <v>1</v>
+      </c>
+      <c r="D247">
+        <v>637</v>
+      </c>
+      <c r="E247" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248">
+        <v>9491</v>
+      </c>
+      <c r="B248" t="s">
+        <v>173</v>
+      </c>
+      <c r="C248">
+        <v>21</v>
+      </c>
+      <c r="D248">
+        <v>12.25</v>
+      </c>
+      <c r="E248" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249">
+        <v>9608</v>
+      </c>
+      <c r="B249" t="s">
+        <v>174</v>
+      </c>
+      <c r="C249">
+        <v>1</v>
+      </c>
+      <c r="D249">
+        <v>463</v>
+      </c>
+      <c r="E249" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250">
+        <v>9760</v>
+      </c>
+      <c r="B250" t="s">
+        <v>175</v>
+      </c>
+      <c r="C250">
+        <v>29</v>
+      </c>
+      <c r="D250">
+        <v>402.5</v>
+      </c>
+      <c r="E250" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251">
+        <v>9778</v>
+      </c>
+      <c r="B251" t="s">
+        <v>176</v>
+      </c>
+      <c r="C251">
+        <v>1</v>
+      </c>
+      <c r="D251">
+        <v>635</v>
+      </c>
+      <c r="E251" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252">
+        <v>9786</v>
+      </c>
+      <c r="B252" t="s">
+        <v>177</v>
+      </c>
+      <c r="C252">
+        <v>1</v>
+      </c>
+      <c r="D252">
+        <v>404</v>
+      </c>
+      <c r="E252" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253">
+        <v>9796</v>
+      </c>
+      <c r="B253" t="s">
+        <v>178</v>
+      </c>
+      <c r="C253">
+        <v>3</v>
+      </c>
+      <c r="D253">
+        <v>32</v>
+      </c>
+      <c r="E253" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254">
+        <v>9796</v>
+      </c>
+      <c r="B254" t="s">
+        <v>178</v>
+      </c>
+      <c r="C254">
+        <v>1</v>
+      </c>
+      <c r="D254">
+        <v>1536</v>
+      </c>
+      <c r="E254" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255">
+        <v>9803</v>
+      </c>
+      <c r="B255" t="s">
+        <v>179</v>
+      </c>
+      <c r="C255">
+        <v>1</v>
+      </c>
+      <c r="D255">
+        <v>1590</v>
+      </c>
+      <c r="E255" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256">
+        <v>9803</v>
+      </c>
+      <c r="B256" t="s">
+        <v>179</v>
+      </c>
+      <c r="C256">
+        <v>138</v>
+      </c>
+      <c r="D256">
+        <v>397.5</v>
+      </c>
+      <c r="E256" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257">
+        <v>9803</v>
+      </c>
+      <c r="B257" t="s">
+        <v>179</v>
+      </c>
+      <c r="C257">
+        <v>3</v>
+      </c>
+      <c r="D257">
+        <v>39.75</v>
+      </c>
+      <c r="E257" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258">
+        <v>9922</v>
+      </c>
+      <c r="B258" t="s">
+        <v>180</v>
+      </c>
+      <c r="C258">
+        <v>11</v>
+      </c>
+      <c r="D258">
+        <v>20.5</v>
+      </c>
+      <c r="E258" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259">
+        <v>9922</v>
+      </c>
+      <c r="B259" t="s">
+        <v>180</v>
+      </c>
+      <c r="C259">
+        <v>2</v>
+      </c>
+      <c r="D259">
+        <v>492</v>
+      </c>
+      <c r="E259" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260">
+        <v>9945</v>
+      </c>
+      <c r="B260" t="s">
+        <v>181</v>
+      </c>
+      <c r="C260">
+        <v>1</v>
+      </c>
+      <c r="D260">
+        <v>1065</v>
+      </c>
+      <c r="E260" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261">
+        <v>9945</v>
+      </c>
+      <c r="B261" t="s">
+        <v>181</v>
+      </c>
+      <c r="C261">
+        <v>3</v>
+      </c>
+      <c r="D261">
+        <v>88.75</v>
+      </c>
+      <c r="E261" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262">
+        <v>9997</v>
+      </c>
+      <c r="B262" t="s">
+        <v>182</v>
+      </c>
+      <c r="C262">
+        <v>80</v>
+      </c>
+      <c r="D262">
+        <v>224.25</v>
+      </c>
+      <c r="E262" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263">
+        <v>9997</v>
+      </c>
+      <c r="B263" t="s">
+        <v>182</v>
+      </c>
+      <c r="C263">
+        <v>29</v>
+      </c>
+      <c r="D263">
+        <v>672.75</v>
+      </c>
+      <c r="E263" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264">
+        <v>10148</v>
+      </c>
+      <c r="B264" t="s">
+        <v>183</v>
+      </c>
+      <c r="C264">
+        <v>1</v>
+      </c>
+      <c r="D264">
+        <v>261.75</v>
+      </c>
+      <c r="E264" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265">
+        <v>10174</v>
+      </c>
+      <c r="B265" t="s">
+        <v>184</v>
+      </c>
+      <c r="C265">
+        <v>1</v>
+      </c>
+      <c r="D265">
+        <v>725.75</v>
+      </c>
+      <c r="E265" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266">
+        <v>10410</v>
+      </c>
+      <c r="B266" t="s">
+        <v>185</v>
+      </c>
+      <c r="C266">
+        <v>10</v>
+      </c>
+      <c r="D266">
+        <v>26.5</v>
+      </c>
+      <c r="E266" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267">
+        <v>10410</v>
+      </c>
+      <c r="B267" t="s">
+        <v>185</v>
+      </c>
+      <c r="C267">
+        <v>1</v>
+      </c>
+      <c r="D267">
+        <v>318</v>
+      </c>
+      <c r="E267" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268">
+        <v>10414</v>
+      </c>
+      <c r="B268" t="s">
+        <v>186</v>
+      </c>
+      <c r="C268">
+        <v>10</v>
+      </c>
+      <c r="D268">
+        <v>43.25</v>
+      </c>
+      <c r="E268" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269">
+        <v>10414</v>
+      </c>
+      <c r="B269" t="s">
+        <v>186</v>
+      </c>
+      <c r="C269">
+        <v>1</v>
+      </c>
+      <c r="D269">
+        <v>519</v>
+      </c>
+      <c r="E269" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270">
+        <v>10449</v>
+      </c>
+      <c r="B270" t="s">
+        <v>187</v>
+      </c>
+      <c r="C270">
+        <v>10</v>
+      </c>
+      <c r="D270">
+        <v>17.25</v>
+      </c>
+      <c r="E270" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271">
+        <v>10449</v>
+      </c>
+      <c r="B271" t="s">
+        <v>187</v>
+      </c>
+      <c r="C271">
+        <v>1</v>
+      </c>
+      <c r="D271">
+        <v>207</v>
+      </c>
+      <c r="E271" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272">
+        <v>10450</v>
+      </c>
+      <c r="B272" t="s">
+        <v>188</v>
+      </c>
+      <c r="C272">
+        <v>1</v>
+      </c>
+      <c r="D272">
+        <v>204</v>
+      </c>
+      <c r="E272" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273">
+        <v>10450</v>
+      </c>
+      <c r="B273" t="s">
+        <v>188</v>
+      </c>
+      <c r="C273">
+        <v>10</v>
+      </c>
+      <c r="D273">
+        <v>17</v>
+      </c>
+      <c r="E273" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274">
+        <v>10454</v>
+      </c>
+      <c r="B274" t="s">
+        <v>189</v>
+      </c>
+      <c r="C274">
+        <v>1</v>
+      </c>
+      <c r="D274">
+        <v>204</v>
+      </c>
+      <c r="E274" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275">
+        <v>10454</v>
+      </c>
+      <c r="B275" t="s">
+        <v>189</v>
+      </c>
+      <c r="C275">
+        <v>10</v>
+      </c>
+      <c r="D275">
+        <v>17</v>
+      </c>
+      <c r="E275" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276">
+        <v>10468</v>
+      </c>
+      <c r="B276" t="s">
+        <v>190</v>
+      </c>
+      <c r="C276">
+        <v>1</v>
+      </c>
+      <c r="D276">
+        <v>204</v>
+      </c>
+      <c r="E276" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277">
+        <v>10468</v>
+      </c>
+      <c r="B277" t="s">
+        <v>190</v>
+      </c>
+      <c r="C277">
+        <v>10</v>
+      </c>
+      <c r="D277">
+        <v>17</v>
+      </c>
+      <c r="E277" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="A278">
+        <v>10524</v>
+      </c>
+      <c r="B278" t="s">
+        <v>191</v>
+      </c>
+      <c r="C278">
+        <v>80</v>
+      </c>
+      <c r="D278">
+        <v>338</v>
+      </c>
+      <c r="E278" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="A279">
+        <v>10524</v>
+      </c>
+      <c r="B279" t="s">
+        <v>191</v>
+      </c>
+      <c r="C279">
+        <v>29</v>
+      </c>
+      <c r="D279">
+        <v>676</v>
+      </c>
+      <c r="E279" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5">
+      <c r="A280">
+        <v>10581</v>
+      </c>
+      <c r="B280" t="s">
+        <v>192</v>
+      </c>
+      <c r="C280">
+        <v>1</v>
+      </c>
+      <c r="D280">
+        <v>1800</v>
+      </c>
+      <c r="E280" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="A281">
+        <v>10581</v>
+      </c>
+      <c r="B281" t="s">
+        <v>192</v>
+      </c>
+      <c r="C281">
+        <v>3</v>
+      </c>
+      <c r="D281">
+        <v>150</v>
+      </c>
+      <c r="E281" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="A282">
+        <v>10587</v>
+      </c>
+      <c r="B282" t="s">
+        <v>193</v>
+      </c>
+      <c r="C282">
+        <v>3</v>
+      </c>
+      <c r="D282">
+        <v>70.25</v>
+      </c>
+      <c r="E282" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="A283">
+        <v>10587</v>
+      </c>
+      <c r="B283" t="s">
+        <v>193</v>
+      </c>
+      <c r="C283">
+        <v>1</v>
+      </c>
+      <c r="D283">
+        <v>281</v>
+      </c>
+      <c r="E283" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="A284">
+        <v>10594</v>
+      </c>
+      <c r="B284" t="s">
+        <v>194</v>
+      </c>
+      <c r="C284">
+        <v>3</v>
+      </c>
+      <c r="D284">
+        <v>212.25</v>
+      </c>
+      <c r="E284" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="A285">
+        <v>10594</v>
+      </c>
+      <c r="B285" t="s">
+        <v>194</v>
+      </c>
+      <c r="C285">
+        <v>1</v>
+      </c>
+      <c r="D285">
+        <v>2547</v>
+      </c>
+      <c r="E285" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="A286">
+        <v>10897</v>
+      </c>
+      <c r="B286" t="s">
+        <v>195</v>
+      </c>
+      <c r="C286">
+        <v>1</v>
+      </c>
+      <c r="D286">
+        <v>87</v>
+      </c>
+      <c r="E286" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5">
+      <c r="A287">
+        <v>11089</v>
+      </c>
+      <c r="B287" t="s">
+        <v>196</v>
+      </c>
+      <c r="C287">
+        <v>1</v>
+      </c>
+      <c r="D287">
+        <v>171.5</v>
+      </c>
+      <c r="E287" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5">
+      <c r="A288">
+        <v>11090</v>
+      </c>
+      <c r="B288" t="s">
+        <v>197</v>
+      </c>
+      <c r="C288">
+        <v>1</v>
+      </c>
+      <c r="D288">
+        <v>385.5</v>
+      </c>
+      <c r="E288" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5">
+      <c r="A289">
+        <v>11092</v>
+      </c>
+      <c r="B289" t="s">
+        <v>198</v>
+      </c>
+      <c r="C289">
+        <v>1</v>
+      </c>
+      <c r="D289">
+        <v>370.75</v>
+      </c>
+      <c r="E289" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5">
+      <c r="A290">
+        <v>11093</v>
+      </c>
+      <c r="B290" t="s">
+        <v>199</v>
+      </c>
+      <c r="C290">
+        <v>1</v>
+      </c>
+      <c r="D290">
+        <v>359</v>
+      </c>
+      <c r="E290" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5">
+      <c r="A291">
+        <v>11159</v>
+      </c>
+      <c r="B291" t="s">
+        <v>200</v>
+      </c>
+      <c r="C291">
+        <v>1</v>
+      </c>
+      <c r="D291">
+        <v>57.75</v>
+      </c>
+      <c r="E291" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5">
+      <c r="A292">
+        <v>11160</v>
+      </c>
+      <c r="B292" t="s">
+        <v>201</v>
+      </c>
+      <c r="C292">
+        <v>1</v>
+      </c>
+      <c r="D292">
+        <v>56.25</v>
+      </c>
+      <c r="E292" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5">
+      <c r="A293">
+        <v>11179</v>
+      </c>
+      <c r="B293" t="s">
+        <v>202</v>
+      </c>
+      <c r="C293">
+        <v>1</v>
+      </c>
+      <c r="D293">
+        <v>319</v>
+      </c>
+      <c r="E293" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5">
+      <c r="A294">
+        <v>11180</v>
+      </c>
+      <c r="B294" t="s">
+        <v>203</v>
+      </c>
+      <c r="C294">
+        <v>1</v>
+      </c>
+      <c r="D294">
+        <v>336</v>
+      </c>
+      <c r="E294" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5">
+      <c r="A295">
+        <v>11290</v>
+      </c>
+      <c r="B295" t="s">
+        <v>204</v>
+      </c>
+      <c r="C295">
+        <v>2</v>
+      </c>
+      <c r="D295">
+        <v>315</v>
+      </c>
+      <c r="E295" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5">
+      <c r="A296">
+        <v>11399</v>
+      </c>
+      <c r="B296" t="s">
+        <v>205</v>
+      </c>
+      <c r="C296">
+        <v>2</v>
+      </c>
+      <c r="D296">
+        <v>580</v>
+      </c>
+      <c r="E296" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5">
+      <c r="A297">
+        <v>11403</v>
+      </c>
+      <c r="B297" t="s">
+        <v>206</v>
+      </c>
+      <c r="C297">
+        <v>1</v>
+      </c>
+      <c r="D297">
+        <v>324</v>
+      </c>
+      <c r="E297" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5">
+      <c r="A298">
+        <v>11427</v>
+      </c>
+      <c r="B298" t="s">
+        <v>207</v>
+      </c>
+      <c r="C298">
+        <v>1</v>
+      </c>
+      <c r="D298">
+        <v>470</v>
+      </c>
+      <c r="E298" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5">
+      <c r="A299">
+        <v>11427</v>
+      </c>
+      <c r="B299" t="s">
+        <v>207</v>
+      </c>
+      <c r="C299">
+        <v>2</v>
+      </c>
+      <c r="D299">
+        <v>58.75</v>
+      </c>
+      <c r="E299" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5">
+      <c r="A300">
+        <v>11435</v>
+      </c>
+      <c r="B300" t="s">
+        <v>208</v>
+      </c>
+      <c r="C300">
+        <v>1</v>
+      </c>
+      <c r="D300">
+        <v>490</v>
+      </c>
+      <c r="E300" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5">
+      <c r="A301">
+        <v>11435</v>
+      </c>
+      <c r="B301" t="s">
+        <v>208</v>
+      </c>
+      <c r="C301">
+        <v>2</v>
+      </c>
+      <c r="D301">
+        <v>61.25</v>
+      </c>
+      <c r="E301" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5">
+      <c r="A302">
+        <v>11450</v>
+      </c>
+      <c r="B302" t="s">
+        <v>209</v>
+      </c>
+      <c r="C302">
+        <v>2</v>
+      </c>
+      <c r="D302">
+        <v>59.25</v>
+      </c>
+      <c r="E302" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5">
+      <c r="A303">
+        <v>11450</v>
+      </c>
+      <c r="B303" t="s">
+        <v>209</v>
+      </c>
+      <c r="C303">
+        <v>1</v>
+      </c>
+      <c r="D303">
+        <v>474</v>
+      </c>
+      <c r="E303" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5">
+      <c r="A304">
+        <v>11485</v>
+      </c>
+      <c r="B304" t="s">
+        <v>210</v>
+      </c>
+      <c r="C304">
+        <v>24</v>
+      </c>
+      <c r="D304">
+        <v>136.25</v>
+      </c>
+      <c r="E304" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5">
+      <c r="A305">
+        <v>11485</v>
+      </c>
+      <c r="B305" t="s">
+        <v>210</v>
+      </c>
+      <c r="C305">
+        <v>1</v>
+      </c>
+      <c r="D305">
+        <v>1090</v>
+      </c>
+      <c r="E305" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5">
+      <c r="A306">
+        <v>11492</v>
+      </c>
+      <c r="B306" t="s">
+        <v>211</v>
+      </c>
+      <c r="C306">
+        <v>1</v>
+      </c>
+      <c r="D306">
+        <v>322.5</v>
+      </c>
+      <c r="E306" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5">
+      <c r="A307">
+        <v>11510</v>
+      </c>
+      <c r="B307" t="s">
+        <v>212</v>
+      </c>
+      <c r="C307">
+        <v>1</v>
+      </c>
+      <c r="D307">
+        <v>588</v>
+      </c>
+      <c r="E307" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5">
+      <c r="A308">
+        <v>11510</v>
+      </c>
+      <c r="B308" t="s">
+        <v>212</v>
+      </c>
+      <c r="C308">
+        <v>3</v>
+      </c>
+      <c r="D308">
+        <v>49</v>
+      </c>
+      <c r="E308" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5">
+      <c r="A309">
+        <v>11585</v>
+      </c>
+      <c r="B309" t="s">
+        <v>213</v>
+      </c>
+      <c r="C309">
+        <v>29</v>
+      </c>
+      <c r="D309">
+        <v>166.25</v>
+      </c>
+      <c r="E309" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5">
+      <c r="A310">
+        <v>11586</v>
+      </c>
+      <c r="B310" t="s">
+        <v>214</v>
+      </c>
+      <c r="C310">
+        <v>1</v>
+      </c>
+      <c r="D310">
+        <v>72.75</v>
+      </c>
+      <c r="E310" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5">
+      <c r="A311">
+        <v>11587</v>
+      </c>
+      <c r="B311" t="s">
+        <v>215</v>
+      </c>
+      <c r="C311">
+        <v>1</v>
+      </c>
+      <c r="D311">
+        <v>71.25</v>
+      </c>
+      <c r="E311" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5">
+      <c r="A312">
+        <v>11610</v>
+      </c>
+      <c r="B312" t="s">
+        <v>216</v>
+      </c>
+      <c r="C312">
+        <v>3</v>
+      </c>
+      <c r="D312">
+        <v>187.5</v>
+      </c>
+      <c r="E312" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5">
+      <c r="A313">
+        <v>11610</v>
+      </c>
+      <c r="B313" t="s">
+        <v>216</v>
+      </c>
+      <c r="C313">
+        <v>1</v>
+      </c>
+      <c r="D313">
+        <v>2250</v>
+      </c>
+      <c r="E313" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5">
+      <c r="A314">
+        <v>11677</v>
+      </c>
+      <c r="B314" t="s">
+        <v>217</v>
+      </c>
+      <c r="C314">
+        <v>1</v>
+      </c>
+      <c r="D314">
+        <v>61.75</v>
+      </c>
+      <c r="E314" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5">
+      <c r="A315">
+        <v>11681</v>
+      </c>
+      <c r="B315" t="s">
+        <v>218</v>
+      </c>
+      <c r="C315">
+        <v>2</v>
+      </c>
+      <c r="D315">
+        <v>106.75</v>
+      </c>
+      <c r="E315" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5">
+      <c r="A316">
+        <v>11689</v>
+      </c>
+      <c r="B316" t="s">
+        <v>219</v>
+      </c>
+      <c r="C316">
+        <v>2</v>
+      </c>
+      <c r="D316">
+        <v>96.5</v>
+      </c>
+      <c r="E316" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5">
+      <c r="A317">
+        <v>11689</v>
+      </c>
+      <c r="B317" t="s">
+        <v>219</v>
+      </c>
+      <c r="C317">
+        <v>1</v>
+      </c>
+      <c r="D317">
+        <v>772</v>
+      </c>
+      <c r="E317" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5">
+      <c r="A318">
+        <v>11766</v>
+      </c>
+      <c r="B318" t="s">
+        <v>220</v>
+      </c>
+      <c r="C318">
+        <v>1</v>
+      </c>
+      <c r="D318">
+        <v>90.75</v>
+      </c>
+      <c r="E318" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5">
+      <c r="A319">
+        <v>11767</v>
+      </c>
+      <c r="B319" t="s">
+        <v>221</v>
+      </c>
+      <c r="C319">
+        <v>1</v>
+      </c>
+      <c r="D319">
+        <v>175.5</v>
+      </c>
+      <c r="E319" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5">
+      <c r="A320">
+        <v>11814</v>
+      </c>
+      <c r="B320" t="s">
+        <v>222</v>
+      </c>
+      <c r="C320">
+        <v>1</v>
+      </c>
+      <c r="D320">
+        <v>118</v>
+      </c>
+      <c r="E320" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5">
+      <c r="A321">
+        <v>11837</v>
+      </c>
+      <c r="B321" t="s">
+        <v>223</v>
+      </c>
+      <c r="C321">
+        <v>2</v>
+      </c>
+      <c r="D321">
+        <v>122.5</v>
+      </c>
+      <c r="E321" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5">
+      <c r="A322">
+        <v>11838</v>
+      </c>
+      <c r="B322" t="s">
+        <v>224</v>
+      </c>
+      <c r="C322">
+        <v>2</v>
+      </c>
+      <c r="D322">
+        <v>115</v>
+      </c>
+      <c r="E322" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5">
+      <c r="A323">
+        <v>11848</v>
+      </c>
+      <c r="B323" t="s">
+        <v>225</v>
+      </c>
+      <c r="C323">
+        <v>1</v>
+      </c>
+      <c r="D323">
+        <v>194</v>
+      </c>
+      <c r="E323" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5">
+      <c r="A324">
+        <v>11887</v>
+      </c>
+      <c r="B324" t="s">
+        <v>226</v>
+      </c>
+      <c r="C324">
+        <v>2</v>
+      </c>
+      <c r="D324">
+        <v>150.5</v>
+      </c>
+      <c r="E324" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5">
+      <c r="A325">
+        <v>11887</v>
+      </c>
+      <c r="B325" t="s">
+        <v>226</v>
+      </c>
+      <c r="C325">
+        <v>1</v>
+      </c>
+      <c r="D325">
+        <v>1204</v>
+      </c>
+      <c r="E325" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5">
+      <c r="A326">
+        <v>11894</v>
+      </c>
+      <c r="B326" t="s">
+        <v>227</v>
+      </c>
+      <c r="C326">
+        <v>2</v>
+      </c>
+      <c r="D326">
+        <v>231.25</v>
+      </c>
+      <c r="E326" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5">
+      <c r="A327">
+        <v>11901</v>
+      </c>
+      <c r="B327" t="s">
+        <v>228</v>
+      </c>
+      <c r="C327">
+        <v>2</v>
+      </c>
+      <c r="D327">
+        <v>308.75</v>
+      </c>
+      <c r="E327" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5">
+      <c r="A328">
+        <v>11914</v>
+      </c>
+      <c r="B328" t="s">
+        <v>229</v>
+      </c>
+      <c r="C328">
+        <v>1</v>
+      </c>
+      <c r="D328">
+        <v>351</v>
+      </c>
+      <c r="E328" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5">
+      <c r="A329">
+        <v>11919</v>
+      </c>
+      <c r="B329" t="s">
+        <v>230</v>
+      </c>
+      <c r="C329">
+        <v>1</v>
+      </c>
+      <c r="D329">
+        <v>194</v>
+      </c>
+      <c r="E329" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5">
+      <c r="A330">
+        <v>11942</v>
+      </c>
+      <c r="B330" t="s">
+        <v>231</v>
+      </c>
+      <c r="C330">
+        <v>29</v>
+      </c>
+      <c r="D330">
+        <v>289.75</v>
+      </c>
+      <c r="E330" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5">
+      <c r="A331">
+        <v>11954</v>
+      </c>
+      <c r="B331" t="s">
+        <v>232</v>
+      </c>
+      <c r="C331">
+        <v>1</v>
+      </c>
+      <c r="D331">
+        <v>137.5</v>
+      </c>
+      <c r="E331" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5">
+      <c r="A332">
+        <v>11961</v>
+      </c>
+      <c r="B332" t="s">
+        <v>233</v>
+      </c>
+      <c r="C332">
+        <v>1</v>
+      </c>
+      <c r="D332">
+        <v>525</v>
+      </c>
+      <c r="E332" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5">
+      <c r="A333">
+        <v>12236</v>
+      </c>
+      <c r="B333" t="s">
+        <v>234</v>
+      </c>
+      <c r="C333">
+        <v>1</v>
+      </c>
+      <c r="D333">
+        <v>578</v>
+      </c>
+      <c r="E333" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5">
+      <c r="A334">
+        <v>12236</v>
+      </c>
+      <c r="B334" t="s">
+        <v>234</v>
+      </c>
+      <c r="C334">
+        <v>3</v>
+      </c>
+      <c r="D334">
+        <v>72.25</v>
+      </c>
+      <c r="E334" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5">
+      <c r="A335">
+        <v>12239</v>
+      </c>
+      <c r="B335" t="s">
+        <v>235</v>
+      </c>
+      <c r="C335">
+        <v>1</v>
+      </c>
+      <c r="D335">
+        <v>332</v>
+      </c>
+      <c r="E335" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5">
+      <c r="A336">
+        <v>12239</v>
+      </c>
+      <c r="B336" t="s">
+        <v>235</v>
+      </c>
+      <c r="C336">
+        <v>3</v>
+      </c>
+      <c r="D336">
+        <v>83</v>
+      </c>
+      <c r="E336" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5">
+      <c r="A337">
+        <v>12338</v>
+      </c>
+      <c r="B337" t="s">
+        <v>236</v>
+      </c>
+      <c r="C337">
+        <v>29</v>
+      </c>
+      <c r="D337">
+        <v>547.25</v>
+      </c>
+      <c r="E337" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5">
+      <c r="A338">
+        <v>12494</v>
+      </c>
+      <c r="B338" t="s">
+        <v>237</v>
+      </c>
+      <c r="C338">
+        <v>3</v>
+      </c>
+      <c r="D338">
+        <v>242.5</v>
+      </c>
+      <c r="E338" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5">
+      <c r="A339">
+        <v>12494</v>
+      </c>
+      <c r="B339" t="s">
+        <v>237</v>
+      </c>
+      <c r="C339">
+        <v>1</v>
+      </c>
+      <c r="D339">
+        <v>1455</v>
+      </c>
+      <c r="E339" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5">
+      <c r="A340">
+        <v>12496</v>
+      </c>
+      <c r="B340" t="s">
+        <v>238</v>
+      </c>
+      <c r="C340">
+        <v>1</v>
+      </c>
+      <c r="D340">
+        <v>502.5</v>
+      </c>
+      <c r="E340" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5">
+      <c r="A341">
+        <v>12496</v>
+      </c>
+      <c r="B341" t="s">
+        <v>238</v>
+      </c>
+      <c r="C341">
+        <v>3</v>
+      </c>
+      <c r="D341">
+        <v>50.25</v>
+      </c>
+      <c r="E341" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5">
+      <c r="A342">
+        <v>12497</v>
+      </c>
+      <c r="B342" t="s">
+        <v>239</v>
+      </c>
+      <c r="C342">
+        <v>1</v>
+      </c>
+      <c r="D342">
+        <v>497.5</v>
+      </c>
+      <c r="E342" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5">
+      <c r="A343">
+        <v>12497</v>
+      </c>
+      <c r="B343" t="s">
+        <v>239</v>
+      </c>
+      <c r="C343">
+        <v>3</v>
+      </c>
+      <c r="D343">
+        <v>49.75</v>
+      </c>
+      <c r="E343" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5">
+      <c r="A344">
+        <v>12503</v>
+      </c>
+      <c r="B344" t="s">
+        <v>240</v>
+      </c>
+      <c r="C344">
+        <v>1</v>
+      </c>
+      <c r="D344">
+        <v>137.75</v>
+      </c>
+      <c r="E344" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5">
+      <c r="A345">
+        <v>12538</v>
+      </c>
+      <c r="B345" t="s">
+        <v>241</v>
+      </c>
+      <c r="C345">
+        <v>3</v>
+      </c>
+      <c r="D345">
+        <v>64</v>
+      </c>
+      <c r="E345" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5">
+      <c r="A346">
+        <v>12538</v>
+      </c>
+      <c r="B346" t="s">
+        <v>241</v>
+      </c>
+      <c r="C346">
+        <v>1</v>
+      </c>
+      <c r="D346">
+        <v>6144</v>
+      </c>
+      <c r="E346" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5">
+      <c r="A347">
+        <v>12577</v>
+      </c>
+      <c r="B347" t="s">
+        <v>242</v>
+      </c>
+      <c r="C347">
+        <v>1</v>
+      </c>
+      <c r="D347">
+        <v>600</v>
+      </c>
+      <c r="E347" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5">
+      <c r="A348">
+        <v>12577</v>
+      </c>
+      <c r="B348" t="s">
+        <v>242</v>
+      </c>
+      <c r="C348">
+        <v>3</v>
+      </c>
+      <c r="D348">
+        <v>50</v>
+      </c>
+      <c r="E348" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5">
+      <c r="A349">
+        <v>12585</v>
+      </c>
+      <c r="B349" t="s">
+        <v>243</v>
+      </c>
+      <c r="C349">
+        <v>1</v>
+      </c>
+      <c r="D349">
+        <v>606</v>
+      </c>
+      <c r="E349" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5">
+      <c r="A350">
+        <v>12585</v>
+      </c>
+      <c r="B350" t="s">
+        <v>243</v>
+      </c>
+      <c r="C350">
+        <v>3</v>
+      </c>
+      <c r="D350">
+        <v>50.5</v>
+      </c>
+      <c r="E350" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5">
+      <c r="A351">
+        <v>12586</v>
+      </c>
+      <c r="B351" t="s">
+        <v>244</v>
+      </c>
+      <c r="C351">
+        <v>1</v>
+      </c>
+      <c r="D351">
+        <v>609</v>
+      </c>
+      <c r="E351" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5">
+      <c r="A352">
+        <v>12586</v>
+      </c>
+      <c r="B352" t="s">
+        <v>244</v>
+      </c>
+      <c r="C352">
+        <v>3</v>
+      </c>
+      <c r="D352">
+        <v>50.75</v>
+      </c>
+      <c r="E352" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5">
+      <c r="A353">
+        <v>12647</v>
+      </c>
+      <c r="B353" t="s">
+        <v>245</v>
+      </c>
+      <c r="C353">
+        <v>1</v>
+      </c>
+      <c r="D353">
+        <v>130</v>
+      </c>
+      <c r="E353" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5">
+      <c r="A354">
+        <v>12653</v>
+      </c>
+      <c r="B354" t="s">
+        <v>246</v>
+      </c>
+      <c r="C354">
+        <v>1</v>
+      </c>
+      <c r="D354">
+        <v>133.75</v>
+      </c>
+      <c r="E354" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5">
+      <c r="A355">
+        <v>12656</v>
+      </c>
+      <c r="B355" t="s">
+        <v>247</v>
+      </c>
+      <c r="C355">
+        <v>1</v>
+      </c>
+      <c r="D355">
+        <v>344</v>
+      </c>
+      <c r="E355" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5">
+      <c r="A356">
+        <v>12764</v>
+      </c>
+      <c r="B356" t="s">
+        <v>248</v>
+      </c>
+      <c r="C356">
+        <v>1</v>
+      </c>
+      <c r="D356">
+        <v>459</v>
+      </c>
+      <c r="E356" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5">
+      <c r="A357">
+        <v>12764</v>
+      </c>
+      <c r="B357" t="s">
+        <v>248</v>
+      </c>
+      <c r="C357">
+        <v>2</v>
+      </c>
+      <c r="D357">
+        <v>38.25</v>
+      </c>
+      <c r="E357" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5">
+      <c r="A358">
+        <v>12924</v>
+      </c>
+      <c r="B358" t="s">
+        <v>249</v>
+      </c>
+      <c r="C358">
+        <v>1</v>
+      </c>
+      <c r="D358">
+        <v>571.5</v>
+      </c>
+      <c r="E358" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5">
+      <c r="A359">
+        <v>12930</v>
+      </c>
+      <c r="B359" t="s">
+        <v>250</v>
+      </c>
+      <c r="C359">
+        <v>2</v>
+      </c>
+      <c r="D359">
+        <v>282.25</v>
+      </c>
+      <c r="E359" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5">
+      <c r="A360">
+        <v>13028</v>
+      </c>
+      <c r="B360" t="s">
+        <v>251</v>
+      </c>
+      <c r="C360">
+        <v>3</v>
+      </c>
+      <c r="D360">
+        <v>195.5</v>
+      </c>
+      <c r="E360" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5">
+      <c r="A361">
+        <v>13036</v>
+      </c>
+      <c r="B361" t="s">
+        <v>252</v>
+      </c>
+      <c r="C361">
+        <v>1</v>
+      </c>
+      <c r="D361">
+        <v>594</v>
+      </c>
+      <c r="E361" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5">
+      <c r="A362">
+        <v>13036</v>
+      </c>
+      <c r="B362" t="s">
+        <v>252</v>
+      </c>
+      <c r="C362">
+        <v>3</v>
+      </c>
+      <c r="D362">
+        <v>49.5</v>
+      </c>
+      <c r="E362" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5">
+      <c r="A363">
+        <v>13113</v>
+      </c>
+      <c r="B363" t="s">
+        <v>253</v>
+      </c>
+      <c r="C363">
+        <v>1</v>
+      </c>
+      <c r="D363">
+        <v>784.5</v>
+      </c>
+      <c r="E363" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5">
+      <c r="A364">
+        <v>13118</v>
+      </c>
+      <c r="B364" t="s">
+        <v>254</v>
+      </c>
+      <c r="C364">
+        <v>431</v>
+      </c>
+      <c r="D364">
+        <v>34</v>
+      </c>
+      <c r="E364" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5">
+      <c r="A365">
+        <v>13118</v>
+      </c>
+      <c r="B365" t="s">
+        <v>254</v>
+      </c>
+      <c r="C365">
+        <v>2</v>
+      </c>
+      <c r="D365">
+        <v>408</v>
+      </c>
+      <c r="E365" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5">
+      <c r="A366">
+        <v>13275</v>
+      </c>
+      <c r="B366" t="s">
+        <v>255</v>
+      </c>
+      <c r="C366">
+        <v>29</v>
+      </c>
+      <c r="D366">
+        <v>379</v>
+      </c>
+      <c r="E366" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5">
+      <c r="A367">
+        <v>13336</v>
+      </c>
+      <c r="B367" t="s">
+        <v>256</v>
+      </c>
+      <c r="C367">
+        <v>29</v>
+      </c>
+      <c r="D367">
+        <v>691.5</v>
+      </c>
+      <c r="E367" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5">
+      <c r="A368">
+        <v>13485</v>
+      </c>
+      <c r="B368" t="s">
+        <v>257</v>
+      </c>
+      <c r="C368">
+        <v>1</v>
+      </c>
+      <c r="D368">
+        <v>236.75</v>
+      </c>
+      <c r="E368" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5">
+      <c r="A369">
+        <v>13486</v>
+      </c>
+      <c r="B369" t="s">
+        <v>258</v>
+      </c>
+      <c r="C369">
+        <v>1</v>
+      </c>
+      <c r="D369">
+        <v>231.5</v>
+      </c>
+      <c r="E369" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5">
+      <c r="A370">
+        <v>13488</v>
+      </c>
+      <c r="B370" t="s">
+        <v>259</v>
+      </c>
+      <c r="C370">
+        <v>1</v>
+      </c>
+      <c r="D370">
+        <v>234</v>
+      </c>
+      <c r="E370" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5">
+      <c r="A371">
+        <v>13489</v>
+      </c>
+      <c r="B371" t="s">
+        <v>260</v>
+      </c>
+      <c r="C371">
+        <v>1</v>
+      </c>
+      <c r="D371">
+        <v>237</v>
+      </c>
+      <c r="E371" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5">
+      <c r="A372">
+        <v>13598</v>
+      </c>
+      <c r="B372" t="s">
+        <v>261</v>
+      </c>
+      <c r="C372">
+        <v>1</v>
+      </c>
+      <c r="D372">
+        <v>90.25</v>
+      </c>
+      <c r="E372" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5">
+      <c r="A373">
+        <v>13599</v>
+      </c>
+      <c r="B373" t="s">
+        <v>262</v>
+      </c>
+      <c r="C373">
+        <v>1</v>
+      </c>
+      <c r="D373">
+        <v>93</v>
+      </c>
+      <c r="E373" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5">
+      <c r="A374">
+        <v>13600</v>
+      </c>
+      <c r="B374" t="s">
+        <v>263</v>
+      </c>
+      <c r="C374">
+        <v>1</v>
+      </c>
+      <c r="D374">
+        <v>82.75</v>
+      </c>
+      <c r="E374" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5">
+      <c r="A375">
+        <v>13602</v>
+      </c>
+      <c r="B375" t="s">
+        <v>264</v>
+      </c>
+      <c r="C375">
+        <v>1</v>
+      </c>
+      <c r="D375">
+        <v>194.25</v>
+      </c>
+      <c r="E375" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5">
+      <c r="A376">
+        <v>13606</v>
+      </c>
+      <c r="B376" t="s">
+        <v>265</v>
+      </c>
+      <c r="C376">
+        <v>1</v>
+      </c>
+      <c r="D376">
+        <v>366</v>
+      </c>
+      <c r="E376" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5">
+      <c r="A377">
+        <v>13608</v>
+      </c>
+      <c r="B377" t="s">
+        <v>266</v>
+      </c>
+      <c r="C377">
+        <v>1</v>
+      </c>
+      <c r="D377">
+        <v>581.25</v>
+      </c>
+      <c r="E377" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5">
+      <c r="A378">
+        <v>14018</v>
+      </c>
+      <c r="B378" t="s">
+        <v>267</v>
+      </c>
+      <c r="C378">
+        <v>3</v>
+      </c>
+      <c r="D378">
+        <v>141</v>
+      </c>
+      <c r="E378" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5">
+      <c r="A379">
+        <v>14018</v>
+      </c>
+      <c r="B379" t="s">
+        <v>267</v>
+      </c>
+      <c r="C379">
+        <v>1</v>
+      </c>
+      <c r="D379">
+        <v>1692</v>
+      </c>
+      <c r="E379" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5">
+      <c r="A380">
+        <v>19339</v>
+      </c>
+      <c r="B380" t="s">
+        <v>268</v>
+      </c>
+      <c r="C380">
+        <v>2</v>
+      </c>
+      <c r="D380">
+        <v>43.25</v>
+      </c>
+      <c r="E380" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5">
+      <c r="A381">
+        <v>19339</v>
+      </c>
+      <c r="B381" t="s">
+        <v>268</v>
+      </c>
+      <c r="C381">
+        <v>1</v>
+      </c>
+      <c r="D381">
+        <v>692</v>
+      </c>
+      <c r="E381" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5">
+      <c r="A382">
+        <v>19687</v>
+      </c>
+      <c r="B382" t="s">
+        <v>269</v>
+      </c>
+      <c r="C382">
+        <v>1</v>
+      </c>
+      <c r="D382">
+        <v>963.5</v>
+      </c>
+      <c r="E382" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5">
+      <c r="A383">
+        <v>19924</v>
+      </c>
+      <c r="B383" t="s">
+        <v>270</v>
+      </c>
+      <c r="C383">
+        <v>2</v>
+      </c>
+      <c r="D383">
+        <v>461</v>
+      </c>
+      <c r="E383" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5">
+      <c r="A384">
+        <v>19969</v>
+      </c>
+      <c r="B384" t="s">
+        <v>271</v>
+      </c>
+      <c r="C384">
+        <v>29</v>
+      </c>
+      <c r="D384">
+        <v>1041</v>
+      </c>
+      <c r="E384" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5">
+      <c r="A385">
+        <v>19969</v>
+      </c>
+      <c r="B385" t="s">
+        <v>271</v>
+      </c>
+      <c r="C385">
+        <v>25</v>
+      </c>
+      <c r="D385">
+        <v>347</v>
+      </c>
+      <c r="E385" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5">
+      <c r="A386">
+        <v>20927</v>
+      </c>
+      <c r="B386" t="s">
+        <v>272</v>
+      </c>
+      <c r="C386">
+        <v>1</v>
+      </c>
+      <c r="D386">
+        <v>392.5</v>
+      </c>
+      <c r="E386" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5">
+      <c r="A387">
+        <v>20977</v>
+      </c>
+      <c r="B387" t="s">
+        <v>273</v>
+      </c>
+      <c r="C387">
+        <v>1</v>
+      </c>
+      <c r="D387">
+        <v>784</v>
+      </c>
+      <c r="E387" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5">
+      <c r="A388">
+        <v>21700</v>
+      </c>
+      <c r="B388" t="s">
+        <v>274</v>
+      </c>
+      <c r="C388">
+        <v>3</v>
+      </c>
+      <c r="D388">
+        <v>100</v>
+      </c>
+      <c r="E388" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5">
+      <c r="A389">
+        <v>21700</v>
+      </c>
+      <c r="B389" t="s">
+        <v>274</v>
+      </c>
+      <c r="C389">
+        <v>1</v>
+      </c>
+      <c r="D389">
+        <v>1200</v>
+      </c>
+      <c r="E389" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5">
+      <c r="A390">
+        <v>21703</v>
+      </c>
+      <c r="B390" t="s">
+        <v>275</v>
+      </c>
+      <c r="C390">
+        <v>1</v>
+      </c>
+      <c r="D390">
+        <v>1206</v>
+      </c>
+      <c r="E390" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5">
+      <c r="A391">
+        <v>21703</v>
+      </c>
+      <c r="B391" t="s">
+        <v>275</v>
+      </c>
+      <c r="C391">
+        <v>3</v>
+      </c>
+      <c r="D391">
+        <v>100.5</v>
+      </c>
+      <c r="E391" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5">
+      <c r="A392">
+        <v>21779</v>
+      </c>
+      <c r="B392" t="s">
+        <v>276</v>
+      </c>
+      <c r="C392">
+        <v>2</v>
+      </c>
+      <c r="D392">
+        <v>414.5</v>
+      </c>
+      <c r="E392" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5">
+      <c r="A393">
+        <v>21789</v>
+      </c>
+      <c r="B393" t="s">
+        <v>277</v>
+      </c>
+      <c r="C393">
+        <v>2</v>
+      </c>
+      <c r="D393">
+        <v>308</v>
+      </c>
+      <c r="E393" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5">
+      <c r="A394">
+        <v>21793</v>
+      </c>
+      <c r="B394" t="s">
+        <v>278</v>
+      </c>
+      <c r="C394">
+        <v>1</v>
+      </c>
+      <c r="D394">
+        <v>124</v>
+      </c>
+      <c r="E394" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5">
+      <c r="A395">
+        <v>21798</v>
+      </c>
+      <c r="B395" t="s">
+        <v>279</v>
+      </c>
+      <c r="C395">
+        <v>1</v>
+      </c>
+      <c r="D395">
+        <v>210</v>
+      </c>
+      <c r="E395" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5">
+      <c r="A396">
+        <v>21806</v>
+      </c>
+      <c r="B396" t="s">
+        <v>280</v>
+      </c>
+      <c r="C396">
+        <v>1</v>
+      </c>
+      <c r="D396">
+        <v>290.75</v>
+      </c>
+      <c r="E396" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5">
+      <c r="A397">
+        <v>21946</v>
+      </c>
+      <c r="B397" t="s">
+        <v>281</v>
+      </c>
+      <c r="C397">
+        <v>1</v>
+      </c>
+      <c r="D397">
+        <v>366.75</v>
+      </c>
+      <c r="E397" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5">
+      <c r="A398">
+        <v>22570</v>
+      </c>
+      <c r="B398" t="s">
+        <v>282</v>
+      </c>
+      <c r="C398">
+        <v>1</v>
+      </c>
+      <c r="D398">
+        <v>113</v>
+      </c>
+      <c r="E398" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5">
+      <c r="A399">
+        <v>22585</v>
+      </c>
+      <c r="B399" t="s">
+        <v>283</v>
+      </c>
+      <c r="C399">
+        <v>3</v>
+      </c>
+      <c r="D399">
+        <v>54.75</v>
+      </c>
+      <c r="E399" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5">
+      <c r="A400">
+        <v>22585</v>
+      </c>
+      <c r="B400" t="s">
+        <v>283</v>
+      </c>
+      <c r="C400">
+        <v>1</v>
+      </c>
+      <c r="D400">
+        <v>657</v>
+      </c>
+      <c r="E400" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5">
+      <c r="A401">
+        <v>22586</v>
+      </c>
+      <c r="B401" t="s">
+        <v>284</v>
+      </c>
+      <c r="C401">
+        <v>1</v>
+      </c>
+      <c r="D401">
+        <v>684</v>
+      </c>
+      <c r="E401" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5">
+      <c r="A402">
+        <v>22586</v>
+      </c>
+      <c r="B402" t="s">
+        <v>284</v>
+      </c>
+      <c r="C402">
+        <v>3</v>
+      </c>
+      <c r="D402">
+        <v>57</v>
+      </c>
+      <c r="E402" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5">
+      <c r="A403">
+        <v>22590</v>
+      </c>
+      <c r="B403" t="s">
+        <v>285</v>
+      </c>
+      <c r="C403">
+        <v>1</v>
+      </c>
+      <c r="D403">
+        <v>107</v>
+      </c>
+      <c r="E403" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5">
+      <c r="A404">
+        <v>22911</v>
+      </c>
+      <c r="B404" t="s">
+        <v>286</v>
+      </c>
+      <c r="C404">
+        <v>3</v>
+      </c>
+      <c r="D404">
+        <v>97.75</v>
+      </c>
+      <c r="E404" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5">
+      <c r="A405">
+        <v>22911</v>
+      </c>
+      <c r="B405" t="s">
+        <v>286</v>
+      </c>
+      <c r="C405">
+        <v>1</v>
+      </c>
+      <c r="D405">
+        <v>586.5</v>
+      </c>
+      <c r="E405" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5">
+      <c r="A406">
+        <v>22912</v>
+      </c>
+      <c r="B406" t="s">
+        <v>287</v>
+      </c>
+      <c r="C406">
+        <v>3</v>
+      </c>
+      <c r="D406">
+        <v>97.75</v>
+      </c>
+      <c r="E406" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5">
+      <c r="A407">
+        <v>22912</v>
+      </c>
+      <c r="B407" t="s">
+        <v>287</v>
+      </c>
+      <c r="C407">
+        <v>1</v>
+      </c>
+      <c r="D407">
+        <v>586.5</v>
+      </c>
+      <c r="E407" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5">
+      <c r="A408">
+        <v>23031</v>
+      </c>
+      <c r="B408" t="s">
+        <v>288</v>
+      </c>
+      <c r="C408">
+        <v>3</v>
+      </c>
+      <c r="D408">
+        <v>69.25</v>
+      </c>
+      <c r="E408" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5">
+      <c r="A409">
+        <v>23031</v>
+      </c>
+      <c r="B409" t="s">
+        <v>288</v>
+      </c>
+      <c r="C409">
+        <v>1</v>
+      </c>
+      <c r="D409">
+        <v>831</v>
+      </c>
+      <c r="E409" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5">
+      <c r="A410">
+        <v>23235</v>
+      </c>
+      <c r="B410" t="s">
+        <v>289</v>
+      </c>
+      <c r="C410">
+        <v>29</v>
+      </c>
+      <c r="D410">
+        <v>1081.5</v>
+      </c>
+      <c r="E410" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5">
+      <c r="A411">
+        <v>23235</v>
+      </c>
+      <c r="B411" t="s">
+        <v>289</v>
+      </c>
+      <c r="C411">
+        <v>25</v>
+      </c>
+      <c r="D411">
+        <v>360.5</v>
+      </c>
+      <c r="E411" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5">
+      <c r="A412">
+        <v>23335</v>
+      </c>
+      <c r="B412" t="s">
+        <v>290</v>
+      </c>
+      <c r="C412">
+        <v>1</v>
+      </c>
+      <c r="D412">
+        <v>638</v>
+      </c>
+      <c r="E412" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5">
+      <c r="A413">
+        <v>23335</v>
+      </c>
+      <c r="B413" t="s">
+        <v>290</v>
+      </c>
+      <c r="C413">
+        <v>14</v>
+      </c>
+      <c r="D413">
+        <v>79.75</v>
+      </c>
+      <c r="E413" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5">
+      <c r="A414">
+        <v>23920</v>
+      </c>
+      <c r="B414" t="s">
+        <v>291</v>
+      </c>
+      <c r="C414">
+        <v>2</v>
+      </c>
+      <c r="D414">
+        <v>261</v>
+      </c>
+      <c r="E414" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5">
+      <c r="A415">
+        <v>23992</v>
+      </c>
+      <c r="B415" t="s">
+        <v>292</v>
+      </c>
+      <c r="C415">
+        <v>29</v>
+      </c>
+      <c r="D415">
+        <v>697</v>
+      </c>
+      <c r="E415" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5">
+      <c r="A416">
+        <v>23992</v>
+      </c>
+      <c r="B416" t="s">
+        <v>292</v>
+      </c>
+      <c r="C416">
+        <v>25</v>
+      </c>
+      <c r="D416">
+        <v>348.5</v>
+      </c>
+      <c r="E416" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5">
+      <c r="A417">
+        <v>23994</v>
+      </c>
+      <c r="B417" t="s">
+        <v>293</v>
+      </c>
+      <c r="C417">
+        <v>25</v>
+      </c>
+      <c r="D417">
+        <v>377.75</v>
+      </c>
+      <c r="E417" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5">
+      <c r="A418">
+        <v>23994</v>
+      </c>
+      <c r="B418" t="s">
+        <v>293</v>
+      </c>
+      <c r="C418">
+        <v>29</v>
+      </c>
+      <c r="D418">
+        <v>755.5</v>
+      </c>
+      <c r="E418" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5">
+      <c r="A419">
+        <v>24126</v>
+      </c>
+      <c r="B419" t="s">
+        <v>294</v>
+      </c>
+      <c r="C419">
+        <v>3</v>
+      </c>
+      <c r="D419">
+        <v>115.25</v>
+      </c>
+      <c r="E419" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5">
+      <c r="A420">
+        <v>24126</v>
+      </c>
+      <c r="B420" t="s">
+        <v>294</v>
+      </c>
+      <c r="C420">
+        <v>1</v>
+      </c>
+      <c r="D420">
+        <v>1152.5</v>
+      </c>
+      <c r="E420" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5">
+      <c r="A421">
+        <v>24127</v>
+      </c>
+      <c r="B421" t="s">
+        <v>295</v>
+      </c>
+      <c r="C421">
+        <v>1</v>
+      </c>
+      <c r="D421">
+        <v>1177.5</v>
+      </c>
+      <c r="E421" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5">
+      <c r="A422">
+        <v>24127</v>
+      </c>
+      <c r="B422" t="s">
+        <v>295</v>
+      </c>
+      <c r="C422">
+        <v>3</v>
+      </c>
+      <c r="D422">
+        <v>117.75</v>
+      </c>
+      <c r="E422" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5">
+      <c r="A423">
+        <v>24244</v>
+      </c>
+      <c r="B423" t="s">
+        <v>296</v>
+      </c>
+      <c r="C423">
+        <v>1</v>
+      </c>
+      <c r="D423">
+        <v>297</v>
+      </c>
+      <c r="E423" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5">
+      <c r="A424">
+        <v>24244</v>
+      </c>
+      <c r="B424" t="s">
+        <v>296</v>
+      </c>
+      <c r="C424">
+        <v>3</v>
+      </c>
+      <c r="D424">
+        <v>24.75</v>
+      </c>
+      <c r="E424" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5">
+      <c r="A425">
+        <v>24245</v>
+      </c>
+      <c r="B425" t="s">
+        <v>297</v>
+      </c>
+      <c r="C425">
+        <v>1</v>
+      </c>
+      <c r="D425">
+        <v>291</v>
+      </c>
+      <c r="E425" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5">
+      <c r="A426">
+        <v>24245</v>
+      </c>
+      <c r="B426" t="s">
+        <v>297</v>
+      </c>
+      <c r="C426">
+        <v>3</v>
+      </c>
+      <c r="D426">
+        <v>24.25</v>
+      </c>
+      <c r="E426" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5">
+      <c r="A427">
+        <v>24247</v>
+      </c>
+      <c r="B427" t="s">
+        <v>298</v>
+      </c>
+      <c r="C427">
+        <v>1</v>
+      </c>
+      <c r="D427">
+        <v>1185</v>
+      </c>
+      <c r="E427" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5">
+      <c r="A428">
+        <v>24247</v>
+      </c>
+      <c r="B428" t="s">
+        <v>298</v>
+      </c>
+      <c r="C428">
+        <v>3</v>
+      </c>
+      <c r="D428">
+        <v>98.75</v>
+      </c>
+      <c r="E428" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5">
+      <c r="A429">
+        <v>24256</v>
+      </c>
+      <c r="B429" t="s">
+        <v>299</v>
+      </c>
+      <c r="C429">
+        <v>1</v>
+      </c>
+      <c r="D429">
+        <v>208.5</v>
+      </c>
+      <c r="E429" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5">
+      <c r="A430">
+        <v>24257</v>
+      </c>
+      <c r="B430" t="s">
+        <v>300</v>
+      </c>
+      <c r="C430">
+        <v>1</v>
+      </c>
+      <c r="D430">
+        <v>208</v>
+      </c>
+      <c r="E430" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5">
+      <c r="A431">
+        <v>24566</v>
+      </c>
+      <c r="B431" t="s">
+        <v>301</v>
+      </c>
+      <c r="C431">
+        <v>1</v>
+      </c>
+      <c r="D431">
+        <v>90.25</v>
+      </c>
+      <c r="E431" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5">
+      <c r="A432">
+        <v>24670</v>
+      </c>
+      <c r="B432" t="s">
+        <v>302</v>
+      </c>
+      <c r="C432">
+        <v>1</v>
+      </c>
+      <c r="D432">
+        <v>963</v>
+      </c>
+      <c r="E432" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5">
+      <c r="A433">
+        <v>24723</v>
+      </c>
+      <c r="B433" t="s">
+        <v>303</v>
+      </c>
+      <c r="C433">
+        <v>2</v>
+      </c>
+      <c r="D433">
+        <v>485.5</v>
+      </c>
+      <c r="E433" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5">
+      <c r="A434">
+        <v>24724</v>
+      </c>
+      <c r="B434" t="s">
+        <v>304</v>
+      </c>
+      <c r="C434">
+        <v>2</v>
+      </c>
+      <c r="D434">
+        <v>496.5</v>
+      </c>
+      <c r="E434" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5">
+      <c r="A435">
+        <v>25344</v>
+      </c>
+      <c r="B435" t="s">
+        <v>305</v>
+      </c>
+      <c r="C435">
+        <v>1</v>
+      </c>
+      <c r="D435">
+        <v>2898</v>
+      </c>
+      <c r="E435" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5">
+      <c r="A436">
+        <v>25344</v>
+      </c>
+      <c r="B436" t="s">
+        <v>305</v>
+      </c>
+      <c r="C436">
+        <v>3</v>
+      </c>
+      <c r="D436">
+        <v>241.5</v>
+      </c>
+      <c r="E436" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5">
+      <c r="A437">
+        <v>25345</v>
+      </c>
+      <c r="B437" t="s">
+        <v>306</v>
+      </c>
+      <c r="C437">
+        <v>1</v>
+      </c>
+      <c r="D437">
+        <v>2769</v>
+      </c>
+      <c r="E437" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5">
+      <c r="A438">
+        <v>25345</v>
+      </c>
+      <c r="B438" t="s">
+        <v>306</v>
+      </c>
+      <c r="C438">
+        <v>3</v>
+      </c>
+      <c r="D438">
+        <v>230.75</v>
+      </c>
+      <c r="E438" t="s">
+        <v>307</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/manual/output_1123_chunk_1.xlsx
+++ b/Pricing Logic/modules/manual/output_1123_chunk_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="193">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,19 +37,562 @@
     <t>Tags</t>
   </si>
   <si>
+    <t>ارز حبوبة رفيع - 1 كجم</t>
+  </si>
+  <si>
+    <t>سمن كريستال اصفر ظرف - 350 جم</t>
+  </si>
+  <si>
+    <t>دقيق حبوبة - 1 كجم</t>
+  </si>
+  <si>
+    <t>شاى ليبتون - 25 فتلة</t>
+  </si>
+  <si>
+    <t>فجيتار كنور عادى - 35 جم</t>
+  </si>
+  <si>
+    <t>ارز حبوبة رفيع - 5 كجم</t>
+  </si>
+  <si>
+    <t>كنور فيجيتار حار - 35 جم</t>
+  </si>
+  <si>
+    <t>لبن بخيره - 500 مل</t>
+  </si>
+  <si>
+    <t>سفن اب ستار كانز - 320 مل</t>
+  </si>
+  <si>
+    <t>عصير بيتى تفاح - 235 مل</t>
+  </si>
+  <si>
+    <t>لبن بخيره - 1 لتر</t>
+  </si>
+  <si>
+    <t>لبن جهينة مكس فراولة - 200 مل</t>
+  </si>
+  <si>
+    <t>سائل اطباق وفير بلس ليمون اصفر - 4 كجم</t>
+  </si>
+  <si>
+    <t>لبن جهينة كامل الدسم - 1 لتر</t>
+  </si>
+  <si>
+    <t>عصير بيتى اناناس - 235 مل</t>
+  </si>
+  <si>
+    <t>بيبسى كانز ستار - 320 مل</t>
+  </si>
+  <si>
+    <t>طحينة البوادى - 125 جم</t>
+  </si>
+  <si>
+    <t>حلو الشام بسبوسة جوز الهند- 380 جم</t>
+  </si>
+  <si>
+    <t>بيبسى كانز جيب - 240 مل</t>
+  </si>
+  <si>
+    <t>كنور خلطة بشاميل- 70 جم</t>
+  </si>
+  <si>
+    <t>زيت قلية خليط - 1 لتر</t>
+  </si>
+  <si>
+    <t>طحينة البوادى - 240 جم</t>
+  </si>
+  <si>
+    <t>كوكا كولا جيب - 240 مل</t>
+  </si>
+  <si>
+    <t>تونة دولفين قطعة واحدة بارد - 200 جم</t>
+  </si>
+  <si>
+    <t>حلواني حلاوة طحينية سادة - 280 جم</t>
+  </si>
+  <si>
+    <t>طحينة الرشيدى الميزان ظرف - 21 جم</t>
+  </si>
+  <si>
+    <t>لبن المراعى كامل دسم بلاستيك - 1 لتر</t>
+  </si>
+  <si>
+    <t>لبن المراعي شيكولاتة وفر جنية- 200 مل</t>
+  </si>
+  <si>
+    <t>مربى الرشيدى الميزان تين - 340 جم</t>
+  </si>
+  <si>
+    <t>طحينة الرشيدى الميزان - 500 جم</t>
+  </si>
+  <si>
+    <t>ستينج فراولة زجاج - 275 مل</t>
+  </si>
+  <si>
+    <t>ارز حبوبة عريض الحبة - 1 كجم</t>
+  </si>
+  <si>
+    <t>فيبا سائل أطباق ليمون أصفر- 4 كجم</t>
+  </si>
+  <si>
+    <t>حفاضات مولفيكس ماكسى جامبو مقاس 4 - 58 حفاضة</t>
+  </si>
+  <si>
+    <t>زيت حبوبة خليط - 1 لتر</t>
+  </si>
+  <si>
+    <t>كوكا كولا - 1.45 لتر</t>
+  </si>
+  <si>
+    <t>كلوركس الوان برائحة الزهور - 950 مل</t>
+  </si>
+  <si>
+    <t>سائل اطباق وفير بلس ليمون اخضر - 4 كجم</t>
+  </si>
+  <si>
+    <t>فيبا سائل أطباق ليمون أصفر- 520 جم</t>
+  </si>
+  <si>
+    <t>فاين فودز مرقة خضار 8 مكعب- 72 جم</t>
+  </si>
+  <si>
+    <t>مناديل فاميليا مطبخ كلاسيك 5 رول + 1 رول هدية - 6 رول</t>
+  </si>
+  <si>
+    <t>شويبس رمان - 1.75 لتر</t>
+  </si>
+  <si>
+    <t>شوكولاته مورو نوجا بالكراميل مغطاه بشكولاتة -حجم اكبر - 40 جرام</t>
+  </si>
+  <si>
+    <t>حفاضات جود كير مقاس 5 - 40 حفاضة</t>
+  </si>
+  <si>
     <t>فانتا برتقال - 1.45 لتر</t>
   </si>
   <si>
-    <t>كوكا كولا - 0.95 لتر</t>
-  </si>
-  <si>
-    <t>حفاضات جود كير مقاس 6 - 40 حفاضة</t>
-  </si>
-  <si>
-    <t>حفاضات جود كير مقاس 3 - 100 حفاضة</t>
+    <t>كوكا كولا - 2.45 لتر</t>
+  </si>
+  <si>
+    <t>مسحوق غسيل فل ازرق يدوى - 9 كجم</t>
+  </si>
+  <si>
+    <t>زيت كريستال عباد الشمس 6 زجاجة - 700 مل</t>
+  </si>
+  <si>
+    <t>زيت كريستال عباد الشمس 4 زجاجة - 2.2 لتر</t>
+  </si>
+  <si>
+    <t>زيت كريستال ذرة 4 زجاجة - 2.2 لتر</t>
+  </si>
+  <si>
+    <t>زيت كريستال عباد الشمس 6 زجاجة - 1.6 لتر</t>
+  </si>
+  <si>
+    <t>بسكويت شاتو بالشوكولاتة - 25 جنية</t>
+  </si>
+  <si>
+    <t>جبنة رودس فيتا بيضاء - 250 جم</t>
+  </si>
+  <si>
+    <t>حفاضات بيبى جوى مضغوطة وسط مقاس 3 - 58 حفاضة</t>
+  </si>
+  <si>
+    <t>سبرايت - 0.95 لتر</t>
+  </si>
+  <si>
+    <t>بن ابو عوف وسط سادة صفيح - 200 جم</t>
+  </si>
+  <si>
+    <t>رويال أعشاب ليمون جنزبيل - 50 فتلة</t>
+  </si>
+  <si>
+    <t>سمن كريستال اصفر صفيحة - 4.25 كجم</t>
+  </si>
+  <si>
+    <t>مناديل فاميليا مطبخ كلاسيك 6 رول + 2 رول هدية - 8 رول</t>
+  </si>
+  <si>
+    <t>كنور خلطة بطاطس - 6 جم</t>
+  </si>
+  <si>
+    <t>كنور خلطه 11 بهار - 6 جم</t>
+  </si>
+  <si>
+    <t>جبنة عبور لاند رومى - 250 جم</t>
+  </si>
+  <si>
+    <t>جبنة رودس قشطة - 250 جم</t>
+  </si>
+  <si>
+    <t>مكرونة شعرية كايرو - 400 جم</t>
+  </si>
+  <si>
+    <t>مكرونة كايرو اسباجتى - 400 جم</t>
+  </si>
+  <si>
+    <t>مكرونة كايرو لسان عصفور - 400 جم</t>
+  </si>
+  <si>
+    <t>مكرونة خطيرة فرن - 280 جم</t>
+  </si>
+  <si>
+    <t>مناديل بابيا جيب كلاسيك 3 طبقة - 10 باكت</t>
+  </si>
+  <si>
+    <t>بن عبد المعبود سادة فاتح سوفت - 25 جم</t>
+  </si>
+  <si>
+    <t>كوكاكولا اكشن - 300 مل</t>
+  </si>
+  <si>
+    <t>سبرايت اكشن - 300 مل</t>
+  </si>
+  <si>
+    <t>جودكير مناديل جيب - 10 باكت</t>
+  </si>
+  <si>
+    <t>اندومى سوبر مى خضار جامبو عرض 44 كيس - 100 جم</t>
+  </si>
+  <si>
+    <t>اندومى لحمة بيف جامبو عرض 44 كيس - 100 جم</t>
+  </si>
+  <si>
+    <t>زيت كريستال ذرة 6 زجاجة - 700 مل</t>
+  </si>
+  <si>
+    <t>حلاوة البوادي - 970 جرام</t>
+  </si>
+  <si>
+    <t>كلوروكس الوان باودر جديد 5 جنيه - 30 جم</t>
+  </si>
+  <si>
+    <t>فيبا سائل اطباق  ليمون اخضر- 4 كجم</t>
+  </si>
+  <si>
+    <t>مكرونة بساطة خواتم - 350 جم</t>
+  </si>
+  <si>
+    <t>مكرونة بساطة فرن - 350 جم</t>
+  </si>
+  <si>
+    <t>مكرونة بساطة لسان عصفور - 350 جم</t>
+  </si>
+  <si>
+    <t>شاى العروسة -. 40 جم</t>
+  </si>
+  <si>
+    <t>عسل نحل البوادى زهرة البرسيم - 235 جم</t>
+  </si>
+  <si>
+    <t>هارفست فول مدمس سادة خصم %20 - 400 جم</t>
+  </si>
+  <si>
+    <t>اوكسى يدوى - 1.5 كجم</t>
+  </si>
+  <si>
+    <t>لبان ترايدنت توت و فراولة 65 قطعة- 1.5 جنية</t>
+  </si>
+  <si>
+    <t>شويبس جولد اناناس - 950 مل</t>
+  </si>
+  <si>
+    <t>ماكسى تفاح - 400 مل</t>
+  </si>
+  <si>
+    <t>كوكيز العبد بقطع الشوكولاتة فانليا - 10 جنية</t>
+  </si>
+  <si>
+    <t>زيت حبوبة خليط - 540 مل</t>
+  </si>
+  <si>
+    <t>طحينة البوادى ظرف - 42 جم</t>
+  </si>
+  <si>
+    <t>البوادي حلاوة بار  - 18 جم</t>
+  </si>
+  <si>
+    <t>لوكس صابون حلم السعادة  - 115 جم</t>
+  </si>
+  <si>
+    <t>سمن كريستال اصفر ظرف - 55 جم</t>
+  </si>
+  <si>
+    <t>زيت كريستال عباد الشمس - 5 لتر</t>
+  </si>
+  <si>
+    <t>حفاضات بى بم جامبو بانتس مقاس 5 - 56 حفاضة</t>
+  </si>
+  <si>
+    <t>اوكسى يدوى - 2 كجم</t>
+  </si>
+  <si>
+    <t>بسكويت اوريو اوريجينال بالكاكاو و الفانيليا 2 قطعة - 5 جنية</t>
+  </si>
+  <si>
+    <t>اوكسي سائل أطباق ليمون اخضر ( 9 عبوة ) - 1 كيلو</t>
+  </si>
+  <si>
+    <t>زيت حبوبة خليط - 1.8 لتر</t>
+  </si>
+  <si>
+    <t>ليدر جل عادى للابيض و الوان - 50 جم</t>
+  </si>
+  <si>
+    <t>سمن كريستال اصفر 6 عبوة - 700 جم</t>
+  </si>
+  <si>
+    <t>مناديل زينة تريو عرض خاص - 500 منديل</t>
+  </si>
+  <si>
+    <t>عصير جهينة بيور برتقال - 235 مل</t>
+  </si>
+  <si>
+    <t>شاى ليبتون اخضر - 25 فتلة</t>
+  </si>
+  <si>
+    <t>امريكانا فول مدمس بالصلصة والتسبيكة - 400 جم</t>
+  </si>
+  <si>
+    <t>شاى الكبوس - 100 جرام</t>
+  </si>
+  <si>
+    <t>جبنة لا فاش كيرى كلاسيك - 8 مثلث</t>
+  </si>
+  <si>
+    <t>مسحوق باهى لافندر اوتوماتيك 8 ك + 1 ك - 9 كجم</t>
+  </si>
+  <si>
+    <t>مربى البوادى مشمش - 365 جم</t>
+  </si>
+  <si>
+    <t>مربى البوادى مشمش - 680 جم</t>
+  </si>
+  <si>
+    <t>البيلا وفيرشيكولاته محشو بكريمة البندق - أولكر 5 جنية</t>
+  </si>
+  <si>
+    <t>العبد كوكيز فانيليا بقطع الشكولاتة - 29 جنية</t>
+  </si>
+  <si>
+    <t>العبد كوكيز شكولاتة بقطع الشكولاتة - 29 جنية</t>
+  </si>
+  <si>
+    <t>كورونا شوكولاتة داكنة 72%- 45 جنية</t>
+  </si>
+  <si>
+    <t>مسحوق ليدر عادى لافندر 12+1 هدية - 145 جم</t>
+  </si>
+  <si>
+    <t>جبنة لا فاش كيرى كلاسيك حجم عائلي- 88 مثلث</t>
+  </si>
+  <si>
+    <t>مسحوق ليدر عادى لافندر - 65 جم</t>
+  </si>
+  <si>
+    <t>مناديل فاميليا جيب 2 طبقة - 10 منديل</t>
+  </si>
+  <si>
+    <t>اوكسى جل يدوى ابيض و الوان نسيم الربيع - 30 جم</t>
+  </si>
+  <si>
+    <t>اوكسى جل يدوى ابيض و الوان نسيم الشرق - 30 جم</t>
+  </si>
+  <si>
+    <t>فاين فودز مرقة خضار 8 مكعب عرض (7+1) - 72 جم</t>
+  </si>
+  <si>
+    <t>زيت حبوبة خليط - 2.4 لتر</t>
+  </si>
+  <si>
+    <t>سندة سكر - 1 كجم</t>
+  </si>
+  <si>
+    <t>كنور فاين فودز مرقة دجاج عرض خاص - 12 مكعب 108 جرام</t>
+  </si>
+  <si>
+    <t>عصير جهينة مكس بيرى - 235 مل</t>
+  </si>
+  <si>
+    <t>اوكسى سائل اطباق ليمون أخضر ظرف 35 جرام</t>
+  </si>
+  <si>
+    <t>شويبس اناناس بلاستيك - 250 مل</t>
+  </si>
+  <si>
+    <t>اوكسى يدوى نسيم الشرق - 330 جم</t>
+  </si>
+  <si>
+    <t>كل يوم عصير جوافة  - 200 مل</t>
+  </si>
+  <si>
+    <t>XXL مولتو شيكولاته بالبندق  - 10 جنية</t>
+  </si>
+  <si>
+    <t>بسكويت اولكر بالتمر 6 قطع - 7 جنية</t>
+  </si>
+  <si>
+    <t>سندة أرز رفيع- 1 كجم</t>
+  </si>
+  <si>
+    <t>زيت كريستال الممتاز خليط - 2.5 لتر</t>
+  </si>
+  <si>
+    <t>هانم سمنة بطعم الزبدة الصفراء ظرف - 55 جم</t>
+  </si>
+  <si>
+    <t>شنايدر مشروب شعير جوزهند - 385 مل</t>
+  </si>
+  <si>
+    <t>سندة دقيق - 1 كجم</t>
+  </si>
+  <si>
+    <t>حلو الشام فانيليا سائلة - 35 مل</t>
+  </si>
+  <si>
+    <t>أجين عصير برتقال محلى ظرف- 19 جم</t>
+  </si>
+  <si>
+    <t>فرست وان بطعم البطيخ -والشعير 250 مل</t>
+  </si>
+  <si>
+    <t>ريد اقراص طارد للناموس - 60 قرص</t>
+  </si>
+  <si>
+    <t>فرسكا شوكو ستكس شوكولاتة مغطي شوكولاته بيضاءمحشو كاكاو وبندق 2 قطعه</t>
+  </si>
+  <si>
+    <t>أريال يدوى داونى - 340 جم</t>
+  </si>
+  <si>
+    <t>-أريال يدوى داونى 1 كجم</t>
+  </si>
+  <si>
+    <t>-أريال يدوى داونى 1.5 كجم</t>
+  </si>
+  <si>
+    <t>ماكسى برتقال - 1 لتر</t>
+  </si>
+  <si>
+    <t>صابون ريفولى  عرض - 165 جم</t>
+  </si>
+  <si>
+    <t>كلوروكس ابيض باوش - 500 جم</t>
+  </si>
+  <si>
+    <t>جل باهى اسود - 40 جم</t>
+  </si>
+  <si>
+    <t>زيت ثمرات خليط - 1 لتر</t>
+  </si>
+  <si>
+    <t>زيت ثمرات خليط - 550 مل</t>
+  </si>
+  <si>
+    <t>لارش ميلت كيك بصوص الكاكاو ومغطي بالكاكاو - 10 جنية</t>
+  </si>
+  <si>
+    <t>تمارا زينة مناديل وجه 3 طبقة - 660 منديل</t>
+  </si>
+  <si>
+    <t>فاين مناديل تواليت كمفورت 2 رول 2 رول</t>
+  </si>
+  <si>
+    <t>مكرونة مرمرية بساطة - 1 كجم</t>
+  </si>
+  <si>
+    <t>مكرونة شعرية بساطة - 1 كجم</t>
+  </si>
+  <si>
+    <t>مكرونة خواتم بساطة - 1 كجم</t>
+  </si>
+  <si>
+    <t>مكرونة بساطة اسباجيتى - 1 كجم</t>
+  </si>
+  <si>
+    <t>مكرونة فرن بساطة - 1 كجم</t>
+  </si>
+  <si>
+    <t>بيتي عصير مانجو عرض خاص 28ج - 1 لتر</t>
+  </si>
+  <si>
+    <t>شوكولاتة مورو نوجا بالكراميل - حجم جديد - 25 جرام</t>
+  </si>
+  <si>
+    <t>تايد أوتوماتيك داونى  - 9 كجم</t>
+  </si>
+  <si>
+    <t>برسيل جل بلاك - 70 جم</t>
+  </si>
+  <si>
+    <t>زيووو شرائح بالت ليمون حلو - 65 جم</t>
+  </si>
+  <si>
+    <t>زيووو شرائح بالت خضروات - 65 جم</t>
+  </si>
+  <si>
+    <t>سولا باراديس طوفي  - 100 قطعه</t>
+  </si>
+  <si>
+    <t>سولا نعناع - 240 قطعه</t>
+  </si>
+  <si>
+    <t>باندا جورمية مثلثات - 8 قطعه</t>
+  </si>
+  <si>
+    <t>فيانسيه شامبو 7فى1 اكياس بالروزمارى والجوجوبا 5 مل</t>
+  </si>
+  <si>
+    <t>بقسماط ناعم ريتش بيك - 400 جرام</t>
+  </si>
+  <si>
+    <t>بونكس اوتوماتيك بلمسة الداوني - 9 كجم</t>
+  </si>
+  <si>
+    <t>راز كب كيك راز ذهبي فانليا - 12 قطعه</t>
+  </si>
+  <si>
+    <t>راز مينى كب كيك 8 قطع راز شيكولاته 16 كيس</t>
+  </si>
+  <si>
+    <t>مولفيكس بانتس مقاس 3 - 56 حفاضة</t>
+  </si>
+  <si>
+    <t>موني سوبر سترتش كبير مقاس 4 - 80 حفاضة</t>
+  </si>
+  <si>
+    <t>ماكسى كانز كولا اورجينال - 300 مل</t>
+  </si>
+  <si>
+    <t>ماكسى كانز برتقال اورجينال - 300 مل</t>
+  </si>
+  <si>
+    <t>ماكسى كانز ليمون اورجينال - 300 مل</t>
+  </si>
+  <si>
+    <t>ماكسى كانز ليمون نعناع اورجينال - 300 مل</t>
+  </si>
+  <si>
+    <t>ميني جولي - 12 قطعه</t>
+  </si>
+  <si>
+    <t>حفاضات بى بم بانتس مقاس 5 - 72 حفاضة</t>
+  </si>
+  <si>
+    <t>مشروب بودرة تانج  برتقال جديد 2 لتر - 40 جرام</t>
+  </si>
+  <si>
+    <t>مشروب بودرة تانج مانجو جديد 2 لتر - 40 جرام</t>
+  </si>
+  <si>
+    <t>ماكسى ليمون نعناع - 1 لتر</t>
   </si>
   <si>
     <t>YES</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -407,7 +950,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G256"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -438,7 +981,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>2774</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -447,95 +990,4328 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>181</v>
+        <v>260.5</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>3670</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>130</v>
+        <v>464.5</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>4232</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>922.5</v>
+        <v>198</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>4232</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>184.5</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>6540</v>
+        <v>95</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>375.5</v>
+        <v>4464</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>6540</v>
+        <v>105</v>
       </c>
       <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>129.5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>105</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>777</v>
+      </c>
+      <c r="E8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>107</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>127</v>
+      </c>
+      <c r="E9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>107</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>635</v>
+      </c>
+      <c r="E10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>114</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>113</v>
+      </c>
+      <c r="E11" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>114</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>678</v>
+      </c>
+      <c r="E12" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>130</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>501</v>
+      </c>
+      <c r="E13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>140</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>330.75</v>
+      </c>
+      <c r="E14" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>143</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>186.5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>151</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>440</v>
+      </c>
+      <c r="E16" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>206</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>273.5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>247</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>322</v>
+      </c>
+      <c r="E18" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>248</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>551.25</v>
+      </c>
+      <c r="E19" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>307</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>197</v>
+      </c>
+      <c r="E20" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>326</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>336.25</v>
+      </c>
+      <c r="E21" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>336</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22">
+        <v>15</v>
+      </c>
+      <c r="D22">
+        <v>262.5</v>
+      </c>
+      <c r="E22" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>336</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1050</v>
+      </c>
+      <c r="E23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>336</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>16</v>
+      </c>
+      <c r="D24">
+        <v>525</v>
+      </c>
+      <c r="E24" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>336</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
         <v>10</v>
       </c>
-      <c r="C7">
+      <c r="D25">
+        <v>26.25</v>
+      </c>
+      <c r="E25" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>380</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>441</v>
+      </c>
+      <c r="E26" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>434</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>298</v>
+      </c>
+      <c r="E27" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>440</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>892.5</v>
+      </c>
+      <c r="E28" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>440</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>148.75</v>
+      </c>
+      <c r="E29" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>470</v>
+      </c>
+      <c r="B30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>821.75</v>
+      </c>
+      <c r="E30" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>590</v>
+      </c>
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31">
+        <v>16</v>
+      </c>
+      <c r="D31">
+        <v>594</v>
+      </c>
+      <c r="E31" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>590</v>
+      </c>
+      <c r="B32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1188</v>
+      </c>
+      <c r="E32" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>590</v>
+      </c>
+      <c r="B33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33">
+        <v>10</v>
+      </c>
+      <c r="D33">
+        <v>49.5</v>
+      </c>
+      <c r="E33" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>590</v>
+      </c>
+      <c r="B34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34">
+        <v>15</v>
+      </c>
+      <c r="D34">
+        <v>297</v>
+      </c>
+      <c r="E34" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>615</v>
+      </c>
+      <c r="B35" t="s">
         <v>29</v>
       </c>
-      <c r="D7">
-        <v>751</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>285</v>
+      </c>
+      <c r="E35" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>947</v>
+      </c>
+      <c r="B36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36">
+        <v>16</v>
+      </c>
+      <c r="D36">
+        <v>1392</v>
+      </c>
+      <c r="E36" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>947</v>
+      </c>
+      <c r="B37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>2784</v>
+      </c>
+      <c r="E37" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>947</v>
+      </c>
+      <c r="B38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38">
         <v>11</v>
+      </c>
+      <c r="D38">
+        <v>58</v>
+      </c>
+      <c r="E38" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>947</v>
+      </c>
+      <c r="B39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39">
+        <v>15</v>
+      </c>
+      <c r="D39">
+        <v>696</v>
+      </c>
+      <c r="E39" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>948</v>
+      </c>
+      <c r="B40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40">
+        <v>10</v>
+      </c>
+      <c r="D40">
+        <v>37</v>
+      </c>
+      <c r="E40" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>948</v>
+      </c>
+      <c r="B41" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41">
+        <v>16</v>
+      </c>
+      <c r="D41">
+        <v>370</v>
+      </c>
+      <c r="E41" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>948</v>
+      </c>
+      <c r="B42" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42">
+        <v>15</v>
+      </c>
+      <c r="D42">
+        <v>185</v>
+      </c>
+      <c r="E42" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>948</v>
+      </c>
+      <c r="B43" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>666</v>
+      </c>
+      <c r="E43" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>963</v>
+      </c>
+      <c r="B44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44">
+        <v>73.5</v>
+      </c>
+      <c r="E44" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>963</v>
+      </c>
+      <c r="B45" t="s">
+        <v>32</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>441</v>
+      </c>
+      <c r="E45" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <v>990</v>
+      </c>
+      <c r="B46" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>567.5</v>
+      </c>
+      <c r="E46" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>1000</v>
+      </c>
+      <c r="B47" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>269.5</v>
+      </c>
+      <c r="E47" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
+        <v>1050</v>
+      </c>
+      <c r="B48" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>262.75</v>
+      </c>
+      <c r="E48" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>1054</v>
+      </c>
+      <c r="B49" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49">
+        <v>1218</v>
+      </c>
+      <c r="E49" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50">
+        <v>1054</v>
+      </c>
+      <c r="B50" t="s">
+        <v>36</v>
+      </c>
+      <c r="C50">
+        <v>10</v>
+      </c>
+      <c r="D50">
+        <v>101.5</v>
+      </c>
+      <c r="E50" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>1124</v>
+      </c>
+      <c r="B51" t="s">
+        <v>37</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51">
+        <v>156.75</v>
+      </c>
+      <c r="E51" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52">
+        <v>1243</v>
+      </c>
+      <c r="B52" t="s">
+        <v>38</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
+      <c r="D52">
+        <v>305</v>
+      </c>
+      <c r="E52" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53">
+        <v>1274</v>
+      </c>
+      <c r="B53" t="s">
+        <v>39</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>374</v>
+      </c>
+      <c r="E53" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54">
+        <v>1407</v>
+      </c>
+      <c r="B54" t="s">
+        <v>40</v>
+      </c>
+      <c r="C54">
+        <v>25</v>
+      </c>
+      <c r="D54">
+        <v>305.5</v>
+      </c>
+      <c r="E54" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55">
+        <v>1407</v>
+      </c>
+      <c r="B55" t="s">
+        <v>40</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55">
+        <v>916.5</v>
+      </c>
+      <c r="E55" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56">
+        <v>1492</v>
+      </c>
+      <c r="B56" t="s">
+        <v>41</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>805.5</v>
+      </c>
+      <c r="E56" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57">
+        <v>1504</v>
+      </c>
+      <c r="B57" t="s">
+        <v>42</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+      <c r="D57">
+        <v>180</v>
+      </c>
+      <c r="E57" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58">
+        <v>1648</v>
+      </c>
+      <c r="B58" t="s">
+        <v>43</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>597.5</v>
+      </c>
+      <c r="E58" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59">
+        <v>1691</v>
+      </c>
+      <c r="B59" t="s">
+        <v>44</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>325</v>
+      </c>
+      <c r="E59" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60">
+        <v>1744</v>
+      </c>
+      <c r="B60" t="s">
+        <v>45</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>174</v>
+      </c>
+      <c r="E60" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61">
+        <v>1880</v>
+      </c>
+      <c r="B61" t="s">
+        <v>46</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>1626</v>
+      </c>
+      <c r="E61" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62">
+        <v>1880</v>
+      </c>
+      <c r="B62" t="s">
+        <v>46</v>
+      </c>
+      <c r="C62">
+        <v>4</v>
+      </c>
+      <c r="D62">
+        <v>135.5</v>
+      </c>
+      <c r="E62" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63">
+        <v>1886</v>
+      </c>
+      <c r="B63" t="s">
+        <v>47</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
+      </c>
+      <c r="D63">
+        <v>189.75</v>
+      </c>
+      <c r="E63" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64">
+        <v>2328</v>
+      </c>
+      <c r="B64" t="s">
+        <v>48</v>
+      </c>
+      <c r="C64">
+        <v>2</v>
+      </c>
+      <c r="D64">
+        <v>206</v>
+      </c>
+      <c r="E64" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65">
+        <v>2335</v>
+      </c>
+      <c r="B65" t="s">
+        <v>49</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+      <c r="D65">
+        <v>144.25</v>
+      </c>
+      <c r="E65" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66">
+        <v>2335</v>
+      </c>
+      <c r="B66" t="s">
+        <v>49</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>1731</v>
+      </c>
+      <c r="E66" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67">
+        <v>2424</v>
+      </c>
+      <c r="B67" t="s">
+        <v>50</v>
+      </c>
+      <c r="C67">
+        <v>29</v>
+      </c>
+      <c r="D67">
+        <v>851.25</v>
+      </c>
+      <c r="E67" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68">
+        <v>2424</v>
+      </c>
+      <c r="B68" t="s">
+        <v>50</v>
+      </c>
+      <c r="C68">
+        <v>80</v>
+      </c>
+      <c r="D68">
+        <v>170.25</v>
+      </c>
+      <c r="E68" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69">
+        <v>2774</v>
+      </c>
+      <c r="B69" t="s">
+        <v>51</v>
+      </c>
+      <c r="C69">
+        <v>2</v>
+      </c>
+      <c r="D69">
+        <v>183.75</v>
+      </c>
+      <c r="E69" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70">
+        <v>2778</v>
+      </c>
+      <c r="B70" t="s">
+        <v>52</v>
+      </c>
+      <c r="C70">
+        <v>2</v>
+      </c>
+      <c r="D70">
+        <v>209</v>
+      </c>
+      <c r="E70" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71">
+        <v>2805</v>
+      </c>
+      <c r="B71" t="s">
+        <v>53</v>
+      </c>
+      <c r="C71">
+        <v>137</v>
+      </c>
+      <c r="D71">
+        <v>159.5</v>
+      </c>
+      <c r="E71" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72">
+        <v>2878</v>
+      </c>
+      <c r="B72" t="s">
+        <v>54</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>363</v>
+      </c>
+      <c r="E72" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73">
+        <v>2879</v>
+      </c>
+      <c r="B73" t="s">
+        <v>55</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>785</v>
+      </c>
+      <c r="E73" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74">
+        <v>2916</v>
+      </c>
+      <c r="B74" t="s">
+        <v>56</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>938.5</v>
+      </c>
+      <c r="E74" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75">
+        <v>2935</v>
+      </c>
+      <c r="B75" t="s">
+        <v>57</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>848.75</v>
+      </c>
+      <c r="E75" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76">
+        <v>2991</v>
+      </c>
+      <c r="B76" t="s">
+        <v>58</v>
+      </c>
+      <c r="C76">
+        <v>3</v>
+      </c>
+      <c r="D76">
+        <v>188.5</v>
+      </c>
+      <c r="E76" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77">
+        <v>2991</v>
+      </c>
+      <c r="B77" t="s">
+        <v>58</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>754</v>
+      </c>
+      <c r="E77" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78">
+        <v>3477</v>
+      </c>
+      <c r="B78" t="s">
+        <v>59</v>
+      </c>
+      <c r="C78">
+        <v>2</v>
+      </c>
+      <c r="D78">
+        <v>572.75</v>
+      </c>
+      <c r="E78" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79">
+        <v>3575</v>
+      </c>
+      <c r="B79" t="s">
+        <v>60</v>
+      </c>
+      <c r="C79">
+        <v>25</v>
+      </c>
+      <c r="D79">
+        <v>286</v>
+      </c>
+      <c r="E79" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80">
+        <v>3575</v>
+      </c>
+      <c r="B80" t="s">
+        <v>60</v>
+      </c>
+      <c r="C80">
+        <v>29</v>
+      </c>
+      <c r="D80">
+        <v>858</v>
+      </c>
+      <c r="E80" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81">
+        <v>3674</v>
+      </c>
+      <c r="B81" t="s">
+        <v>61</v>
+      </c>
+      <c r="C81">
+        <v>2</v>
+      </c>
+      <c r="D81">
+        <v>127.75</v>
+      </c>
+      <c r="E81" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82">
+        <v>3903</v>
+      </c>
+      <c r="B82" t="s">
+        <v>62</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>1782</v>
+      </c>
+      <c r="E82" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83">
+        <v>3903</v>
+      </c>
+      <c r="B83" t="s">
+        <v>62</v>
+      </c>
+      <c r="C83">
+        <v>14</v>
+      </c>
+      <c r="D83">
+        <v>148.5</v>
+      </c>
+      <c r="E83" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84">
+        <v>3985</v>
+      </c>
+      <c r="B84" t="s">
+        <v>63</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>1296</v>
+      </c>
+      <c r="E84" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85">
+        <v>3985</v>
+      </c>
+      <c r="B85" t="s">
+        <v>63</v>
+      </c>
+      <c r="C85">
+        <v>3</v>
+      </c>
+      <c r="D85">
+        <v>36</v>
+      </c>
+      <c r="E85" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86">
+        <v>4927</v>
+      </c>
+      <c r="B86" t="s">
+        <v>64</v>
+      </c>
+      <c r="C86">
+        <v>12</v>
+      </c>
+      <c r="D86">
+        <v>386.75</v>
+      </c>
+      <c r="E86" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87">
+        <v>4940</v>
+      </c>
+      <c r="B87" t="s">
+        <v>65</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>246.75</v>
+      </c>
+      <c r="E87" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88">
+        <v>5584</v>
+      </c>
+      <c r="B88" t="s">
+        <v>66</v>
+      </c>
+      <c r="C88">
+        <v>3</v>
+      </c>
+      <c r="D88">
+        <v>124</v>
+      </c>
+      <c r="E88" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89">
+        <v>5584</v>
+      </c>
+      <c r="B89" t="s">
+        <v>66</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89">
+        <v>1240</v>
+      </c>
+      <c r="E89" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90">
+        <v>5585</v>
+      </c>
+      <c r="B90" t="s">
+        <v>67</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>1110</v>
+      </c>
+      <c r="E90" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91">
+        <v>5585</v>
+      </c>
+      <c r="B91" t="s">
+        <v>67</v>
+      </c>
+      <c r="C91">
+        <v>3</v>
+      </c>
+      <c r="D91">
+        <v>111</v>
+      </c>
+      <c r="E91" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92">
+        <v>5646</v>
+      </c>
+      <c r="B92" t="s">
+        <v>68</v>
+      </c>
+      <c r="C92">
+        <v>2</v>
+      </c>
+      <c r="D92">
+        <v>530</v>
+      </c>
+      <c r="E92" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93">
+        <v>5736</v>
+      </c>
+      <c r="B93" t="s">
+        <v>69</v>
+      </c>
+      <c r="C93">
+        <v>2</v>
+      </c>
+      <c r="D93">
+        <v>583.75</v>
+      </c>
+      <c r="E93" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94">
+        <v>5849</v>
+      </c>
+      <c r="B94" t="s">
+        <v>70</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <v>186.75</v>
+      </c>
+      <c r="E94" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95">
+        <v>5851</v>
+      </c>
+      <c r="B95" t="s">
+        <v>71</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>183.75</v>
+      </c>
+      <c r="E95" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96">
+        <v>5852</v>
+      </c>
+      <c r="B96" t="s">
+        <v>72</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>185.25</v>
+      </c>
+      <c r="E96" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97">
+        <v>5868</v>
+      </c>
+      <c r="B97" t="s">
+        <v>73</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>136</v>
+      </c>
+      <c r="E97" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98">
+        <v>5976</v>
+      </c>
+      <c r="B98" t="s">
+        <v>74</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>196</v>
+      </c>
+      <c r="E98" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99">
+        <v>6628</v>
+      </c>
+      <c r="B99" t="s">
+        <v>75</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <v>1692</v>
+      </c>
+      <c r="E99" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100">
+        <v>6628</v>
+      </c>
+      <c r="B100" t="s">
+        <v>75</v>
+      </c>
+      <c r="C100">
+        <v>3</v>
+      </c>
+      <c r="D100">
+        <v>282</v>
+      </c>
+      <c r="E100" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101">
+        <v>6935</v>
+      </c>
+      <c r="B101" t="s">
+        <v>76</v>
+      </c>
+      <c r="C101">
+        <v>2</v>
+      </c>
+      <c r="D101">
+        <v>108</v>
+      </c>
+      <c r="E101" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102">
+        <v>6936</v>
+      </c>
+      <c r="B102" t="s">
+        <v>77</v>
+      </c>
+      <c r="C102">
+        <v>2</v>
+      </c>
+      <c r="D102">
+        <v>105.75</v>
+      </c>
+      <c r="E102" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103">
+        <v>6952</v>
+      </c>
+      <c r="B103" t="s">
+        <v>78</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>160</v>
+      </c>
+      <c r="E103" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104">
+        <v>7004</v>
+      </c>
+      <c r="B104" t="s">
+        <v>79</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104">
+        <v>377</v>
+      </c>
+      <c r="E104" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105">
+        <v>7005</v>
+      </c>
+      <c r="B105" t="s">
+        <v>80</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105">
+        <v>375</v>
+      </c>
+      <c r="E105" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106">
+        <v>7324</v>
+      </c>
+      <c r="B106" t="s">
+        <v>81</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106">
+        <v>453.5</v>
+      </c>
+      <c r="E106" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107">
+        <v>7457</v>
+      </c>
+      <c r="B107" t="s">
+        <v>82</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <v>795</v>
+      </c>
+      <c r="E107" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108">
+        <v>7457</v>
+      </c>
+      <c r="B108" t="s">
+        <v>82</v>
+      </c>
+      <c r="C108">
+        <v>3</v>
+      </c>
+      <c r="D108">
+        <v>132.5</v>
+      </c>
+      <c r="E108" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109">
+        <v>7573</v>
+      </c>
+      <c r="B109" t="s">
+        <v>83</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="D109">
+        <v>85.25</v>
+      </c>
+      <c r="E109" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110">
+        <v>7629</v>
+      </c>
+      <c r="B110" t="s">
+        <v>84</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110">
+        <v>360.5</v>
+      </c>
+      <c r="E110" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111">
+        <v>7703</v>
+      </c>
+      <c r="B111" t="s">
+        <v>85</v>
+      </c>
+      <c r="C111">
+        <v>2</v>
+      </c>
+      <c r="D111">
+        <v>165</v>
+      </c>
+      <c r="E111" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112">
+        <v>7705</v>
+      </c>
+      <c r="B112" t="s">
+        <v>86</v>
+      </c>
+      <c r="C112">
+        <v>2</v>
+      </c>
+      <c r="D112">
+        <v>166.5</v>
+      </c>
+      <c r="E112" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113">
+        <v>7706</v>
+      </c>
+      <c r="B113" t="s">
+        <v>87</v>
+      </c>
+      <c r="C113">
+        <v>2</v>
+      </c>
+      <c r="D113">
+        <v>166.75</v>
+      </c>
+      <c r="E113" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114">
+        <v>7885</v>
+      </c>
+      <c r="B114" t="s">
+        <v>88</v>
+      </c>
+      <c r="C114">
+        <v>4</v>
+      </c>
+      <c r="D114">
+        <v>208</v>
+      </c>
+      <c r="E114" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115">
+        <v>7885</v>
+      </c>
+      <c r="B115" t="s">
+        <v>88</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115">
+        <v>2496</v>
+      </c>
+      <c r="E115" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116">
+        <v>8188</v>
+      </c>
+      <c r="B116" t="s">
+        <v>89</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+      <c r="D116">
+        <v>990</v>
+      </c>
+      <c r="E116" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117">
+        <v>8188</v>
+      </c>
+      <c r="B117" t="s">
+        <v>89</v>
+      </c>
+      <c r="C117">
+        <v>10</v>
+      </c>
+      <c r="D117">
+        <v>41.25</v>
+      </c>
+      <c r="E117" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118">
+        <v>8216</v>
+      </c>
+      <c r="B118" t="s">
+        <v>90</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+      <c r="D118">
+        <v>330</v>
+      </c>
+      <c r="E118" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119">
+        <v>8216</v>
+      </c>
+      <c r="B119" t="s">
+        <v>90</v>
+      </c>
+      <c r="C119">
+        <v>10</v>
+      </c>
+      <c r="D119">
+        <v>13.75</v>
+      </c>
+      <c r="E119" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120">
+        <v>8356</v>
+      </c>
+      <c r="B120" t="s">
+        <v>91</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+      <c r="D120">
+        <v>367.5</v>
+      </c>
+      <c r="E120" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121">
+        <v>8635</v>
+      </c>
+      <c r="B121" t="s">
+        <v>92</v>
+      </c>
+      <c r="C121">
+        <v>3</v>
+      </c>
+      <c r="D121">
+        <v>86.5</v>
+      </c>
+      <c r="E121" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122">
+        <v>8635</v>
+      </c>
+      <c r="B122" t="s">
+        <v>92</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="D122">
+        <v>1730</v>
+      </c>
+      <c r="E122" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123">
+        <v>8648</v>
+      </c>
+      <c r="B123" t="s">
+        <v>93</v>
+      </c>
+      <c r="C123">
+        <v>2</v>
+      </c>
+      <c r="D123">
+        <v>141.25</v>
+      </c>
+      <c r="E123" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124">
+        <v>8673</v>
+      </c>
+      <c r="B124" t="s">
+        <v>94</v>
+      </c>
+      <c r="C124">
+        <v>2</v>
+      </c>
+      <c r="D124">
+        <v>105.5</v>
+      </c>
+      <c r="E124" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125">
+        <v>8897</v>
+      </c>
+      <c r="B125" t="s">
+        <v>95</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+      <c r="D125">
+        <v>1206</v>
+      </c>
+      <c r="E125" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126">
+        <v>8897</v>
+      </c>
+      <c r="B126" t="s">
+        <v>95</v>
+      </c>
+      <c r="C126">
+        <v>3</v>
+      </c>
+      <c r="D126">
+        <v>100.5</v>
+      </c>
+      <c r="E126" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127">
+        <v>8926</v>
+      </c>
+      <c r="B127" t="s">
+        <v>96</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="D127">
+        <v>483.5</v>
+      </c>
+      <c r="E127" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128">
+        <v>8944</v>
+      </c>
+      <c r="B128" t="s">
+        <v>97</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="D128">
+        <v>533</v>
+      </c>
+      <c r="E128" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129">
+        <v>8944</v>
+      </c>
+      <c r="B129" t="s">
+        <v>97</v>
+      </c>
+      <c r="C129">
+        <v>3</v>
+      </c>
+      <c r="D129">
+        <v>133.25</v>
+      </c>
+      <c r="E129" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130">
+        <v>8945</v>
+      </c>
+      <c r="B130" t="s">
+        <v>98</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+      <c r="D130">
+        <v>307.5</v>
+      </c>
+      <c r="E130" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131">
+        <v>8945</v>
+      </c>
+      <c r="B131" t="s">
+        <v>98</v>
+      </c>
+      <c r="C131">
+        <v>3</v>
+      </c>
+      <c r="D131">
+        <v>51.25</v>
+      </c>
+      <c r="E131" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132">
+        <v>9065</v>
+      </c>
+      <c r="B132" t="s">
+        <v>99</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+      <c r="D132">
+        <v>774</v>
+      </c>
+      <c r="E132" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133">
+        <v>9065</v>
+      </c>
+      <c r="B133" t="s">
+        <v>99</v>
+      </c>
+      <c r="C133">
+        <v>2</v>
+      </c>
+      <c r="D133">
+        <v>96.75</v>
+      </c>
+      <c r="E133" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134">
+        <v>9069</v>
+      </c>
+      <c r="B134" t="s">
+        <v>100</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+      <c r="D134">
+        <v>227.75</v>
+      </c>
+      <c r="E134" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135">
+        <v>9070</v>
+      </c>
+      <c r="B135" t="s">
+        <v>101</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+      <c r="D135">
+        <v>891.5</v>
+      </c>
+      <c r="E135" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136">
+        <v>9085</v>
+      </c>
+      <c r="B136" t="s">
+        <v>102</v>
+      </c>
+      <c r="C136">
+        <v>25</v>
+      </c>
+      <c r="D136">
+        <v>312.75</v>
+      </c>
+      <c r="E136" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137">
+        <v>9085</v>
+      </c>
+      <c r="B137" t="s">
+        <v>102</v>
+      </c>
+      <c r="C137">
+        <v>29</v>
+      </c>
+      <c r="D137">
+        <v>938.25</v>
+      </c>
+      <c r="E137" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138">
+        <v>9126</v>
+      </c>
+      <c r="B138" t="s">
+        <v>103</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+      <c r="D138">
+        <v>429</v>
+      </c>
+      <c r="E138" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139">
+        <v>9204</v>
+      </c>
+      <c r="B139" t="s">
+        <v>104</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+      <c r="D139">
+        <v>370</v>
+      </c>
+      <c r="E139" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140">
+        <v>9204</v>
+      </c>
+      <c r="B140" t="s">
+        <v>104</v>
+      </c>
+      <c r="C140">
+        <v>3</v>
+      </c>
+      <c r="D140">
+        <v>46.25</v>
+      </c>
+      <c r="E140" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141">
+        <v>9355</v>
+      </c>
+      <c r="B141" t="s">
+        <v>105</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+      <c r="D141">
+        <v>345.75</v>
+      </c>
+      <c r="E141" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142">
+        <v>9358</v>
+      </c>
+      <c r="B142" t="s">
+        <v>106</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+      <c r="D142">
+        <v>510</v>
+      </c>
+      <c r="E142" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143">
+        <v>9381</v>
+      </c>
+      <c r="B143" t="s">
+        <v>107</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+      <c r="D143">
+        <v>34.25</v>
+      </c>
+      <c r="E143" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144">
+        <v>9613</v>
+      </c>
+      <c r="B144" t="s">
+        <v>108</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
+      </c>
+      <c r="D144">
+        <v>458.75</v>
+      </c>
+      <c r="E144" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145">
+        <v>9760</v>
+      </c>
+      <c r="B145" t="s">
+        <v>109</v>
+      </c>
+      <c r="C145">
+        <v>29</v>
+      </c>
+      <c r="D145">
+        <v>419</v>
+      </c>
+      <c r="E145" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146">
+        <v>9785</v>
+      </c>
+      <c r="B146" t="s">
+        <v>110</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+      <c r="D146">
+        <v>383</v>
+      </c>
+      <c r="E146" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147">
+        <v>9796</v>
+      </c>
+      <c r="B147" t="s">
+        <v>111</v>
+      </c>
+      <c r="C147">
+        <v>3</v>
+      </c>
+      <c r="D147">
+        <v>31</v>
+      </c>
+      <c r="E147" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148">
+        <v>9796</v>
+      </c>
+      <c r="B148" t="s">
+        <v>111</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+      <c r="D148">
+        <v>1488</v>
+      </c>
+      <c r="E148" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149">
+        <v>9922</v>
+      </c>
+      <c r="B149" t="s">
+        <v>112</v>
+      </c>
+      <c r="C149">
+        <v>11</v>
+      </c>
+      <c r="D149">
+        <v>21</v>
+      </c>
+      <c r="E149" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150">
+        <v>9922</v>
+      </c>
+      <c r="B150" t="s">
+        <v>112</v>
+      </c>
+      <c r="C150">
+        <v>2</v>
+      </c>
+      <c r="D150">
+        <v>504</v>
+      </c>
+      <c r="E150" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151">
+        <v>10093</v>
+      </c>
+      <c r="B151" t="s">
+        <v>113</v>
+      </c>
+      <c r="C151">
+        <v>3</v>
+      </c>
+      <c r="D151">
+        <v>35.5</v>
+      </c>
+      <c r="E151" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152">
+        <v>10093</v>
+      </c>
+      <c r="B152" t="s">
+        <v>113</v>
+      </c>
+      <c r="C152">
+        <v>1</v>
+      </c>
+      <c r="D152">
+        <v>2130</v>
+      </c>
+      <c r="E152" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153">
+        <v>10149</v>
+      </c>
+      <c r="B153" t="s">
+        <v>114</v>
+      </c>
+      <c r="C153">
+        <v>1</v>
+      </c>
+      <c r="D153">
+        <v>1340</v>
+      </c>
+      <c r="E153" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154">
+        <v>10149</v>
+      </c>
+      <c r="B154" t="s">
+        <v>114</v>
+      </c>
+      <c r="C154">
+        <v>3</v>
+      </c>
+      <c r="D154">
+        <v>33.5</v>
+      </c>
+      <c r="E154" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155">
+        <v>10174</v>
+      </c>
+      <c r="B155" t="s">
+        <v>115</v>
+      </c>
+      <c r="C155">
+        <v>1</v>
+      </c>
+      <c r="D155">
+        <v>745.5</v>
+      </c>
+      <c r="E155" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156">
+        <v>10413</v>
+      </c>
+      <c r="B156" t="s">
+        <v>116</v>
+      </c>
+      <c r="C156">
+        <v>10</v>
+      </c>
+      <c r="D156">
+        <v>28.5</v>
+      </c>
+      <c r="E156" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157">
+        <v>10413</v>
+      </c>
+      <c r="B157" t="s">
+        <v>116</v>
+      </c>
+      <c r="C157">
+        <v>1</v>
+      </c>
+      <c r="D157">
+        <v>342</v>
+      </c>
+      <c r="E157" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158">
+        <v>10414</v>
+      </c>
+      <c r="B158" t="s">
+        <v>117</v>
+      </c>
+      <c r="C158">
+        <v>10</v>
+      </c>
+      <c r="D158">
+        <v>41.25</v>
+      </c>
+      <c r="E158" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159">
+        <v>10414</v>
+      </c>
+      <c r="B159" t="s">
+        <v>117</v>
+      </c>
+      <c r="C159">
+        <v>1</v>
+      </c>
+      <c r="D159">
+        <v>495</v>
+      </c>
+      <c r="E159" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160">
+        <v>10521</v>
+      </c>
+      <c r="B160" t="s">
+        <v>118</v>
+      </c>
+      <c r="C160">
+        <v>1</v>
+      </c>
+      <c r="D160">
+        <v>588</v>
+      </c>
+      <c r="E160" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161">
+        <v>10521</v>
+      </c>
+      <c r="B161" t="s">
+        <v>118</v>
+      </c>
+      <c r="C161">
+        <v>3</v>
+      </c>
+      <c r="D161">
+        <v>49</v>
+      </c>
+      <c r="E161" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162">
+        <v>10580</v>
+      </c>
+      <c r="B162" t="s">
+        <v>119</v>
+      </c>
+      <c r="C162">
+        <v>3</v>
+      </c>
+      <c r="D162">
+        <v>139.75</v>
+      </c>
+      <c r="E162" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163">
+        <v>10580</v>
+      </c>
+      <c r="B163" t="s">
+        <v>119</v>
+      </c>
+      <c r="C163">
+        <v>1</v>
+      </c>
+      <c r="D163">
+        <v>1677</v>
+      </c>
+      <c r="E163" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164">
+        <v>10581</v>
+      </c>
+      <c r="B164" t="s">
+        <v>120</v>
+      </c>
+      <c r="C164">
+        <v>1</v>
+      </c>
+      <c r="D164">
+        <v>1749</v>
+      </c>
+      <c r="E164" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165">
+        <v>10581</v>
+      </c>
+      <c r="B165" t="s">
+        <v>120</v>
+      </c>
+      <c r="C165">
+        <v>3</v>
+      </c>
+      <c r="D165">
+        <v>145.75</v>
+      </c>
+      <c r="E165" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166">
+        <v>10594</v>
+      </c>
+      <c r="B166" t="s">
+        <v>121</v>
+      </c>
+      <c r="C166">
+        <v>3</v>
+      </c>
+      <c r="D166">
+        <v>212.25</v>
+      </c>
+      <c r="E166" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167">
+        <v>10594</v>
+      </c>
+      <c r="B167" t="s">
+        <v>121</v>
+      </c>
+      <c r="C167">
+        <v>1</v>
+      </c>
+      <c r="D167">
+        <v>2547</v>
+      </c>
+      <c r="E167" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168">
+        <v>10609</v>
+      </c>
+      <c r="B168" t="s">
+        <v>122</v>
+      </c>
+      <c r="C168">
+        <v>1</v>
+      </c>
+      <c r="D168">
+        <v>105</v>
+      </c>
+      <c r="E168" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169">
+        <v>10716</v>
+      </c>
+      <c r="B169" t="s">
+        <v>123</v>
+      </c>
+      <c r="C169">
+        <v>3</v>
+      </c>
+      <c r="D169">
+        <v>300.75</v>
+      </c>
+      <c r="E169" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170">
+        <v>10716</v>
+      </c>
+      <c r="B170" t="s">
+        <v>123</v>
+      </c>
+      <c r="C170">
+        <v>1</v>
+      </c>
+      <c r="D170">
+        <v>2406</v>
+      </c>
+      <c r="E170" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171">
+        <v>10897</v>
+      </c>
+      <c r="B171" t="s">
+        <v>124</v>
+      </c>
+      <c r="C171">
+        <v>1</v>
+      </c>
+      <c r="D171">
+        <v>85.25</v>
+      </c>
+      <c r="E171" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172">
+        <v>11089</v>
+      </c>
+      <c r="B172" t="s">
+        <v>125</v>
+      </c>
+      <c r="C172">
+        <v>1</v>
+      </c>
+      <c r="D172">
+        <v>174.75</v>
+      </c>
+      <c r="E172" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173">
+        <v>11158</v>
+      </c>
+      <c r="B173" t="s">
+        <v>126</v>
+      </c>
+      <c r="C173">
+        <v>1</v>
+      </c>
+      <c r="D173">
+        <v>63.5</v>
+      </c>
+      <c r="E173" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174">
+        <v>11161</v>
+      </c>
+      <c r="B174" t="s">
+        <v>127</v>
+      </c>
+      <c r="C174">
+        <v>1</v>
+      </c>
+      <c r="D174">
+        <v>62</v>
+      </c>
+      <c r="E174" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175">
+        <v>11212</v>
+      </c>
+      <c r="B175" t="s">
+        <v>128</v>
+      </c>
+      <c r="C175">
+        <v>1</v>
+      </c>
+      <c r="D175">
+        <v>1440</v>
+      </c>
+      <c r="E175" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176">
+        <v>11212</v>
+      </c>
+      <c r="B176" t="s">
+        <v>128</v>
+      </c>
+      <c r="C176">
+        <v>4</v>
+      </c>
+      <c r="D176">
+        <v>120</v>
+      </c>
+      <c r="E176" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177">
+        <v>11402</v>
+      </c>
+      <c r="B177" t="s">
+        <v>129</v>
+      </c>
+      <c r="C177">
+        <v>1</v>
+      </c>
+      <c r="D177">
+        <v>654</v>
+      </c>
+      <c r="E177" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178">
+        <v>11404</v>
+      </c>
+      <c r="B178" t="s">
+        <v>130</v>
+      </c>
+      <c r="C178">
+        <v>2</v>
+      </c>
+      <c r="D178">
+        <v>262.5</v>
+      </c>
+      <c r="E178" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179">
+        <v>11485</v>
+      </c>
+      <c r="B179" t="s">
+        <v>131</v>
+      </c>
+      <c r="C179">
+        <v>24</v>
+      </c>
+      <c r="D179">
+        <v>140</v>
+      </c>
+      <c r="E179" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180">
+        <v>11485</v>
+      </c>
+      <c r="B180" t="s">
+        <v>131</v>
+      </c>
+      <c r="C180">
+        <v>1</v>
+      </c>
+      <c r="D180">
+        <v>1120</v>
+      </c>
+      <c r="E180" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181">
+        <v>11504</v>
+      </c>
+      <c r="B181" t="s">
+        <v>132</v>
+      </c>
+      <c r="C181">
+        <v>2</v>
+      </c>
+      <c r="D181">
+        <v>209.5</v>
+      </c>
+      <c r="E181" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182">
+        <v>11586</v>
+      </c>
+      <c r="B182" t="s">
+        <v>133</v>
+      </c>
+      <c r="C182">
+        <v>1</v>
+      </c>
+      <c r="D182">
+        <v>75.75</v>
+      </c>
+      <c r="E182" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183">
+        <v>11681</v>
+      </c>
+      <c r="B183" t="s">
+        <v>134</v>
+      </c>
+      <c r="C183">
+        <v>2</v>
+      </c>
+      <c r="D183">
+        <v>109</v>
+      </c>
+      <c r="E183" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184">
+        <v>11767</v>
+      </c>
+      <c r="B184" t="s">
+        <v>135</v>
+      </c>
+      <c r="C184">
+        <v>1</v>
+      </c>
+      <c r="D184">
+        <v>182.5</v>
+      </c>
+      <c r="E184" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185">
+        <v>11835</v>
+      </c>
+      <c r="B185" t="s">
+        <v>136</v>
+      </c>
+      <c r="C185">
+        <v>2</v>
+      </c>
+      <c r="D185">
+        <v>122</v>
+      </c>
+      <c r="E185" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186">
+        <v>11848</v>
+      </c>
+      <c r="B186" t="s">
+        <v>137</v>
+      </c>
+      <c r="C186">
+        <v>1</v>
+      </c>
+      <c r="D186">
+        <v>200.25</v>
+      </c>
+      <c r="E186" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187">
+        <v>11891</v>
+      </c>
+      <c r="B187" t="s">
+        <v>138</v>
+      </c>
+      <c r="C187">
+        <v>3</v>
+      </c>
+      <c r="D187">
+        <v>66.5</v>
+      </c>
+      <c r="E187" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188">
+        <v>11891</v>
+      </c>
+      <c r="B188" t="s">
+        <v>138</v>
+      </c>
+      <c r="C188">
+        <v>1</v>
+      </c>
+      <c r="D188">
+        <v>798</v>
+      </c>
+      <c r="E188" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189">
+        <v>11894</v>
+      </c>
+      <c r="B189" t="s">
+        <v>139</v>
+      </c>
+      <c r="C189">
+        <v>2</v>
+      </c>
+      <c r="D189">
+        <v>229.5</v>
+      </c>
+      <c r="E189" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190">
+        <v>11965</v>
+      </c>
+      <c r="B190" t="s">
+        <v>140</v>
+      </c>
+      <c r="C190">
+        <v>1</v>
+      </c>
+      <c r="D190">
+        <v>685</v>
+      </c>
+      <c r="E190" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191">
+        <v>11967</v>
+      </c>
+      <c r="B191" t="s">
+        <v>141</v>
+      </c>
+      <c r="C191">
+        <v>1</v>
+      </c>
+      <c r="D191">
+        <v>230</v>
+      </c>
+      <c r="E191" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192">
+        <v>12033</v>
+      </c>
+      <c r="B192" t="s">
+        <v>142</v>
+      </c>
+      <c r="C192">
+        <v>2</v>
+      </c>
+      <c r="D192">
+        <v>98</v>
+      </c>
+      <c r="E192" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193">
+        <v>12229</v>
+      </c>
+      <c r="B193" t="s">
+        <v>143</v>
+      </c>
+      <c r="C193">
+        <v>2</v>
+      </c>
+      <c r="D193">
+        <v>192.5</v>
+      </c>
+      <c r="E193" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194">
+        <v>12494</v>
+      </c>
+      <c r="B194" t="s">
+        <v>144</v>
+      </c>
+      <c r="C194">
+        <v>3</v>
+      </c>
+      <c r="D194">
+        <v>245.25</v>
+      </c>
+      <c r="E194" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195">
+        <v>12494</v>
+      </c>
+      <c r="B195" t="s">
+        <v>144</v>
+      </c>
+      <c r="C195">
+        <v>1</v>
+      </c>
+      <c r="D195">
+        <v>1471.5</v>
+      </c>
+      <c r="E195" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196">
+        <v>12497</v>
+      </c>
+      <c r="B196" t="s">
+        <v>145</v>
+      </c>
+      <c r="C196">
+        <v>1</v>
+      </c>
+      <c r="D196">
+        <v>492.5</v>
+      </c>
+      <c r="E196" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197">
+        <v>12497</v>
+      </c>
+      <c r="B197" t="s">
+        <v>145</v>
+      </c>
+      <c r="C197">
+        <v>3</v>
+      </c>
+      <c r="D197">
+        <v>49.25</v>
+      </c>
+      <c r="E197" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198">
+        <v>12516</v>
+      </c>
+      <c r="B198" t="s">
+        <v>146</v>
+      </c>
+      <c r="C198">
+        <v>2</v>
+      </c>
+      <c r="D198">
+        <v>50.5</v>
+      </c>
+      <c r="E198" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199">
+        <v>12538</v>
+      </c>
+      <c r="B199" t="s">
+        <v>147</v>
+      </c>
+      <c r="C199">
+        <v>3</v>
+      </c>
+      <c r="D199">
+        <v>66.75</v>
+      </c>
+      <c r="E199" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200">
+        <v>12538</v>
+      </c>
+      <c r="B200" t="s">
+        <v>147</v>
+      </c>
+      <c r="C200">
+        <v>1</v>
+      </c>
+      <c r="D200">
+        <v>6408</v>
+      </c>
+      <c r="E200" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201">
+        <v>12577</v>
+      </c>
+      <c r="B201" t="s">
+        <v>148</v>
+      </c>
+      <c r="C201">
+        <v>1</v>
+      </c>
+      <c r="D201">
+        <v>606</v>
+      </c>
+      <c r="E201" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202">
+        <v>12577</v>
+      </c>
+      <c r="B202" t="s">
+        <v>148</v>
+      </c>
+      <c r="C202">
+        <v>3</v>
+      </c>
+      <c r="D202">
+        <v>50.5</v>
+      </c>
+      <c r="E202" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203">
+        <v>12653</v>
+      </c>
+      <c r="B203" t="s">
+        <v>149</v>
+      </c>
+      <c r="C203">
+        <v>1</v>
+      </c>
+      <c r="D203">
+        <v>134.75</v>
+      </c>
+      <c r="E203" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204">
+        <v>12654</v>
+      </c>
+      <c r="B204" t="s">
+        <v>150</v>
+      </c>
+      <c r="C204">
+        <v>1</v>
+      </c>
+      <c r="D204">
+        <v>355.75</v>
+      </c>
+      <c r="E204" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205">
+        <v>12658</v>
+      </c>
+      <c r="B205" t="s">
+        <v>151</v>
+      </c>
+      <c r="C205">
+        <v>1</v>
+      </c>
+      <c r="D205">
+        <v>345</v>
+      </c>
+      <c r="E205" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206">
+        <v>12720</v>
+      </c>
+      <c r="B206" t="s">
+        <v>152</v>
+      </c>
+      <c r="C206">
+        <v>2</v>
+      </c>
+      <c r="D206">
+        <v>102.25</v>
+      </c>
+      <c r="E206" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207">
+        <v>12791</v>
+      </c>
+      <c r="B207" t="s">
+        <v>153</v>
+      </c>
+      <c r="C207">
+        <v>1</v>
+      </c>
+      <c r="D207">
+        <v>435</v>
+      </c>
+      <c r="E207" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208">
+        <v>12791</v>
+      </c>
+      <c r="B208" t="s">
+        <v>153</v>
+      </c>
+      <c r="C208">
+        <v>2</v>
+      </c>
+      <c r="D208">
+        <v>36.25</v>
+      </c>
+      <c r="E208" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209">
+        <v>12870</v>
+      </c>
+      <c r="B209" t="s">
+        <v>154</v>
+      </c>
+      <c r="C209">
+        <v>1</v>
+      </c>
+      <c r="D209">
+        <v>210</v>
+      </c>
+      <c r="E209" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210">
+        <v>12871</v>
+      </c>
+      <c r="B210" t="s">
+        <v>155</v>
+      </c>
+      <c r="C210">
+        <v>1</v>
+      </c>
+      <c r="D210">
+        <v>52.5</v>
+      </c>
+      <c r="E210" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211">
+        <v>12923</v>
+      </c>
+      <c r="B211" t="s">
+        <v>156</v>
+      </c>
+      <c r="C211">
+        <v>1</v>
+      </c>
+      <c r="D211">
+        <v>774.5</v>
+      </c>
+      <c r="E211" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212">
+        <v>12925</v>
+      </c>
+      <c r="B212" t="s">
+        <v>157</v>
+      </c>
+      <c r="C212">
+        <v>1</v>
+      </c>
+      <c r="D212">
+        <v>483</v>
+      </c>
+      <c r="E212" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213">
+        <v>13028</v>
+      </c>
+      <c r="B213" t="s">
+        <v>158</v>
+      </c>
+      <c r="C213">
+        <v>3</v>
+      </c>
+      <c r="D213">
+        <v>208</v>
+      </c>
+      <c r="E213" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214">
+        <v>13198</v>
+      </c>
+      <c r="B214" t="s">
+        <v>159</v>
+      </c>
+      <c r="C214">
+        <v>29</v>
+      </c>
+      <c r="D214">
+        <v>463.75</v>
+      </c>
+      <c r="E214" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215">
+        <v>13268</v>
+      </c>
+      <c r="B215" t="s">
+        <v>160</v>
+      </c>
+      <c r="C215">
+        <v>29</v>
+      </c>
+      <c r="D215">
+        <v>173</v>
+      </c>
+      <c r="E215" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216">
+        <v>13485</v>
+      </c>
+      <c r="B216" t="s">
+        <v>161</v>
+      </c>
+      <c r="C216">
+        <v>1</v>
+      </c>
+      <c r="D216">
+        <v>242</v>
+      </c>
+      <c r="E216" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217">
+        <v>13486</v>
+      </c>
+      <c r="B217" t="s">
+        <v>162</v>
+      </c>
+      <c r="C217">
+        <v>1</v>
+      </c>
+      <c r="D217">
+        <v>237</v>
+      </c>
+      <c r="E217" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218">
+        <v>13487</v>
+      </c>
+      <c r="B218" t="s">
+        <v>163</v>
+      </c>
+      <c r="C218">
+        <v>1</v>
+      </c>
+      <c r="D218">
+        <v>235.25</v>
+      </c>
+      <c r="E218" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219">
+        <v>13488</v>
+      </c>
+      <c r="B219" t="s">
+        <v>164</v>
+      </c>
+      <c r="C219">
+        <v>1</v>
+      </c>
+      <c r="D219">
+        <v>236</v>
+      </c>
+      <c r="E219" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220">
+        <v>13489</v>
+      </c>
+      <c r="B220" t="s">
+        <v>165</v>
+      </c>
+      <c r="C220">
+        <v>1</v>
+      </c>
+      <c r="D220">
+        <v>241.25</v>
+      </c>
+      <c r="E220" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221">
+        <v>13967</v>
+      </c>
+      <c r="B221" t="s">
+        <v>166</v>
+      </c>
+      <c r="C221">
+        <v>1</v>
+      </c>
+      <c r="D221">
+        <v>297.5</v>
+      </c>
+      <c r="E221" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222">
+        <v>19047</v>
+      </c>
+      <c r="B222" t="s">
+        <v>167</v>
+      </c>
+      <c r="C222">
+        <v>1</v>
+      </c>
+      <c r="D222">
+        <v>1209</v>
+      </c>
+      <c r="E222" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223">
+        <v>19047</v>
+      </c>
+      <c r="B223" t="s">
+        <v>167</v>
+      </c>
+      <c r="C223">
+        <v>3</v>
+      </c>
+      <c r="D223">
+        <v>100.75</v>
+      </c>
+      <c r="E223" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224">
+        <v>19685</v>
+      </c>
+      <c r="B224" t="s">
+        <v>168</v>
+      </c>
+      <c r="C224">
+        <v>1</v>
+      </c>
+      <c r="D224">
+        <v>840.75</v>
+      </c>
+      <c r="E224" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225">
+        <v>19932</v>
+      </c>
+      <c r="B225" t="s">
+        <v>169</v>
+      </c>
+      <c r="C225">
+        <v>1</v>
+      </c>
+      <c r="D225">
+        <v>69.25</v>
+      </c>
+      <c r="E225" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226">
+        <v>20680</v>
+      </c>
+      <c r="B226" t="s">
+        <v>170</v>
+      </c>
+      <c r="C226">
+        <v>1</v>
+      </c>
+      <c r="D226">
+        <v>46.5</v>
+      </c>
+      <c r="E226" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227">
+        <v>20682</v>
+      </c>
+      <c r="B227" t="s">
+        <v>171</v>
+      </c>
+      <c r="C227">
+        <v>1</v>
+      </c>
+      <c r="D227">
+        <v>47.5</v>
+      </c>
+      <c r="E227" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228">
+        <v>21480</v>
+      </c>
+      <c r="B228" t="s">
+        <v>172</v>
+      </c>
+      <c r="C228">
+        <v>1</v>
+      </c>
+      <c r="D228">
+        <v>480</v>
+      </c>
+      <c r="E228" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229">
+        <v>21480</v>
+      </c>
+      <c r="B229" t="s">
+        <v>172</v>
+      </c>
+      <c r="C229">
+        <v>7</v>
+      </c>
+      <c r="D229">
+        <v>40</v>
+      </c>
+      <c r="E229" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230">
+        <v>21701</v>
+      </c>
+      <c r="B230" t="s">
+        <v>173</v>
+      </c>
+      <c r="C230">
+        <v>3</v>
+      </c>
+      <c r="D230">
+        <v>95.75</v>
+      </c>
+      <c r="E230" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231">
+        <v>21701</v>
+      </c>
+      <c r="B231" t="s">
+        <v>173</v>
+      </c>
+      <c r="C231">
+        <v>1</v>
+      </c>
+      <c r="D231">
+        <v>1149</v>
+      </c>
+      <c r="E231" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232">
+        <v>21706</v>
+      </c>
+      <c r="B232" t="s">
+        <v>174</v>
+      </c>
+      <c r="C232">
+        <v>1</v>
+      </c>
+      <c r="D232">
+        <v>927</v>
+      </c>
+      <c r="E232" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233">
+        <v>21706</v>
+      </c>
+      <c r="B233" t="s">
+        <v>174</v>
+      </c>
+      <c r="C233">
+        <v>3</v>
+      </c>
+      <c r="D233">
+        <v>25.75</v>
+      </c>
+      <c r="E233" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234">
+        <v>21806</v>
+      </c>
+      <c r="B234" t="s">
+        <v>175</v>
+      </c>
+      <c r="C234">
+        <v>1</v>
+      </c>
+      <c r="D234">
+        <v>289.75</v>
+      </c>
+      <c r="E234" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235">
+        <v>21946</v>
+      </c>
+      <c r="B235" t="s">
+        <v>176</v>
+      </c>
+      <c r="C235">
+        <v>1</v>
+      </c>
+      <c r="D235">
+        <v>434</v>
+      </c>
+      <c r="E235" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236">
+        <v>22361</v>
+      </c>
+      <c r="B236" t="s">
+        <v>177</v>
+      </c>
+      <c r="C236">
+        <v>1</v>
+      </c>
+      <c r="D236">
+        <v>806</v>
+      </c>
+      <c r="E236" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237">
+        <v>22586</v>
+      </c>
+      <c r="B237" t="s">
+        <v>178</v>
+      </c>
+      <c r="C237">
+        <v>1</v>
+      </c>
+      <c r="D237">
+        <v>657</v>
+      </c>
+      <c r="E237" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238">
+        <v>22586</v>
+      </c>
+      <c r="B238" t="s">
+        <v>178</v>
+      </c>
+      <c r="C238">
+        <v>3</v>
+      </c>
+      <c r="D238">
+        <v>54.75</v>
+      </c>
+      <c r="E238" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239">
+        <v>22590</v>
+      </c>
+      <c r="B239" t="s">
+        <v>179</v>
+      </c>
+      <c r="C239">
+        <v>1</v>
+      </c>
+      <c r="D239">
+        <v>106.25</v>
+      </c>
+      <c r="E239" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240">
+        <v>23233</v>
+      </c>
+      <c r="B240" t="s">
+        <v>180</v>
+      </c>
+      <c r="C240">
+        <v>29</v>
+      </c>
+      <c r="D240">
+        <v>963.75</v>
+      </c>
+      <c r="E240" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241">
+        <v>23233</v>
+      </c>
+      <c r="B241" t="s">
+        <v>180</v>
+      </c>
+      <c r="C241">
+        <v>25</v>
+      </c>
+      <c r="D241">
+        <v>321.25</v>
+      </c>
+      <c r="E241" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242">
+        <v>23247</v>
+      </c>
+      <c r="B242" t="s">
+        <v>181</v>
+      </c>
+      <c r="C242">
+        <v>29</v>
+      </c>
+      <c r="D242">
+        <v>574</v>
+      </c>
+      <c r="E242" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243">
+        <v>23247</v>
+      </c>
+      <c r="B243" t="s">
+        <v>181</v>
+      </c>
+      <c r="C243">
+        <v>25</v>
+      </c>
+      <c r="D243">
+        <v>287</v>
+      </c>
+      <c r="E243" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244">
+        <v>23660</v>
+      </c>
+      <c r="B244" t="s">
+        <v>182</v>
+      </c>
+      <c r="C244">
+        <v>2</v>
+      </c>
+      <c r="D244">
+        <v>277</v>
+      </c>
+      <c r="E244" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245">
+        <v>23661</v>
+      </c>
+      <c r="B245" t="s">
+        <v>183</v>
+      </c>
+      <c r="C245">
+        <v>2</v>
+      </c>
+      <c r="D245">
+        <v>249.75</v>
+      </c>
+      <c r="E245" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246">
+        <v>23662</v>
+      </c>
+      <c r="B246" t="s">
+        <v>184</v>
+      </c>
+      <c r="C246">
+        <v>2</v>
+      </c>
+      <c r="D246">
+        <v>250.75</v>
+      </c>
+      <c r="E246" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247">
+        <v>23920</v>
+      </c>
+      <c r="B247" t="s">
+        <v>185</v>
+      </c>
+      <c r="C247">
+        <v>2</v>
+      </c>
+      <c r="D247">
+        <v>257.25</v>
+      </c>
+      <c r="E247" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248">
+        <v>23962</v>
+      </c>
+      <c r="B248" t="s">
+        <v>186</v>
+      </c>
+      <c r="C248">
+        <v>3</v>
+      </c>
+      <c r="D248">
+        <v>92.5</v>
+      </c>
+      <c r="E248" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249">
+        <v>23962</v>
+      </c>
+      <c r="B249" t="s">
+        <v>186</v>
+      </c>
+      <c r="C249">
+        <v>1</v>
+      </c>
+      <c r="D249">
+        <v>370</v>
+      </c>
+      <c r="E249" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250">
+        <v>23994</v>
+      </c>
+      <c r="B250" t="s">
+        <v>187</v>
+      </c>
+      <c r="C250">
+        <v>29</v>
+      </c>
+      <c r="D250">
+        <v>754.5</v>
+      </c>
+      <c r="E250" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251">
+        <v>23994</v>
+      </c>
+      <c r="B251" t="s">
+        <v>187</v>
+      </c>
+      <c r="C251">
+        <v>25</v>
+      </c>
+      <c r="D251">
+        <v>377.25</v>
+      </c>
+      <c r="E251" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252">
+        <v>24126</v>
+      </c>
+      <c r="B252" t="s">
+        <v>188</v>
+      </c>
+      <c r="C252">
+        <v>1</v>
+      </c>
+      <c r="D252">
+        <v>1172.5</v>
+      </c>
+      <c r="E252" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253">
+        <v>24126</v>
+      </c>
+      <c r="B253" t="s">
+        <v>188</v>
+      </c>
+      <c r="C253">
+        <v>3</v>
+      </c>
+      <c r="D253">
+        <v>117.25</v>
+      </c>
+      <c r="E253" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254">
+        <v>24127</v>
+      </c>
+      <c r="B254" t="s">
+        <v>189</v>
+      </c>
+      <c r="C254">
+        <v>1</v>
+      </c>
+      <c r="D254">
+        <v>1295</v>
+      </c>
+      <c r="E254" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255">
+        <v>24127</v>
+      </c>
+      <c r="B255" t="s">
+        <v>189</v>
+      </c>
+      <c r="C255">
+        <v>3</v>
+      </c>
+      <c r="D255">
+        <v>129.5</v>
+      </c>
+      <c r="E255" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256">
+        <v>25278</v>
+      </c>
+      <c r="B256" t="s">
+        <v>190</v>
+      </c>
+      <c r="C256">
+        <v>2</v>
+      </c>
+      <c r="D256">
+        <v>111.25</v>
+      </c>
+      <c r="E256" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/manual/output_1123_chunk_1.xlsx
+++ b/Pricing Logic/modules/manual/output_1123_chunk_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="211">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,10 +37,616 @@
     <t>Tags</t>
   </si>
   <si>
+    <t>زيت كريستال الممتاز خليط - 1 لتر</t>
+  </si>
+  <si>
+    <t>سمن كريستال اصفر ظرف - 350 جم</t>
+  </si>
+  <si>
+    <t>كوفى ميكس بونجورنو ظرف - 12 جم</t>
+  </si>
+  <si>
+    <t>شاى ليبتون - 25 فتلة</t>
+  </si>
+  <si>
+    <t>فجيتار كنور عادى - 35 جم</t>
+  </si>
+  <si>
+    <t>كنور فيجيتار حار - 35 جم</t>
+  </si>
+  <si>
+    <t>لبن بخيره - 500 مل</t>
+  </si>
+  <si>
+    <t>عصير بيتى برتقال - 235 مل</t>
+  </si>
+  <si>
+    <t>بن عبد المعبود محوج غامق - 100 جم</t>
+  </si>
+  <si>
+    <t>لبن جهينة كامل الدسم - 1 لتر</t>
+  </si>
+  <si>
+    <t>عصير بيتى اناناس - 235 مل</t>
+  </si>
+  <si>
+    <t>راني عصير فراولة وموز حبيبات- 235 مل</t>
+  </si>
+  <si>
+    <t>صلصة هارفست ظرف - 30 جم</t>
+  </si>
+  <si>
+    <t>لبن جهينة كامل الدسم - 200 مل</t>
+  </si>
+  <si>
+    <t>لبن جهينة مكس موز - 200 مل</t>
+  </si>
+  <si>
+    <t>عصير جهينة تفاح - 1 لتر</t>
+  </si>
+  <si>
+    <t>عصير جهينة برتقال - 1 لتر</t>
+  </si>
+  <si>
+    <t>امريكانا بيفي بلوبيف - 340 جم</t>
+  </si>
+  <si>
+    <t>بيبسى كانز جيب - 240 مل</t>
+  </si>
+  <si>
+    <t>كنور خلطة بشاميل- 70 جم</t>
+  </si>
+  <si>
+    <t>زيت قلية خليط - 1 لتر</t>
+  </si>
+  <si>
+    <t>فاين فودز مرقة خضار 12 مكعب - 108 جم</t>
+  </si>
+  <si>
+    <t>عصير جهينة عنب احمر - 235 مل</t>
+  </si>
+  <si>
+    <t>زيت قلية خليط - 700 مل</t>
+  </si>
+  <si>
+    <t>تونة دولفين قطعة واحدة بارد - 200 جم</t>
+  </si>
+  <si>
+    <t>لبن المراعى كامل دسم بلاستيك - 1 لتر</t>
+  </si>
+  <si>
+    <t>المراعي لبن موز (وفر جنية)- 200 مل</t>
+  </si>
+  <si>
+    <t>بيبسى مينى تربو - 250 مل</t>
+  </si>
+  <si>
+    <t>مربى الرشيدى الميزان فراولة - 340 جم</t>
+  </si>
+  <si>
+    <t>صابون لوكس حلم السعادة - 75 جم</t>
+  </si>
+  <si>
+    <t>ستينج فراولة زجاج - 275 مل</t>
+  </si>
+  <si>
+    <t>ارز حبوبة عريض الحبة - 1 كجم</t>
+  </si>
+  <si>
+    <t>برسيل اوتوماتيك لافندر - 2.5 ك + جل بلاك هدية - 900 مل</t>
+  </si>
+  <si>
+    <t>فيبا سائل أطباق ليمون أصفر- 4 كجم</t>
+  </si>
+  <si>
+    <t>سفن اب - 2.43 لتر</t>
+  </si>
+  <si>
+    <t>كوكا كولا - 1.45 لتر</t>
+  </si>
+  <si>
+    <t>اوكسي سائل أطباق ليمون اخضر- 600 جم</t>
+  </si>
+  <si>
+    <t>فيبا سائل أطباق تفاح- 3 كجم</t>
+  </si>
+  <si>
+    <t>سائل اطباق وفير بلس ليمون اخضر - 4 كجم</t>
+  </si>
+  <si>
+    <t>فاين فودز مرقة خضار 8 مكعب- 72 جم</t>
+  </si>
+  <si>
+    <t>كابتشينو كوفى بريك بندق 8 ظرف - 18.5 جم</t>
+  </si>
+  <si>
+    <t>كابتشينو كوفى بريك كلاسيك 8 ظرف - 18.5 جم</t>
+  </si>
+  <si>
+    <t>البوادى حلاوة سادة عائلى- 760 جم</t>
+  </si>
+  <si>
+    <t>صانسيلك اكياس شامبو للشعر الاسود- 240 كيس 7 مل</t>
+  </si>
+  <si>
+    <t>شوكولاته مورو نوجا بالكراميل مغطاه بشكولاتة -حجم اكبر - 40 جرام</t>
+  </si>
+  <si>
+    <t>حفاضات جود كير مقاس 3 - 40 حفاضة</t>
+  </si>
+  <si>
+    <t>شوكولاتة كادبورى بابلى - 24 جم</t>
+  </si>
+  <si>
+    <t>مسحوق غسيل فل ازرق يدوى - 9 كجم</t>
+  </si>
+  <si>
+    <t>فيبا سائل اطباق ليمون اصفر- 2 كجم</t>
+  </si>
+  <si>
+    <t>حفاضات بى بم مقاس 3 - 32 حفاضة</t>
+  </si>
+  <si>
+    <t>سبرايت - 0.95 لتر</t>
+  </si>
+  <si>
+    <t>عصير سن توب توت مشكل - 250 مل</t>
+  </si>
+  <si>
+    <t>عصير سن توب مانجو الفونسو - 250 مل</t>
+  </si>
+  <si>
+    <t>عصير سن توب فواكه مشكلة - 250 مل</t>
+  </si>
+  <si>
+    <t>بن ابو عوف فاتح سادة - 100 جم</t>
+  </si>
+  <si>
+    <t>بن ابو عوف فاتح سادة صفيح - 200 جم</t>
+  </si>
+  <si>
+    <t>رويال أعشاب نعناع - 20 فتلة</t>
+  </si>
+  <si>
+    <t>رويال أعشاب ليمون جنزبيل - 50 فتلة</t>
+  </si>
+  <si>
+    <t>رويال أعشاب قرفة - 20 فتلة</t>
+  </si>
+  <si>
+    <t>حفاضات موليفكس جامبو مقاس 2 - 60 حفاضة</t>
+  </si>
+  <si>
+    <t>حفاضات بى بم بانتس مقاس 3 - 32 حفاضة</t>
+  </si>
+  <si>
+    <t>مناديل فاميليا مطبخ كلاسيك 6 رول + 2 رول هدية - 8 رول</t>
+  </si>
+  <si>
+    <t>اوكسى اوتوماتيك نسيم الشرق -Delisted 2.5 كجم</t>
+  </si>
+  <si>
+    <t>لبان تشكلتس فراولة - 0.5 جنية</t>
+  </si>
+  <si>
+    <t>مولتو ميني شوكولاتة بالبندق قطع أكبر - 10 جنية</t>
+  </si>
+  <si>
+    <t>مولتو ماجنم شوكولاتة بالبندق - 15 جنية</t>
+  </si>
+  <si>
+    <t>شويبس رمان جيب - 240 مل</t>
+  </si>
+  <si>
+    <t>شويبس جولد اناناس جيب - 240 مل</t>
+  </si>
+  <si>
+    <t>ارز الضحى - 1 كجم</t>
+  </si>
+  <si>
+    <t>كنور خلطة بطاطس - 6 جم</t>
+  </si>
+  <si>
+    <t>كنور خلطه 11 بهار - 6 جم</t>
+  </si>
+  <si>
+    <t>جبنة عبور لاند رومى - 250 جم</t>
+  </si>
+  <si>
+    <t>بسكويت بيمبو بندق - 5 جنية</t>
+  </si>
+  <si>
+    <t>مكرونة شعرية كايرو - 400 جم</t>
+  </si>
+  <si>
+    <t>مكرونة كايرو لسان عصفور - 400 جم</t>
+  </si>
+  <si>
+    <t>مكرونة خطيرة خواتم - 280 جم</t>
+  </si>
+  <si>
+    <t>مناديل بابيا جيب كلاسيك 3 طبقة - 10 باكت</t>
+  </si>
+  <si>
+    <t>حفاضات جود كير مقاس 5 - 100 حفاضة</t>
+  </si>
+  <si>
+    <t>سندة زيت خليط - 900 مل</t>
+  </si>
+  <si>
+    <t>بن عبد المعبود محوج فاتح سوفت - 25 جم</t>
+  </si>
+  <si>
+    <t>بن عبد المعبود سادة فاتح سوفت - 25 جم</t>
+  </si>
+  <si>
+    <t>كوكاكولا اكشن - 300 مل</t>
+  </si>
+  <si>
+    <t>سبرايت اكشن - 300 مل</t>
+  </si>
+  <si>
+    <t>جودكير مناديل جيب - 10 باكت</t>
+  </si>
+  <si>
+    <t>كابتشينو بونجورنو فانيليا - 14 جم</t>
+  </si>
+  <si>
+    <t>كابتشينو بونجورنو موكا 12 ظرف - 14 جم</t>
+  </si>
+  <si>
+    <t>كلوروكس الوان باودر جديد 5 جنيه - 30 جم</t>
+  </si>
+  <si>
+    <t>فيبا سائل اطباق  ليمون اخضر- 4 كجم</t>
+  </si>
+  <si>
+    <t>مكرونة بساطة خواتم - 350 جم</t>
+  </si>
+  <si>
+    <t>مكرونة بساطة فرن - 350 جم</t>
+  </si>
+  <si>
+    <t>مكرونة بساطة مرمرية - 350 جم</t>
+  </si>
+  <si>
+    <t>عسل نحل البوادى زهرة البرسيم - 235 جم</t>
+  </si>
+  <si>
+    <t>اوكسى يدوى - 1.5 كجم</t>
+  </si>
+  <si>
+    <t>فيبا سائل أطباق تفاح- 2 كجم</t>
+  </si>
+  <si>
+    <t>فيبا سائل اطباق ليمون اخضر- 2 كجم</t>
+  </si>
+  <si>
+    <t>لبان ترايدنت توت و فراولة 65 قطعة- 1.5 جنية</t>
+  </si>
+  <si>
+    <t>شويبس جولد اناناس - 950 مل</t>
+  </si>
+  <si>
+    <t>مسحوق باهى يدوى لافندر - 1.5 كجم</t>
+  </si>
+  <si>
+    <t>بسكويت ماندولين بالشوكولاتة و الكراميل- 34 جم</t>
+  </si>
+  <si>
+    <t>فانتا برتقال اكشن - 300 مل</t>
+  </si>
+  <si>
+    <t>بلوبيف الذهبية - 340 جم</t>
+  </si>
+  <si>
+    <t>طحينة البوادى ظرف - 42 جم</t>
+  </si>
+  <si>
+    <t>البوادي حلاوة بار  - 18 جم</t>
+  </si>
+  <si>
+    <t>لوكس صابون حلم السعادة  - 115 جم</t>
+  </si>
+  <si>
+    <t>شاى الكبوس ناعم عرض 65 ج - 200 جم</t>
+  </si>
+  <si>
+    <t>فرسكا شوكو بار مغطى بالشوكولاتة- 3 جنية</t>
+  </si>
+  <si>
+    <t>حفاضات بى بم جامبو بانتس مقاس 5 - 56 حفاضة</t>
+  </si>
+  <si>
+    <t>مولبد ماكسى مضغوطة طويل جدا 20 + 4 فوطة ميجا توفير - 24 فوطة</t>
+  </si>
+  <si>
+    <t>مولبد ماكسى مضغوطة حماية ضد البكتيريا طويل جدا فردى - 7 فوطة</t>
+  </si>
+  <si>
+    <t>اوكسى يدوى - 2 كجم</t>
+  </si>
+  <si>
+    <t>بسكويت اوريو اوريجينال بالكاكاو و الفانيليا 2 قطعة - 5 جنية</t>
+  </si>
+  <si>
+    <t>بسكويت اوريو اوريجينال فانيليا  3 قطع - 26.25 جم</t>
+  </si>
+  <si>
+    <t>مناديل بابيا نايلون 2 طبقة - 500 منديل</t>
+  </si>
+  <si>
+    <t>اوكسي سائل أطباق ليمون اخضر ( 9 عبوة ) - 1 كيلو</t>
+  </si>
+  <si>
+    <t>زيت حبوبة خليط - 1.8 لتر</t>
+  </si>
+  <si>
+    <t>سمن كريستال اصفر 6 عبوة - 700 جم</t>
+  </si>
+  <si>
+    <t>مناديل زينة تريو عرض خاص - 500 منديل</t>
+  </si>
+  <si>
+    <t>شاى ليبتون اخضر - 25 فتلة</t>
+  </si>
+  <si>
+    <t>شاى ليبتون اخضر بالنعناع - 25 فتلة</t>
+  </si>
+  <si>
+    <t>جبنة كيرى بالقشطة - 4 قطعه</t>
+  </si>
+  <si>
+    <t>امريكانا فول مدمس بالصلصة والتسبيكة - 400 جم</t>
+  </si>
+  <si>
+    <t>كادبوري بسكويت شوكو ديلايت - 25.5 جرام</t>
+  </si>
+  <si>
+    <t>حفاضات جود كير مقاس 5 - 58 حفاضة</t>
+  </si>
+  <si>
+    <t>شاى الكبوس - 100 جرام</t>
+  </si>
+  <si>
+    <t>مربى البوادى فراولة - 680 جم</t>
+  </si>
+  <si>
+    <t>مربى البوادى تين - 365 جم</t>
+  </si>
+  <si>
+    <t>مربى البوادى تين - 680 جم</t>
+  </si>
+  <si>
+    <t>سكوت ويفر بكريمه الفانيليا HD - 7 جنية</t>
+  </si>
+  <si>
+    <t>البيلا وفيرشيكولاته محشو بكريمة البندق - أولكر 5 جنية</t>
+  </si>
+  <si>
+    <t>مسحوق ليدر عادى لافندر 12+1 هدية - 145 جم</t>
+  </si>
+  <si>
+    <t>لبن المراعى كامل الدسم - 1.5 لتر</t>
+  </si>
+  <si>
+    <t>اندومى لحم بقرى - 44 كيس - 75 جم</t>
+  </si>
+  <si>
+    <t>اندومى خضار بالزيت عرض 44 كيس - 75 جم</t>
+  </si>
+  <si>
+    <t>اندومى فراخ متبلة بالزيت عرض 44  كيس - 75 جم</t>
+  </si>
+  <si>
+    <t>اوكسى جل يدوى ابيض و الوان نسيم الربيع - 30 جم</t>
+  </si>
+  <si>
+    <t>اوكسى جل يدوى لافندر - 30 جم</t>
+  </si>
+  <si>
+    <t>اوكسى جل بلاك - 30 جم</t>
+  </si>
+  <si>
+    <t>اوكسى جل يدوى ابيض و الوان نسيم الشرق - 30 جم</t>
+  </si>
+  <si>
+    <t>ارز حبوبة بسمتى زهبى هندى طويل الحبة - 1 كجم</t>
+  </si>
+  <si>
+    <t>صابون لوكس بشرة نضرة - 75 جم</t>
+  </si>
+  <si>
+    <t>كنور فاين فودز مرقة دجاج عرض خاص - 12 مكعب 108 جرام</t>
+  </si>
+  <si>
+    <t>سمنة حبوبة نباتى صفراء برطمان - 600 جم</t>
+  </si>
+  <si>
+    <t>مناديل بابيا سحب ميجا باك نعومة الحرير 2 طبقة - 650 منديل</t>
+  </si>
+  <si>
+    <t>اوكسى سائل اطباق ليمون أخضر ظرف 35 جرام</t>
+  </si>
+  <si>
+    <t>صابون لوكس سحر الاوركيد - 115 جم</t>
+  </si>
+  <si>
+    <t>المراعي جبنة فيتا بالشيدر - 250 جم</t>
+  </si>
+  <si>
+    <t>اوكسى يدوى - 330 جم</t>
+  </si>
+  <si>
+    <t>اوكسى يدوى - 250 جم</t>
+  </si>
+  <si>
+    <t>كل يوم عصير تفاح - 200 مل</t>
+  </si>
+  <si>
+    <t>مولتو ميني ماجنم شوكولاتة و بندق - 15 جنية</t>
+  </si>
+  <si>
+    <t>بسكويت اولكر بالتمر 6 قطع - 7 جنية</t>
+  </si>
+  <si>
+    <t>اوكسي يدوي - 175 جم</t>
+  </si>
+  <si>
+    <t>زيت كريستال ذرة 6 زجاجة - 1 لتر</t>
+  </si>
+  <si>
+    <t>هانم سمنة بطعم الزبدة الصفراء ظرف - 55 جم</t>
+  </si>
+  <si>
+    <t>سندة دقيق - 1 كجم</t>
+  </si>
+  <si>
+    <t>تيكا شوكوبون هابي شوكو - 30 جرام 10 جنية</t>
+  </si>
+  <si>
+    <t>شاى ناعم  الورده - 40 جم</t>
+  </si>
+  <si>
+    <t>حلو الشام فانيليا سائلة - 35 مل</t>
+  </si>
+  <si>
+    <t>أجين عصير برتقال محلى ظرف- 19 جم</t>
+  </si>
+  <si>
+    <t>فرست وان بطعم التفاح والشعير 250 مل</t>
+  </si>
+  <si>
+    <t>ريد اقراص طارد للناموس - 60 قرص</t>
+  </si>
+  <si>
+    <t>سبيد مسلك بالوعات حبيبات - 300 جم</t>
+  </si>
+  <si>
+    <t>أريال يدوى داونى - 340 جم</t>
+  </si>
+  <si>
+    <t>-أريال يدوى داونى 1.5 كجم</t>
+  </si>
+  <si>
+    <t>كلوروكس ابيض باوش - 500 جم</t>
+  </si>
+  <si>
     <t>زيت ثمرات خليط - 700 مل</t>
   </si>
   <si>
+    <t>لارش ميلت كيك بصوص الكاكاو ومغطي بالكاكاو - 10 جنية</t>
+  </si>
+  <si>
+    <t>مولتو كينج شيكولاته وبندق - 20 جنية</t>
+  </si>
+  <si>
+    <t>حلو الشام فانيليا  - 2 جم</t>
+  </si>
+  <si>
+    <t>مكرونة شعرية بساطة - 1 كجم</t>
+  </si>
+  <si>
+    <t>مكرونة بساطة اسباجيتى - 1 كجم</t>
+  </si>
+  <si>
+    <t>بيتي عصير تفاح عرض خاص27ج - 1 لتر</t>
+  </si>
+  <si>
+    <t>بيتي عصير كوكتيل عرض خاص 27ج - 1 لتر</t>
+  </si>
+  <si>
+    <t>بيتي عصير جوافة عرض خاص27ج - 1 لتر</t>
+  </si>
+  <si>
+    <t>بيتي عصير برتقال عرض خاص 27ج - 1 لتر</t>
+  </si>
+  <si>
+    <t>لبان كلورتس قطعة واحدة بيج بايت نعناع - 100 قطعه</t>
+  </si>
+  <si>
+    <t>فاتيكا زيت شعر الالوفيرا خصم 10% - 45 مل</t>
+  </si>
+  <si>
+    <t>سولا اكليركراميل محشو شكولاته - 12 قطعه</t>
+  </si>
+  <si>
+    <t>سولا اكلير - 100 قطعه</t>
+  </si>
+  <si>
+    <t>سولا فواكة - 100 قطعه</t>
+  </si>
+  <si>
+    <t>سولا فواكه - 240 قطعه</t>
+  </si>
+  <si>
+    <t>باراديس طوفي - 240 قطعه</t>
+  </si>
+  <si>
+    <t>باندا جورمية مثلثات - 8 قطعه</t>
+  </si>
+  <si>
+    <t>اوكسي يدوي 32 كيس - 50 جم</t>
+  </si>
+  <si>
+    <t>اوكسي يدوي مسحوق 24 كيس - 110 جم</t>
+  </si>
+  <si>
+    <t>فيانسيه شامبو 7فى1 اكياس بالروزمارى والجوجوبا 5 مل</t>
+  </si>
+  <si>
+    <t>بقسماط ناعم ريتش بيك - 400 جرام</t>
+  </si>
+  <si>
+    <t>بونكس اوتوماتيك بلمسة الداوني - 9 كجم</t>
+  </si>
+  <si>
+    <t>راز كب كيك راز ذهبي فانليا - 12 قطعه</t>
+  </si>
+  <si>
+    <t>كوكيز العبد شوكولاتة - 18 قطعه</t>
+  </si>
+  <si>
+    <t>البوادي مربى كريمي فراولة - 365 جرام</t>
+  </si>
+  <si>
+    <t>مولفيكس بانتس مقاس 3 - 56 حفاضة</t>
+  </si>
+  <si>
+    <t>بسكويت ويفر محشو بكريمة البندق HD الشمعدان - 6 قطعه</t>
+  </si>
+  <si>
+    <t>ماكسى كانز كولا اورجينال - 300 مل</t>
+  </si>
+  <si>
+    <t>ماكسى كانز ليمون نعناع اورجينال - 300 مل</t>
+  </si>
+  <si>
+    <t>حفاضات بى بم بانتس مقاس 5 - 72 حفاضة</t>
+  </si>
+  <si>
+    <t>مشروب بودرة تانج  برتقال جديد 2 لتر - 40 جرام</t>
+  </si>
+  <si>
+    <t>مشروب بودرة تانج مانجو جديد 2 لتر - 40 جرام</t>
+  </si>
+  <si>
+    <t>سميليز شوكو ميكس - 24 قطعه</t>
+  </si>
+  <si>
+    <t>اريال يدوي داوني -- 50 جم</t>
+  </si>
+  <si>
+    <t>ماكسى ليمون نعناع - 1 لتر</t>
+  </si>
+  <si>
+    <t>شوكولاتة ديرى ميلك بابلي اوريو - 27 جم</t>
+  </si>
+  <si>
     <t>YES</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -398,7 +1004,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G297"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,7 +1035,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>12924</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -438,10 +1044,5025 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>559.75</v>
+        <v>845.75</v>
       </c>
       <c r="E2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>470</v>
+      </c>
+      <c r="E3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>59</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>70.5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>59</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1692</v>
+      </c>
+      <c r="E5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>95</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>4320</v>
+      </c>
+      <c r="E6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>95</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>105</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>128.5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>105</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>771</v>
+      </c>
+      <c r="E9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>114</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>700.5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>114</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>116.75</v>
+      </c>
+      <c r="E11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>130</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>502.25</v>
+      </c>
+      <c r="E12" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>146</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>190.75</v>
+      </c>
+      <c r="E13" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>216</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>648.75</v>
+      </c>
+      <c r="E14" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>216</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>7785</v>
+      </c>
+      <c r="E15" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>248</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>553.75</v>
+      </c>
+      <c r="E16" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>307</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>197</v>
+      </c>
+      <c r="E17" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>332</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>418.25</v>
+      </c>
+      <c r="E18" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>346</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>190</v>
+      </c>
+      <c r="E19" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>346</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>47.5</v>
+      </c>
+      <c r="E20" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>410</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>273</v>
+      </c>
+      <c r="E21" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>411</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>271.25</v>
+      </c>
+      <c r="E22" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>413</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>351.25</v>
+      </c>
+      <c r="E23" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>414</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>344.25</v>
+      </c>
+      <c r="E24" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>424</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>11</v>
+      </c>
+      <c r="D25">
+        <v>52.25</v>
+      </c>
+      <c r="E25" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>424</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1254</v>
+      </c>
+      <c r="E26" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>434</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>295</v>
+      </c>
+      <c r="E27" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>440</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>892.5</v>
+      </c>
+      <c r="E28" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>440</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>148.75</v>
+      </c>
+      <c r="E29" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>470</v>
+      </c>
+      <c r="B30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>836.5</v>
+      </c>
+      <c r="E30" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>515</v>
+      </c>
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31">
+        <v>24</v>
+      </c>
+      <c r="D31">
+        <v>136</v>
+      </c>
+      <c r="E31" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>515</v>
+      </c>
+      <c r="B32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1088</v>
+      </c>
+      <c r="E32" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>523</v>
+      </c>
+      <c r="B33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>189.5</v>
+      </c>
+      <c r="E33" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>922</v>
+      </c>
+      <c r="B34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>607</v>
+      </c>
+      <c r="E34" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>947</v>
+      </c>
+      <c r="B35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>2856</v>
+      </c>
+      <c r="E35" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>947</v>
+      </c>
+      <c r="B36" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36">
+        <v>15</v>
+      </c>
+      <c r="D36">
+        <v>714</v>
+      </c>
+      <c r="E36" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>947</v>
+      </c>
+      <c r="B37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37">
+        <v>11</v>
+      </c>
+      <c r="D37">
+        <v>59.5</v>
+      </c>
+      <c r="E37" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>947</v>
+      </c>
+      <c r="B38" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38">
+        <v>16</v>
+      </c>
+      <c r="D38">
+        <v>1428</v>
+      </c>
+      <c r="E38" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>990</v>
+      </c>
+      <c r="B39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>567.5</v>
+      </c>
+      <c r="E39" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>1001</v>
+      </c>
+      <c r="B40" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>265.5</v>
+      </c>
+      <c r="E40" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>1007</v>
+      </c>
+      <c r="B41" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>111.5</v>
+      </c>
+      <c r="E41" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>1049</v>
+      </c>
+      <c r="B42" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>275</v>
+      </c>
+      <c r="E42" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>1095</v>
+      </c>
+      <c r="B43" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>59.5</v>
+      </c>
+      <c r="E43" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>1095</v>
+      </c>
+      <c r="B44" t="s">
+        <v>36</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>476</v>
+      </c>
+      <c r="E44" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>1124</v>
+      </c>
+      <c r="B45" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>157</v>
+      </c>
+      <c r="E45" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <v>1243</v>
+      </c>
+      <c r="B46" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>294</v>
+      </c>
+      <c r="E46" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>1260</v>
+      </c>
+      <c r="B47" t="s">
+        <v>39</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>683.75</v>
+      </c>
+      <c r="E47" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
+        <v>1274</v>
+      </c>
+      <c r="B48" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>365</v>
+      </c>
+      <c r="E48" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>1446</v>
+      </c>
+      <c r="B49" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49">
+        <v>225</v>
+      </c>
+      <c r="E49" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50">
+        <v>1504</v>
+      </c>
+      <c r="B50" t="s">
+        <v>42</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50">
+        <v>175</v>
+      </c>
+      <c r="E50" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>1548</v>
+      </c>
+      <c r="B51" t="s">
+        <v>43</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>305</v>
+      </c>
+      <c r="E51" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52">
+        <v>1619</v>
+      </c>
+      <c r="B52" t="s">
+        <v>44</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>395.75</v>
+      </c>
+      <c r="E52" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53">
+        <v>1691</v>
+      </c>
+      <c r="B53" t="s">
+        <v>45</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>325.25</v>
+      </c>
+      <c r="E53" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54">
+        <v>1880</v>
+      </c>
+      <c r="B54" t="s">
+        <v>46</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>1590</v>
+      </c>
+      <c r="E54" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55">
+        <v>1880</v>
+      </c>
+      <c r="B55" t="s">
+        <v>46</v>
+      </c>
+      <c r="C55">
+        <v>4</v>
+      </c>
+      <c r="D55">
+        <v>132.5</v>
+      </c>
+      <c r="E55" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56">
+        <v>2055</v>
+      </c>
+      <c r="B56" t="s">
+        <v>47</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>1560</v>
+      </c>
+      <c r="E56" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57">
+        <v>2055</v>
+      </c>
+      <c r="B57" t="s">
+        <v>47</v>
+      </c>
+      <c r="C57">
+        <v>3</v>
+      </c>
+      <c r="D57">
+        <v>65</v>
+      </c>
+      <c r="E57" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58">
+        <v>2057</v>
+      </c>
+      <c r="B58" t="s">
+        <v>48</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+      <c r="D58">
+        <v>64</v>
+      </c>
+      <c r="E58" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59">
+        <v>2057</v>
+      </c>
+      <c r="B59" t="s">
+        <v>48</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>1536</v>
+      </c>
+      <c r="E59" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60">
+        <v>2108</v>
+      </c>
+      <c r="B60" t="s">
+        <v>49</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>667.5</v>
+      </c>
+      <c r="E60" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61">
+        <v>2108</v>
+      </c>
+      <c r="B61" t="s">
+        <v>49</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+      <c r="D61">
+        <v>111.25</v>
+      </c>
+      <c r="E61" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62">
+        <v>2331</v>
+      </c>
+      <c r="B62" t="s">
+        <v>50</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>244.5</v>
+      </c>
+      <c r="E62" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63">
+        <v>2335</v>
+      </c>
+      <c r="B63" t="s">
+        <v>51</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>1770</v>
+      </c>
+      <c r="E63" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64">
+        <v>2335</v>
+      </c>
+      <c r="B64" t="s">
+        <v>51</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="D64">
+        <v>147.5</v>
+      </c>
+      <c r="E64" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65">
+        <v>2422</v>
+      </c>
+      <c r="B65" t="s">
+        <v>52</v>
+      </c>
+      <c r="C65">
+        <v>80</v>
+      </c>
+      <c r="D65">
+        <v>153.75</v>
+      </c>
+      <c r="E65" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66">
+        <v>2422</v>
+      </c>
+      <c r="B66" t="s">
+        <v>52</v>
+      </c>
+      <c r="C66">
+        <v>29</v>
+      </c>
+      <c r="D66">
+        <v>768.75</v>
+      </c>
+      <c r="E66" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67">
+        <v>2726</v>
+      </c>
+      <c r="B67" t="s">
+        <v>53</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>2793</v>
+      </c>
+      <c r="E67" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68">
+        <v>2726</v>
+      </c>
+      <c r="B68" t="s">
+        <v>53</v>
+      </c>
+      <c r="C68">
+        <v>3</v>
+      </c>
+      <c r="D68">
+        <v>232.75</v>
+      </c>
+      <c r="E68" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69">
+        <v>2805</v>
+      </c>
+      <c r="B69" t="s">
+        <v>54</v>
+      </c>
+      <c r="C69">
+        <v>137</v>
+      </c>
+      <c r="D69">
+        <v>160</v>
+      </c>
+      <c r="E69" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70">
+        <v>3338</v>
+      </c>
+      <c r="B70" t="s">
+        <v>55</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>276.75</v>
+      </c>
+      <c r="E70" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71">
+        <v>3549</v>
+      </c>
+      <c r="B71" t="s">
+        <v>56</v>
+      </c>
+      <c r="C71">
+        <v>29</v>
+      </c>
+      <c r="D71">
+        <v>583</v>
+      </c>
+      <c r="E71" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72">
+        <v>3549</v>
+      </c>
+      <c r="B72" t="s">
+        <v>56</v>
+      </c>
+      <c r="C72">
+        <v>25</v>
+      </c>
+      <c r="D72">
+        <v>145.75</v>
+      </c>
+      <c r="E72" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73">
+        <v>3674</v>
+      </c>
+      <c r="B73" t="s">
+        <v>57</v>
+      </c>
+      <c r="C73">
+        <v>2</v>
+      </c>
+      <c r="D73">
+        <v>127.75</v>
+      </c>
+      <c r="E73" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74">
+        <v>3889</v>
+      </c>
+      <c r="B74" t="s">
+        <v>58</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>274.75</v>
+      </c>
+      <c r="E74" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75">
+        <v>3891</v>
+      </c>
+      <c r="B75" t="s">
+        <v>59</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>272.25</v>
+      </c>
+      <c r="E75" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76">
+        <v>3892</v>
+      </c>
+      <c r="B76" t="s">
+        <v>60</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>272.25</v>
+      </c>
+      <c r="E76" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77">
+        <v>3900</v>
+      </c>
+      <c r="B77" t="s">
+        <v>61</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>4880</v>
+      </c>
+      <c r="E77" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78">
+        <v>3900</v>
+      </c>
+      <c r="B78" t="s">
+        <v>61</v>
+      </c>
+      <c r="C78">
+        <v>3</v>
+      </c>
+      <c r="D78">
+        <v>610</v>
+      </c>
+      <c r="E78" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79">
+        <v>3906</v>
+      </c>
+      <c r="B79" t="s">
+        <v>62</v>
+      </c>
+      <c r="C79">
+        <v>14</v>
+      </c>
+      <c r="D79">
+        <v>150.75</v>
+      </c>
+      <c r="E79" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80">
+        <v>3906</v>
+      </c>
+      <c r="B80" t="s">
+        <v>62</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>1809</v>
+      </c>
+      <c r="E80" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81">
+        <v>3976</v>
+      </c>
+      <c r="B81" t="s">
+        <v>63</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>1242</v>
+      </c>
+      <c r="E81" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82">
+        <v>3976</v>
+      </c>
+      <c r="B82" t="s">
+        <v>63</v>
+      </c>
+      <c r="C82">
+        <v>3</v>
+      </c>
+      <c r="D82">
+        <v>17.25</v>
+      </c>
+      <c r="E82" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83">
+        <v>3985</v>
+      </c>
+      <c r="B83" t="s">
+        <v>64</v>
+      </c>
+      <c r="C83">
+        <v>3</v>
+      </c>
+      <c r="D83">
+        <v>36.5</v>
+      </c>
+      <c r="E83" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84">
+        <v>3985</v>
+      </c>
+      <c r="B84" t="s">
+        <v>64</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>1314</v>
+      </c>
+      <c r="E84" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85">
+        <v>3987</v>
+      </c>
+      <c r="B85" t="s">
+        <v>65</v>
+      </c>
+      <c r="C85">
+        <v>3</v>
+      </c>
+      <c r="D85">
+        <v>17.25</v>
+      </c>
+      <c r="E85" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86">
+        <v>3987</v>
+      </c>
+      <c r="B86" t="s">
+        <v>65</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>1242</v>
+      </c>
+      <c r="E86" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87">
+        <v>4030</v>
+      </c>
+      <c r="B87" t="s">
+        <v>66</v>
+      </c>
+      <c r="C87">
+        <v>29</v>
+      </c>
+      <c r="D87">
+        <v>768</v>
+      </c>
+      <c r="E87" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88">
+        <v>4030</v>
+      </c>
+      <c r="B88" t="s">
+        <v>66</v>
+      </c>
+      <c r="C88">
+        <v>25</v>
+      </c>
+      <c r="D88">
+        <v>256</v>
+      </c>
+      <c r="E88" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89">
+        <v>4068</v>
+      </c>
+      <c r="B89" t="s">
+        <v>67</v>
+      </c>
+      <c r="C89">
+        <v>25</v>
+      </c>
+      <c r="D89">
+        <v>149.75</v>
+      </c>
+      <c r="E89" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90">
+        <v>4068</v>
+      </c>
+      <c r="B90" t="s">
+        <v>67</v>
+      </c>
+      <c r="C90">
+        <v>29</v>
+      </c>
+      <c r="D90">
+        <v>599</v>
+      </c>
+      <c r="E90" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91">
+        <v>4940</v>
+      </c>
+      <c r="B91" t="s">
+        <v>68</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>238</v>
+      </c>
+      <c r="E91" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92">
+        <v>5110</v>
+      </c>
+      <c r="B92" t="s">
+        <v>69</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>668.25</v>
+      </c>
+      <c r="E92" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93">
+        <v>5209</v>
+      </c>
+      <c r="B93" t="s">
+        <v>70</v>
+      </c>
+      <c r="C93">
+        <v>3</v>
+      </c>
+      <c r="D93">
+        <v>50.5</v>
+      </c>
+      <c r="E93" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94">
+        <v>5209</v>
+      </c>
+      <c r="B94" t="s">
+        <v>70</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <v>1515</v>
+      </c>
+      <c r="E94" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95">
+        <v>5452</v>
+      </c>
+      <c r="B95" t="s">
+        <v>71</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>196</v>
+      </c>
+      <c r="E95" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96">
+        <v>5453</v>
+      </c>
+      <c r="B96" t="s">
+        <v>72</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>290</v>
+      </c>
+      <c r="E96" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97">
+        <v>5491</v>
+      </c>
+      <c r="B97" t="s">
+        <v>73</v>
+      </c>
+      <c r="C97">
+        <v>2</v>
+      </c>
+      <c r="D97">
+        <v>290.25</v>
+      </c>
+      <c r="E97" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98">
+        <v>5493</v>
+      </c>
+      <c r="B98" t="s">
+        <v>74</v>
+      </c>
+      <c r="C98">
+        <v>2</v>
+      </c>
+      <c r="D98">
+        <v>301.75</v>
+      </c>
+      <c r="E98" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99">
+        <v>5513</v>
+      </c>
+      <c r="B99" t="s">
+        <v>75</v>
+      </c>
+      <c r="C99">
+        <v>2</v>
+      </c>
+      <c r="D99">
+        <v>360.75</v>
+      </c>
+      <c r="E99" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100">
+        <v>5584</v>
+      </c>
+      <c r="B100" t="s">
+        <v>76</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>1200</v>
+      </c>
+      <c r="E100" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101">
+        <v>5584</v>
+      </c>
+      <c r="B101" t="s">
+        <v>76</v>
+      </c>
+      <c r="C101">
+        <v>3</v>
+      </c>
+      <c r="D101">
+        <v>120</v>
+      </c>
+      <c r="E101" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102">
+        <v>5585</v>
+      </c>
+      <c r="B102" t="s">
+        <v>77</v>
+      </c>
+      <c r="C102">
+        <v>3</v>
+      </c>
+      <c r="D102">
+        <v>108.75</v>
+      </c>
+      <c r="E102" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103">
+        <v>5585</v>
+      </c>
+      <c r="B103" t="s">
+        <v>77</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>1087.5</v>
+      </c>
+      <c r="E103" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104">
+        <v>5646</v>
+      </c>
+      <c r="B104" t="s">
+        <v>78</v>
+      </c>
+      <c r="C104">
+        <v>2</v>
+      </c>
+      <c r="D104">
+        <v>525.5</v>
+      </c>
+      <c r="E104" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105">
+        <v>5811</v>
+      </c>
+      <c r="B105" t="s">
+        <v>79</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105">
+        <v>588</v>
+      </c>
+      <c r="E105" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106">
+        <v>5811</v>
+      </c>
+      <c r="B106" t="s">
+        <v>79</v>
+      </c>
+      <c r="C106">
+        <v>3</v>
+      </c>
+      <c r="D106">
+        <v>49</v>
+      </c>
+      <c r="E106" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107">
+        <v>5849</v>
+      </c>
+      <c r="B107" t="s">
+        <v>80</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <v>186.75</v>
+      </c>
+      <c r="E107" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108">
+        <v>5852</v>
+      </c>
+      <c r="B108" t="s">
+        <v>81</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108">
+        <v>180</v>
+      </c>
+      <c r="E108" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109">
+        <v>5866</v>
+      </c>
+      <c r="B109" t="s">
+        <v>82</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="D109">
+        <v>136</v>
+      </c>
+      <c r="E109" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110">
+        <v>5976</v>
+      </c>
+      <c r="B110" t="s">
+        <v>83</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110">
+        <v>188.5</v>
+      </c>
+      <c r="E110" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111">
+        <v>6097</v>
+      </c>
+      <c r="B111" t="s">
+        <v>84</v>
+      </c>
+      <c r="C111">
+        <v>29</v>
+      </c>
+      <c r="D111">
+        <v>888</v>
+      </c>
+      <c r="E111" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112">
+        <v>6097</v>
+      </c>
+      <c r="B112" t="s">
+        <v>84</v>
+      </c>
+      <c r="C112">
+        <v>80</v>
+      </c>
+      <c r="D112">
+        <v>444</v>
+      </c>
+      <c r="E112" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113">
+        <v>6496</v>
+      </c>
+      <c r="B113" t="s">
+        <v>85</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="D113">
+        <v>720.25</v>
+      </c>
+      <c r="E113" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114">
+        <v>6627</v>
+      </c>
+      <c r="B114" t="s">
+        <v>86</v>
+      </c>
+      <c r="C114">
+        <v>3</v>
+      </c>
+      <c r="D114">
+        <v>365.75</v>
+      </c>
+      <c r="E114" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115">
+        <v>6627</v>
+      </c>
+      <c r="B115" t="s">
+        <v>86</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115">
+        <v>2194.5</v>
+      </c>
+      <c r="E115" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116">
+        <v>6628</v>
+      </c>
+      <c r="B116" t="s">
+        <v>87</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+      <c r="D116">
+        <v>1732.5</v>
+      </c>
+      <c r="E116" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117">
+        <v>6628</v>
+      </c>
+      <c r="B117" t="s">
+        <v>87</v>
+      </c>
+      <c r="C117">
+        <v>3</v>
+      </c>
+      <c r="D117">
+        <v>288.75</v>
+      </c>
+      <c r="E117" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118">
+        <v>6935</v>
+      </c>
+      <c r="B118" t="s">
+        <v>88</v>
+      </c>
+      <c r="C118">
+        <v>2</v>
+      </c>
+      <c r="D118">
+        <v>108</v>
+      </c>
+      <c r="E118" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119">
+        <v>6936</v>
+      </c>
+      <c r="B119" t="s">
+        <v>89</v>
+      </c>
+      <c r="C119">
+        <v>2</v>
+      </c>
+      <c r="D119">
+        <v>106</v>
+      </c>
+      <c r="E119" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120">
+        <v>6952</v>
+      </c>
+      <c r="B120" t="s">
+        <v>90</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+      <c r="D120">
+        <v>158</v>
+      </c>
+      <c r="E120" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121">
+        <v>7119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>91</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+      <c r="D121">
+        <v>1668</v>
+      </c>
+      <c r="E121" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122">
+        <v>7119</v>
+      </c>
+      <c r="B122" t="s">
+        <v>91</v>
+      </c>
+      <c r="C122">
+        <v>3</v>
+      </c>
+      <c r="D122">
+        <v>104.25</v>
+      </c>
+      <c r="E122" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123">
+        <v>7122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>92</v>
+      </c>
+      <c r="C123">
+        <v>3</v>
+      </c>
+      <c r="D123">
+        <v>105</v>
+      </c>
+      <c r="E123" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124">
+        <v>7122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>92</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+      <c r="D124">
+        <v>1680</v>
+      </c>
+      <c r="E124" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125">
+        <v>7573</v>
+      </c>
+      <c r="B125" t="s">
+        <v>93</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+      <c r="D125">
+        <v>86.25</v>
+      </c>
+      <c r="E125" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126">
+        <v>7629</v>
+      </c>
+      <c r="B126" t="s">
+        <v>94</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+      <c r="D126">
+        <v>360</v>
+      </c>
+      <c r="E126" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127">
+        <v>7703</v>
+      </c>
+      <c r="B127" t="s">
+        <v>95</v>
+      </c>
+      <c r="C127">
+        <v>2</v>
+      </c>
+      <c r="D127">
+        <v>163.5</v>
+      </c>
+      <c r="E127" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128">
+        <v>7705</v>
+      </c>
+      <c r="B128" t="s">
+        <v>96</v>
+      </c>
+      <c r="C128">
+        <v>2</v>
+      </c>
+      <c r="D128">
+        <v>159</v>
+      </c>
+      <c r="E128" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129">
+        <v>7707</v>
+      </c>
+      <c r="B129" t="s">
+        <v>97</v>
+      </c>
+      <c r="C129">
+        <v>2</v>
+      </c>
+      <c r="D129">
+        <v>167</v>
+      </c>
+      <c r="E129" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130">
+        <v>8188</v>
+      </c>
+      <c r="B130" t="s">
+        <v>98</v>
+      </c>
+      <c r="C130">
+        <v>10</v>
+      </c>
+      <c r="D130">
+        <v>41.25</v>
+      </c>
+      <c r="E130" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131">
+        <v>8188</v>
+      </c>
+      <c r="B131" t="s">
+        <v>98</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+      <c r="D131">
+        <v>990</v>
+      </c>
+      <c r="E131" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132">
+        <v>8356</v>
+      </c>
+      <c r="B132" t="s">
+        <v>99</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+      <c r="D132">
+        <v>358.25</v>
+      </c>
+      <c r="E132" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133">
+        <v>8360</v>
+      </c>
+      <c r="B133" t="s">
+        <v>100</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+      <c r="D133">
+        <v>273</v>
+      </c>
+      <c r="E133" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134">
+        <v>8361</v>
+      </c>
+      <c r="B134" t="s">
+        <v>101</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+      <c r="D134">
+        <v>273</v>
+      </c>
+      <c r="E134" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135">
+        <v>8635</v>
+      </c>
+      <c r="B135" t="s">
+        <v>102</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+      <c r="D135">
+        <v>1720</v>
+      </c>
+      <c r="E135" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136">
+        <v>8635</v>
+      </c>
+      <c r="B136" t="s">
+        <v>102</v>
+      </c>
+      <c r="C136">
+        <v>3</v>
+      </c>
+      <c r="D136">
+        <v>86</v>
+      </c>
+      <c r="E136" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137">
+        <v>8648</v>
+      </c>
+      <c r="B137" t="s">
+        <v>103</v>
+      </c>
+      <c r="C137">
+        <v>2</v>
+      </c>
+      <c r="D137">
+        <v>135.75</v>
+      </c>
+      <c r="E137" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138">
+        <v>8659</v>
+      </c>
+      <c r="B138" t="s">
+        <v>104</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+      <c r="D138">
+        <v>234</v>
+      </c>
+      <c r="E138" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139">
+        <v>8677</v>
+      </c>
+      <c r="B139" t="s">
+        <v>105</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+      <c r="D139">
+        <v>1158</v>
+      </c>
+      <c r="E139" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140">
+        <v>8677</v>
+      </c>
+      <c r="B140" t="s">
+        <v>105</v>
+      </c>
+      <c r="C140">
+        <v>3</v>
+      </c>
+      <c r="D140">
+        <v>96.5</v>
+      </c>
+      <c r="E140" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141">
+        <v>8853</v>
+      </c>
+      <c r="B141" t="s">
+        <v>106</v>
+      </c>
+      <c r="C141">
+        <v>2</v>
+      </c>
+      <c r="D141">
+        <v>105.25</v>
+      </c>
+      <c r="E141" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142">
+        <v>8927</v>
+      </c>
+      <c r="B142" t="s">
+        <v>107</v>
+      </c>
+      <c r="C142">
+        <v>10</v>
+      </c>
+      <c r="D142">
+        <v>35</v>
+      </c>
+      <c r="E142" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143">
+        <v>8927</v>
+      </c>
+      <c r="B143" t="s">
+        <v>107</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+      <c r="D143">
+        <v>840</v>
+      </c>
+      <c r="E143" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144">
+        <v>8944</v>
+      </c>
+      <c r="B144" t="s">
+        <v>108</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
+      </c>
+      <c r="D144">
+        <v>541</v>
+      </c>
+      <c r="E144" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145">
+        <v>8944</v>
+      </c>
+      <c r="B145" t="s">
+        <v>108</v>
+      </c>
+      <c r="C145">
+        <v>3</v>
+      </c>
+      <c r="D145">
+        <v>135.25</v>
+      </c>
+      <c r="E145" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146">
+        <v>8945</v>
+      </c>
+      <c r="B146" t="s">
+        <v>109</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+      <c r="D146">
+        <v>298.5</v>
+      </c>
+      <c r="E146" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147">
+        <v>8945</v>
+      </c>
+      <c r="B147" t="s">
+        <v>109</v>
+      </c>
+      <c r="C147">
+        <v>3</v>
+      </c>
+      <c r="D147">
+        <v>49.75</v>
+      </c>
+      <c r="E147" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148">
+        <v>9065</v>
+      </c>
+      <c r="B148" t="s">
+        <v>110</v>
+      </c>
+      <c r="C148">
+        <v>2</v>
+      </c>
+      <c r="D148">
+        <v>96</v>
+      </c>
+      <c r="E148" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149">
+        <v>9065</v>
+      </c>
+      <c r="B149" t="s">
+        <v>110</v>
+      </c>
+      <c r="C149">
+        <v>1</v>
+      </c>
+      <c r="D149">
+        <v>768</v>
+      </c>
+      <c r="E149" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150">
+        <v>9081</v>
+      </c>
+      <c r="B150" t="s">
+        <v>111</v>
+      </c>
+      <c r="C150">
+        <v>3</v>
+      </c>
+      <c r="D150">
+        <v>62</v>
+      </c>
+      <c r="E150" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151">
+        <v>9081</v>
+      </c>
+      <c r="B151" t="s">
+        <v>111</v>
+      </c>
+      <c r="C151">
+        <v>1</v>
+      </c>
+      <c r="D151">
+        <v>1488</v>
+      </c>
+      <c r="E151" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152">
+        <v>9083</v>
+      </c>
+      <c r="B152" t="s">
+        <v>112</v>
+      </c>
+      <c r="C152">
+        <v>3</v>
+      </c>
+      <c r="D152">
+        <v>60.75</v>
+      </c>
+      <c r="E152" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153">
+        <v>9083</v>
+      </c>
+      <c r="B153" t="s">
+        <v>112</v>
+      </c>
+      <c r="C153">
+        <v>1</v>
+      </c>
+      <c r="D153">
+        <v>729</v>
+      </c>
+      <c r="E153" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154">
+        <v>9085</v>
+      </c>
+      <c r="B154" t="s">
+        <v>113</v>
+      </c>
+      <c r="C154">
+        <v>25</v>
+      </c>
+      <c r="D154">
+        <v>311</v>
+      </c>
+      <c r="E154" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155">
+        <v>9085</v>
+      </c>
+      <c r="B155" t="s">
+        <v>113</v>
+      </c>
+      <c r="C155">
+        <v>29</v>
+      </c>
+      <c r="D155">
+        <v>933</v>
+      </c>
+      <c r="E155" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156">
+        <v>9113</v>
+      </c>
+      <c r="B156" t="s">
+        <v>114</v>
+      </c>
+      <c r="C156">
+        <v>15</v>
+      </c>
+      <c r="D156">
+        <v>198.75</v>
+      </c>
+      <c r="E156" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157">
+        <v>9113</v>
+      </c>
+      <c r="B157" t="s">
+        <v>114</v>
+      </c>
+      <c r="C157">
+        <v>25</v>
+      </c>
+      <c r="D157">
+        <v>66.25</v>
+      </c>
+      <c r="E157" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158">
+        <v>9113</v>
+      </c>
+      <c r="B158" t="s">
+        <v>114</v>
+      </c>
+      <c r="C158">
+        <v>1</v>
+      </c>
+      <c r="D158">
+        <v>795</v>
+      </c>
+      <c r="E158" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159">
+        <v>9122</v>
+      </c>
+      <c r="B159" t="s">
+        <v>115</v>
+      </c>
+      <c r="C159">
+        <v>1</v>
+      </c>
+      <c r="D159">
+        <v>408</v>
+      </c>
+      <c r="E159" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160">
+        <v>9122</v>
+      </c>
+      <c r="B160" t="s">
+        <v>115</v>
+      </c>
+      <c r="C160">
+        <v>25</v>
+      </c>
+      <c r="D160">
+        <v>25.5</v>
+      </c>
+      <c r="E160" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161">
+        <v>9122</v>
+      </c>
+      <c r="B161" t="s">
+        <v>115</v>
+      </c>
+      <c r="C161">
+        <v>15</v>
+      </c>
+      <c r="D161">
+        <v>102</v>
+      </c>
+      <c r="E161" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162">
+        <v>9126</v>
+      </c>
+      <c r="B162" t="s">
+        <v>116</v>
+      </c>
+      <c r="C162">
+        <v>1</v>
+      </c>
+      <c r="D162">
+        <v>426</v>
+      </c>
+      <c r="E162" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163">
+        <v>9204</v>
+      </c>
+      <c r="B163" t="s">
+        <v>117</v>
+      </c>
+      <c r="C163">
+        <v>3</v>
+      </c>
+      <c r="D163">
+        <v>48.75</v>
+      </c>
+      <c r="E163" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164">
+        <v>9204</v>
+      </c>
+      <c r="B164" t="s">
+        <v>117</v>
+      </c>
+      <c r="C164">
+        <v>1</v>
+      </c>
+      <c r="D164">
+        <v>390</v>
+      </c>
+      <c r="E164" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165">
+        <v>9250</v>
+      </c>
+      <c r="B165" t="s">
+        <v>118</v>
+      </c>
+      <c r="C165">
+        <v>3</v>
+      </c>
+      <c r="D165">
+        <v>78.75</v>
+      </c>
+      <c r="E165" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166">
+        <v>9250</v>
+      </c>
+      <c r="B166" t="s">
+        <v>118</v>
+      </c>
+      <c r="C166">
+        <v>1</v>
+      </c>
+      <c r="D166">
+        <v>630</v>
+      </c>
+      <c r="E166" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167">
+        <v>9288</v>
+      </c>
+      <c r="B167" t="s">
+        <v>119</v>
+      </c>
+      <c r="C167">
+        <v>29</v>
+      </c>
+      <c r="D167">
+        <v>451</v>
+      </c>
+      <c r="E167" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168">
+        <v>9355</v>
+      </c>
+      <c r="B168" t="s">
+        <v>120</v>
+      </c>
+      <c r="C168">
+        <v>1</v>
+      </c>
+      <c r="D168">
+        <v>338</v>
+      </c>
+      <c r="E168" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169">
+        <v>9358</v>
+      </c>
+      <c r="B169" t="s">
+        <v>121</v>
+      </c>
+      <c r="C169">
+        <v>1</v>
+      </c>
+      <c r="D169">
+        <v>504.75</v>
+      </c>
+      <c r="E169" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170">
+        <v>9613</v>
+      </c>
+      <c r="B170" t="s">
+        <v>122</v>
+      </c>
+      <c r="C170">
+        <v>1</v>
+      </c>
+      <c r="D170">
+        <v>452</v>
+      </c>
+      <c r="E170" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171">
+        <v>9760</v>
+      </c>
+      <c r="B171" t="s">
+        <v>123</v>
+      </c>
+      <c r="C171">
+        <v>29</v>
+      </c>
+      <c r="D171">
+        <v>411.25</v>
+      </c>
+      <c r="E171" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172">
+        <v>9796</v>
+      </c>
+      <c r="B172" t="s">
+        <v>124</v>
+      </c>
+      <c r="C172">
+        <v>1</v>
+      </c>
+      <c r="D172">
+        <v>1464</v>
+      </c>
+      <c r="E172" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173">
+        <v>9796</v>
+      </c>
+      <c r="B173" t="s">
+        <v>124</v>
+      </c>
+      <c r="C173">
+        <v>3</v>
+      </c>
+      <c r="D173">
+        <v>30.5</v>
+      </c>
+      <c r="E173" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174">
+        <v>9797</v>
+      </c>
+      <c r="B174" t="s">
+        <v>125</v>
+      </c>
+      <c r="C174">
+        <v>1</v>
+      </c>
+      <c r="D174">
+        <v>1452</v>
+      </c>
+      <c r="E174" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175">
+        <v>9797</v>
+      </c>
+      <c r="B175" t="s">
+        <v>125</v>
+      </c>
+      <c r="C175">
+        <v>3</v>
+      </c>
+      <c r="D175">
+        <v>30.25</v>
+      </c>
+      <c r="E175" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176">
+        <v>9803</v>
+      </c>
+      <c r="B176" t="s">
+        <v>126</v>
+      </c>
+      <c r="C176">
+        <v>138</v>
+      </c>
+      <c r="D176">
+        <v>405</v>
+      </c>
+      <c r="E176" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177">
+        <v>9803</v>
+      </c>
+      <c r="B177" t="s">
+        <v>126</v>
+      </c>
+      <c r="C177">
+        <v>3</v>
+      </c>
+      <c r="D177">
+        <v>40.5</v>
+      </c>
+      <c r="E177" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178">
+        <v>9803</v>
+      </c>
+      <c r="B178" t="s">
+        <v>126</v>
+      </c>
+      <c r="C178">
+        <v>1</v>
+      </c>
+      <c r="D178">
+        <v>1620</v>
+      </c>
+      <c r="E178" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179">
+        <v>9922</v>
+      </c>
+      <c r="B179" t="s">
+        <v>127</v>
+      </c>
+      <c r="C179">
+        <v>11</v>
+      </c>
+      <c r="D179">
+        <v>21</v>
+      </c>
+      <c r="E179" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180">
+        <v>9922</v>
+      </c>
+      <c r="B180" t="s">
+        <v>127</v>
+      </c>
+      <c r="C180">
+        <v>2</v>
+      </c>
+      <c r="D180">
+        <v>504</v>
+      </c>
+      <c r="E180" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181">
+        <v>9945</v>
+      </c>
+      <c r="B181" t="s">
+        <v>128</v>
+      </c>
+      <c r="C181">
+        <v>3</v>
+      </c>
+      <c r="D181">
+        <v>90</v>
+      </c>
+      <c r="E181" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182">
+        <v>9945</v>
+      </c>
+      <c r="B182" t="s">
+        <v>128</v>
+      </c>
+      <c r="C182">
+        <v>1</v>
+      </c>
+      <c r="D182">
+        <v>1080</v>
+      </c>
+      <c r="E182" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183">
+        <v>9998</v>
+      </c>
+      <c r="B183" t="s">
+        <v>129</v>
+      </c>
+      <c r="C183">
+        <v>29</v>
+      </c>
+      <c r="D183">
+        <v>717.75</v>
+      </c>
+      <c r="E183" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184">
+        <v>9998</v>
+      </c>
+      <c r="B184" t="s">
+        <v>129</v>
+      </c>
+      <c r="C184">
+        <v>80</v>
+      </c>
+      <c r="D184">
+        <v>239.25</v>
+      </c>
+      <c r="E184" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185">
+        <v>10093</v>
+      </c>
+      <c r="B185" t="s">
+        <v>130</v>
+      </c>
+      <c r="C185">
+        <v>1</v>
+      </c>
+      <c r="D185">
+        <v>2130</v>
+      </c>
+      <c r="E185" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186">
+        <v>10093</v>
+      </c>
+      <c r="B186" t="s">
+        <v>130</v>
+      </c>
+      <c r="C186">
+        <v>3</v>
+      </c>
+      <c r="D186">
+        <v>35.5</v>
+      </c>
+      <c r="E186" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187">
+        <v>10408</v>
+      </c>
+      <c r="B187" t="s">
+        <v>131</v>
+      </c>
+      <c r="C187">
+        <v>1</v>
+      </c>
+      <c r="D187">
+        <v>489</v>
+      </c>
+      <c r="E187" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188">
+        <v>10408</v>
+      </c>
+      <c r="B188" t="s">
+        <v>131</v>
+      </c>
+      <c r="C188">
+        <v>10</v>
+      </c>
+      <c r="D188">
+        <v>40.75</v>
+      </c>
+      <c r="E188" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189">
+        <v>10410</v>
+      </c>
+      <c r="B189" t="s">
+        <v>132</v>
+      </c>
+      <c r="C189">
+        <v>1</v>
+      </c>
+      <c r="D189">
+        <v>330</v>
+      </c>
+      <c r="E189" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190">
+        <v>10410</v>
+      </c>
+      <c r="B190" t="s">
+        <v>132</v>
+      </c>
+      <c r="C190">
+        <v>10</v>
+      </c>
+      <c r="D190">
+        <v>27.5</v>
+      </c>
+      <c r="E190" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191">
+        <v>10411</v>
+      </c>
+      <c r="B191" t="s">
+        <v>133</v>
+      </c>
+      <c r="C191">
+        <v>1</v>
+      </c>
+      <c r="D191">
+        <v>492</v>
+      </c>
+      <c r="E191" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192">
+        <v>10411</v>
+      </c>
+      <c r="B192" t="s">
+        <v>133</v>
+      </c>
+      <c r="C192">
+        <v>10</v>
+      </c>
+      <c r="D192">
+        <v>41</v>
+      </c>
+      <c r="E192" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193">
+        <v>10460</v>
+      </c>
+      <c r="B193" t="s">
+        <v>134</v>
+      </c>
+      <c r="C193">
+        <v>1</v>
+      </c>
+      <c r="D193">
+        <v>582</v>
+      </c>
+      <c r="E193" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194">
+        <v>10460</v>
+      </c>
+      <c r="B194" t="s">
+        <v>134</v>
+      </c>
+      <c r="C194">
+        <v>3</v>
+      </c>
+      <c r="D194">
+        <v>48.5</v>
+      </c>
+      <c r="E194" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195">
+        <v>10521</v>
+      </c>
+      <c r="B195" t="s">
+        <v>135</v>
+      </c>
+      <c r="C195">
+        <v>3</v>
+      </c>
+      <c r="D195">
+        <v>47.5</v>
+      </c>
+      <c r="E195" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196">
+        <v>10521</v>
+      </c>
+      <c r="B196" t="s">
+        <v>135</v>
+      </c>
+      <c r="C196">
+        <v>1</v>
+      </c>
+      <c r="D196">
+        <v>570</v>
+      </c>
+      <c r="E196" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197">
+        <v>10609</v>
+      </c>
+      <c r="B197" t="s">
+        <v>136</v>
+      </c>
+      <c r="C197">
+        <v>1</v>
+      </c>
+      <c r="D197">
+        <v>98</v>
+      </c>
+      <c r="E197" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198">
+        <v>10993</v>
+      </c>
+      <c r="B198" t="s">
+        <v>137</v>
+      </c>
+      <c r="C198">
+        <v>2</v>
+      </c>
+      <c r="D198">
+        <v>551</v>
+      </c>
+      <c r="E198" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199">
+        <v>11090</v>
+      </c>
+      <c r="B199" t="s">
+        <v>138</v>
+      </c>
+      <c r="C199">
+        <v>1</v>
+      </c>
+      <c r="D199">
+        <v>370.5</v>
+      </c>
+      <c r="E199" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200">
+        <v>11091</v>
+      </c>
+      <c r="B200" t="s">
+        <v>139</v>
+      </c>
+      <c r="C200">
+        <v>1</v>
+      </c>
+      <c r="D200">
+        <v>370.75</v>
+      </c>
+      <c r="E200" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201">
+        <v>11093</v>
+      </c>
+      <c r="B201" t="s">
+        <v>140</v>
+      </c>
+      <c r="C201">
+        <v>1</v>
+      </c>
+      <c r="D201">
+        <v>369.25</v>
+      </c>
+      <c r="E201" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202">
+        <v>11158</v>
+      </c>
+      <c r="B202" t="s">
+        <v>141</v>
+      </c>
+      <c r="C202">
+        <v>1</v>
+      </c>
+      <c r="D202">
+        <v>58.75</v>
+      </c>
+      <c r="E202" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203">
+        <v>11159</v>
+      </c>
+      <c r="B203" t="s">
+        <v>142</v>
+      </c>
+      <c r="C203">
+        <v>1</v>
+      </c>
+      <c r="D203">
+        <v>59</v>
+      </c>
+      <c r="E203" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204">
+        <v>11160</v>
+      </c>
+      <c r="B204" t="s">
+        <v>143</v>
+      </c>
+      <c r="C204">
+        <v>1</v>
+      </c>
+      <c r="D204">
+        <v>56.5</v>
+      </c>
+      <c r="E204" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205">
+        <v>11161</v>
+      </c>
+      <c r="B205" t="s">
+        <v>144</v>
+      </c>
+      <c r="C205">
+        <v>1</v>
+      </c>
+      <c r="D205">
+        <v>58.75</v>
+      </c>
+      <c r="E205" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206">
+        <v>11399</v>
+      </c>
+      <c r="B206" t="s">
+        <v>145</v>
+      </c>
+      <c r="C206">
+        <v>2</v>
+      </c>
+      <c r="D206">
+        <v>574.5</v>
+      </c>
+      <c r="E206" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207">
+        <v>11450</v>
+      </c>
+      <c r="B207" t="s">
+        <v>146</v>
+      </c>
+      <c r="C207">
+        <v>2</v>
+      </c>
+      <c r="D207">
+        <v>60.25</v>
+      </c>
+      <c r="E207" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208">
+        <v>11450</v>
+      </c>
+      <c r="B208" t="s">
+        <v>146</v>
+      </c>
+      <c r="C208">
+        <v>1</v>
+      </c>
+      <c r="D208">
+        <v>482</v>
+      </c>
+      <c r="E208" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209">
+        <v>11485</v>
+      </c>
+      <c r="B209" t="s">
+        <v>147</v>
+      </c>
+      <c r="C209">
+        <v>24</v>
+      </c>
+      <c r="D209">
+        <v>134.25</v>
+      </c>
+      <c r="E209" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210">
+        <v>11485</v>
+      </c>
+      <c r="B210" t="s">
+        <v>147</v>
+      </c>
+      <c r="C210">
+        <v>1</v>
+      </c>
+      <c r="D210">
+        <v>1074</v>
+      </c>
+      <c r="E210" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211">
+        <v>11492</v>
+      </c>
+      <c r="B211" t="s">
+        <v>148</v>
+      </c>
+      <c r="C211">
+        <v>1</v>
+      </c>
+      <c r="D211">
+        <v>325</v>
+      </c>
+      <c r="E211" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212">
+        <v>11582</v>
+      </c>
+      <c r="B212" t="s">
+        <v>149</v>
+      </c>
+      <c r="C212">
+        <v>29</v>
+      </c>
+      <c r="D212">
+        <v>575.25</v>
+      </c>
+      <c r="E212" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213">
+        <v>11586</v>
+      </c>
+      <c r="B213" t="s">
+        <v>150</v>
+      </c>
+      <c r="C213">
+        <v>1</v>
+      </c>
+      <c r="D213">
+        <v>72.5</v>
+      </c>
+      <c r="E213" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214">
+        <v>11690</v>
+      </c>
+      <c r="B214" t="s">
+        <v>151</v>
+      </c>
+      <c r="C214">
+        <v>2</v>
+      </c>
+      <c r="D214">
+        <v>98</v>
+      </c>
+      <c r="E214" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215">
+        <v>11690</v>
+      </c>
+      <c r="B215" t="s">
+        <v>151</v>
+      </c>
+      <c r="C215">
+        <v>1</v>
+      </c>
+      <c r="D215">
+        <v>784</v>
+      </c>
+      <c r="E215" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216">
+        <v>11738</v>
+      </c>
+      <c r="B216" t="s">
+        <v>152</v>
+      </c>
+      <c r="C216">
+        <v>2</v>
+      </c>
+      <c r="D216">
+        <v>501.75</v>
+      </c>
+      <c r="E216" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217">
+        <v>11767</v>
+      </c>
+      <c r="B217" t="s">
+        <v>153</v>
+      </c>
+      <c r="C217">
+        <v>1</v>
+      </c>
+      <c r="D217">
+        <v>192.5</v>
+      </c>
+      <c r="E217" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218">
+        <v>11772</v>
+      </c>
+      <c r="B218" t="s">
+        <v>154</v>
+      </c>
+      <c r="C218">
+        <v>1</v>
+      </c>
+      <c r="D218">
+        <v>149.75</v>
+      </c>
+      <c r="E218" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219">
+        <v>11837</v>
+      </c>
+      <c r="B219" t="s">
+        <v>155</v>
+      </c>
+      <c r="C219">
+        <v>2</v>
+      </c>
+      <c r="D219">
+        <v>121.5</v>
+      </c>
+      <c r="E219" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220">
+        <v>11856</v>
+      </c>
+      <c r="B220" t="s">
+        <v>156</v>
+      </c>
+      <c r="C220">
+        <v>1</v>
+      </c>
+      <c r="D220">
+        <v>291</v>
+      </c>
+      <c r="E220" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221">
+        <v>11891</v>
+      </c>
+      <c r="B221" t="s">
+        <v>157</v>
+      </c>
+      <c r="C221">
+        <v>3</v>
+      </c>
+      <c r="D221">
+        <v>68</v>
+      </c>
+      <c r="E221" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222">
+        <v>11891</v>
+      </c>
+      <c r="B222" t="s">
+        <v>157</v>
+      </c>
+      <c r="C222">
+        <v>1</v>
+      </c>
+      <c r="D222">
+        <v>816</v>
+      </c>
+      <c r="E222" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223">
+        <v>11952</v>
+      </c>
+      <c r="B223" t="s">
+        <v>158</v>
+      </c>
+      <c r="C223">
+        <v>1</v>
+      </c>
+      <c r="D223">
+        <v>141</v>
+      </c>
+      <c r="E223" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224">
+        <v>11962</v>
+      </c>
+      <c r="B224" t="s">
+        <v>159</v>
+      </c>
+      <c r="C224">
+        <v>1</v>
+      </c>
+      <c r="D224">
+        <v>663.25</v>
+      </c>
+      <c r="E224" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225">
+        <v>11967</v>
+      </c>
+      <c r="B225" t="s">
+        <v>160</v>
+      </c>
+      <c r="C225">
+        <v>1</v>
+      </c>
+      <c r="D225">
+        <v>228</v>
+      </c>
+      <c r="E225" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226">
+        <v>12229</v>
+      </c>
+      <c r="B226" t="s">
+        <v>161</v>
+      </c>
+      <c r="C226">
+        <v>2</v>
+      </c>
+      <c r="D226">
+        <v>194</v>
+      </c>
+      <c r="E226" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227">
+        <v>12236</v>
+      </c>
+      <c r="B227" t="s">
+        <v>162</v>
+      </c>
+      <c r="C227">
+        <v>3</v>
+      </c>
+      <c r="D227">
+        <v>71.75</v>
+      </c>
+      <c r="E227" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228">
+        <v>12236</v>
+      </c>
+      <c r="B228" t="s">
+        <v>162</v>
+      </c>
+      <c r="C228">
+        <v>1</v>
+      </c>
+      <c r="D228">
+        <v>574</v>
+      </c>
+      <c r="E228" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229">
+        <v>12294</v>
+      </c>
+      <c r="B229" t="s">
+        <v>163</v>
+      </c>
+      <c r="C229">
+        <v>4</v>
+      </c>
+      <c r="D229">
+        <v>189.25</v>
+      </c>
+      <c r="E229" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230">
+        <v>12294</v>
+      </c>
+      <c r="B230" t="s">
+        <v>163</v>
+      </c>
+      <c r="C230">
+        <v>1</v>
+      </c>
+      <c r="D230">
+        <v>2271</v>
+      </c>
+      <c r="E230" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231">
+        <v>12494</v>
+      </c>
+      <c r="B231" t="s">
+        <v>164</v>
+      </c>
+      <c r="C231">
+        <v>1</v>
+      </c>
+      <c r="D231">
+        <v>1437</v>
+      </c>
+      <c r="E231" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232">
+        <v>12494</v>
+      </c>
+      <c r="B232" t="s">
+        <v>164</v>
+      </c>
+      <c r="C232">
+        <v>3</v>
+      </c>
+      <c r="D232">
+        <v>239.5</v>
+      </c>
+      <c r="E232" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233">
+        <v>12497</v>
+      </c>
+      <c r="B233" t="s">
+        <v>165</v>
+      </c>
+      <c r="C233">
+        <v>1</v>
+      </c>
+      <c r="D233">
+        <v>515</v>
+      </c>
+      <c r="E233" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234">
+        <v>12497</v>
+      </c>
+      <c r="B234" t="s">
+        <v>165</v>
+      </c>
+      <c r="C234">
+        <v>3</v>
+      </c>
+      <c r="D234">
+        <v>51.5</v>
+      </c>
+      <c r="E234" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235">
+        <v>12517</v>
+      </c>
+      <c r="B235" t="s">
+        <v>166</v>
+      </c>
+      <c r="C235">
+        <v>2</v>
+      </c>
+      <c r="D235">
+        <v>53.75</v>
+      </c>
+      <c r="E235" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236">
+        <v>12538</v>
+      </c>
+      <c r="B236" t="s">
+        <v>167</v>
+      </c>
+      <c r="C236">
+        <v>1</v>
+      </c>
+      <c r="D236">
+        <v>6312</v>
+      </c>
+      <c r="E236" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237">
+        <v>12538</v>
+      </c>
+      <c r="B237" t="s">
+        <v>167</v>
+      </c>
+      <c r="C237">
+        <v>3</v>
+      </c>
+      <c r="D237">
+        <v>65.75</v>
+      </c>
+      <c r="E237" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238">
+        <v>12612</v>
+      </c>
+      <c r="B238" t="s">
+        <v>168</v>
+      </c>
+      <c r="C238">
+        <v>1</v>
+      </c>
+      <c r="D238">
+        <v>432</v>
+      </c>
+      <c r="E238" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239">
+        <v>12653</v>
+      </c>
+      <c r="B239" t="s">
+        <v>169</v>
+      </c>
+      <c r="C239">
+        <v>1</v>
+      </c>
+      <c r="D239">
+        <v>137.5</v>
+      </c>
+      <c r="E239" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240">
+        <v>12658</v>
+      </c>
+      <c r="B240" t="s">
+        <v>170</v>
+      </c>
+      <c r="C240">
+        <v>1</v>
+      </c>
+      <c r="D240">
+        <v>339.5</v>
+      </c>
+      <c r="E240" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241">
+        <v>12870</v>
+      </c>
+      <c r="B241" t="s">
+        <v>171</v>
+      </c>
+      <c r="C241">
+        <v>1</v>
+      </c>
+      <c r="D241">
+        <v>208.5</v>
+      </c>
+      <c r="E241" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242">
+        <v>12924</v>
+      </c>
+      <c r="B242" t="s">
+        <v>172</v>
+      </c>
+      <c r="C242">
+        <v>1</v>
+      </c>
+      <c r="D242">
+        <v>565.5</v>
+      </c>
+      <c r="E242" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243">
+        <v>13028</v>
+      </c>
+      <c r="B243" t="s">
+        <v>173</v>
+      </c>
+      <c r="C243">
+        <v>3</v>
+      </c>
+      <c r="D243">
+        <v>207.25</v>
+      </c>
+      <c r="E243" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244">
+        <v>13299</v>
+      </c>
+      <c r="B244" t="s">
+        <v>174</v>
+      </c>
+      <c r="C244">
+        <v>1</v>
+      </c>
+      <c r="D244">
+        <v>195</v>
+      </c>
+      <c r="E244" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245">
+        <v>13324</v>
+      </c>
+      <c r="B245" t="s">
+        <v>175</v>
+      </c>
+      <c r="C245">
+        <v>1</v>
+      </c>
+      <c r="D245">
+        <v>309</v>
+      </c>
+      <c r="E245" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246">
+        <v>13324</v>
+      </c>
+      <c r="B246" t="s">
+        <v>175</v>
+      </c>
+      <c r="C246">
+        <v>3</v>
+      </c>
+      <c r="D246">
+        <v>25.75</v>
+      </c>
+      <c r="E246" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247">
+        <v>13486</v>
+      </c>
+      <c r="B247" t="s">
+        <v>176</v>
+      </c>
+      <c r="C247">
+        <v>1</v>
+      </c>
+      <c r="D247">
+        <v>240.75</v>
+      </c>
+      <c r="E247" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248">
+        <v>13488</v>
+      </c>
+      <c r="B248" t="s">
+        <v>177</v>
+      </c>
+      <c r="C248">
+        <v>1</v>
+      </c>
+      <c r="D248">
+        <v>241.5</v>
+      </c>
+      <c r="E248" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249">
+        <v>13962</v>
+      </c>
+      <c r="B249" t="s">
+        <v>178</v>
+      </c>
+      <c r="C249">
+        <v>1</v>
+      </c>
+      <c r="D249">
+        <v>292.5</v>
+      </c>
+      <c r="E249" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250">
+        <v>13964</v>
+      </c>
+      <c r="B250" t="s">
+        <v>179</v>
+      </c>
+      <c r="C250">
+        <v>1</v>
+      </c>
+      <c r="D250">
+        <v>289</v>
+      </c>
+      <c r="E250" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251">
+        <v>13965</v>
+      </c>
+      <c r="B251" t="s">
+        <v>180</v>
+      </c>
+      <c r="C251">
+        <v>1</v>
+      </c>
+      <c r="D251">
+        <v>289.75</v>
+      </c>
+      <c r="E251" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252">
+        <v>13968</v>
+      </c>
+      <c r="B252" t="s">
+        <v>181</v>
+      </c>
+      <c r="C252">
+        <v>1</v>
+      </c>
+      <c r="D252">
+        <v>293.25</v>
+      </c>
+      <c r="E252" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253">
+        <v>14037</v>
+      </c>
+      <c r="B253" t="s">
+        <v>182</v>
+      </c>
+      <c r="C253">
+        <v>3</v>
+      </c>
+      <c r="D253">
+        <v>84.5</v>
+      </c>
+      <c r="E253" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254">
+        <v>14037</v>
+      </c>
+      <c r="B254" t="s">
+        <v>182</v>
+      </c>
+      <c r="C254">
+        <v>1</v>
+      </c>
+      <c r="D254">
+        <v>2028</v>
+      </c>
+      <c r="E254" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255">
+        <v>19336</v>
+      </c>
+      <c r="B255" t="s">
+        <v>183</v>
+      </c>
+      <c r="C255">
+        <v>1</v>
+      </c>
+      <c r="D255">
+        <v>672</v>
+      </c>
+      <c r="E255" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256">
+        <v>19336</v>
+      </c>
+      <c r="B256" t="s">
+        <v>183</v>
+      </c>
+      <c r="C256">
+        <v>2</v>
+      </c>
+      <c r="D256">
+        <v>42</v>
+      </c>
+      <c r="E256" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257">
+        <v>21319</v>
+      </c>
+      <c r="B257" t="s">
+        <v>184</v>
+      </c>
+      <c r="C257">
+        <v>1</v>
+      </c>
+      <c r="D257">
+        <v>337.5</v>
+      </c>
+      <c r="E257" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258">
+        <v>21319</v>
+      </c>
+      <c r="B258" t="s">
+        <v>184</v>
+      </c>
+      <c r="C258">
+        <v>7</v>
+      </c>
+      <c r="D258">
+        <v>11.25</v>
+      </c>
+      <c r="E258" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259">
+        <v>21476</v>
+      </c>
+      <c r="B259" t="s">
+        <v>185</v>
+      </c>
+      <c r="C259">
+        <v>7</v>
+      </c>
+      <c r="D259">
+        <v>82</v>
+      </c>
+      <c r="E259" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260">
+        <v>21476</v>
+      </c>
+      <c r="B260" t="s">
+        <v>185</v>
+      </c>
+      <c r="C260">
+        <v>1</v>
+      </c>
+      <c r="D260">
+        <v>984</v>
+      </c>
+      <c r="E260" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261">
+        <v>21481</v>
+      </c>
+      <c r="B261" t="s">
+        <v>186</v>
+      </c>
+      <c r="C261">
+        <v>1</v>
+      </c>
+      <c r="D261">
+        <v>474</v>
+      </c>
+      <c r="E261" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262">
+        <v>21481</v>
+      </c>
+      <c r="B262" t="s">
+        <v>186</v>
+      </c>
+      <c r="C262">
+        <v>7</v>
+      </c>
+      <c r="D262">
+        <v>39.5</v>
+      </c>
+      <c r="E262" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263">
+        <v>21700</v>
+      </c>
+      <c r="B263" t="s">
+        <v>187</v>
+      </c>
+      <c r="C263">
+        <v>3</v>
+      </c>
+      <c r="D263">
+        <v>95.75</v>
+      </c>
+      <c r="E263" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264">
+        <v>21700</v>
+      </c>
+      <c r="B264" t="s">
+        <v>187</v>
+      </c>
+      <c r="C264">
+        <v>1</v>
+      </c>
+      <c r="D264">
+        <v>1149</v>
+      </c>
+      <c r="E264" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265">
+        <v>21703</v>
+      </c>
+      <c r="B265" t="s">
+        <v>188</v>
+      </c>
+      <c r="C265">
+        <v>1</v>
+      </c>
+      <c r="D265">
+        <v>1206</v>
+      </c>
+      <c r="E265" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266">
+        <v>21703</v>
+      </c>
+      <c r="B266" t="s">
+        <v>188</v>
+      </c>
+      <c r="C266">
+        <v>3</v>
+      </c>
+      <c r="D266">
+        <v>100.5</v>
+      </c>
+      <c r="E266" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267">
+        <v>21706</v>
+      </c>
+      <c r="B267" t="s">
+        <v>189</v>
+      </c>
+      <c r="C267">
+        <v>3</v>
+      </c>
+      <c r="D267">
+        <v>26.75</v>
+      </c>
+      <c r="E267" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268">
+        <v>21706</v>
+      </c>
+      <c r="B268" t="s">
+        <v>189</v>
+      </c>
+      <c r="C268">
+        <v>1</v>
+      </c>
+      <c r="D268">
+        <v>963</v>
+      </c>
+      <c r="E268" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269">
+        <v>21793</v>
+      </c>
+      <c r="B269" t="s">
+        <v>190</v>
+      </c>
+      <c r="C269">
+        <v>1</v>
+      </c>
+      <c r="D269">
+        <v>121.25</v>
+      </c>
+      <c r="E269" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270">
+        <v>21798</v>
+      </c>
+      <c r="B270" t="s">
+        <v>191</v>
+      </c>
+      <c r="C270">
+        <v>1</v>
+      </c>
+      <c r="D270">
+        <v>225.75</v>
+      </c>
+      <c r="E270" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271">
+        <v>21806</v>
+      </c>
+      <c r="B271" t="s">
+        <v>192</v>
+      </c>
+      <c r="C271">
+        <v>1</v>
+      </c>
+      <c r="D271">
+        <v>285.25</v>
+      </c>
+      <c r="E271" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272">
+        <v>21946</v>
+      </c>
+      <c r="B272" t="s">
+        <v>193</v>
+      </c>
+      <c r="C272">
+        <v>1</v>
+      </c>
+      <c r="D272">
+        <v>430.25</v>
+      </c>
+      <c r="E272" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273">
+        <v>22361</v>
+      </c>
+      <c r="B273" t="s">
+        <v>194</v>
+      </c>
+      <c r="C273">
+        <v>1</v>
+      </c>
+      <c r="D273">
+        <v>762.25</v>
+      </c>
+      <c r="E273" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274">
+        <v>22586</v>
+      </c>
+      <c r="B274" t="s">
+        <v>195</v>
+      </c>
+      <c r="C274">
+        <v>1</v>
+      </c>
+      <c r="D274">
+        <v>669</v>
+      </c>
+      <c r="E274" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275">
+        <v>22586</v>
+      </c>
+      <c r="B275" t="s">
+        <v>195</v>
+      </c>
+      <c r="C275">
+        <v>3</v>
+      </c>
+      <c r="D275">
+        <v>55.75</v>
+      </c>
+      <c r="E275" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276">
+        <v>23028</v>
+      </c>
+      <c r="B276" t="s">
+        <v>196</v>
+      </c>
+      <c r="C276">
+        <v>1</v>
+      </c>
+      <c r="D276">
+        <v>804</v>
+      </c>
+      <c r="E276" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277">
+        <v>23028</v>
+      </c>
+      <c r="B277" t="s">
+        <v>196</v>
+      </c>
+      <c r="C277">
+        <v>3</v>
+      </c>
+      <c r="D277">
+        <v>67</v>
+      </c>
+      <c r="E277" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="A278">
+        <v>23040</v>
+      </c>
+      <c r="B278" t="s">
+        <v>197</v>
+      </c>
+      <c r="C278">
+        <v>10</v>
+      </c>
+      <c r="D278">
+        <v>26.5</v>
+      </c>
+      <c r="E278" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="A279">
+        <v>23040</v>
+      </c>
+      <c r="B279" t="s">
+        <v>197</v>
+      </c>
+      <c r="C279">
+        <v>1</v>
+      </c>
+      <c r="D279">
+        <v>318</v>
+      </c>
+      <c r="E279" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5">
+      <c r="A280">
+        <v>23233</v>
+      </c>
+      <c r="B280" t="s">
+        <v>198</v>
+      </c>
+      <c r="C280">
+        <v>29</v>
+      </c>
+      <c r="D280">
+        <v>924.75</v>
+      </c>
+      <c r="E280" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="A281">
+        <v>23233</v>
+      </c>
+      <c r="B281" t="s">
+        <v>198</v>
+      </c>
+      <c r="C281">
+        <v>25</v>
+      </c>
+      <c r="D281">
+        <v>308.25</v>
+      </c>
+      <c r="E281" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="A282">
+        <v>23546</v>
+      </c>
+      <c r="B282" t="s">
+        <v>199</v>
+      </c>
+      <c r="C282">
+        <v>1</v>
+      </c>
+      <c r="D282">
+        <v>582</v>
+      </c>
+      <c r="E282" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="A283">
+        <v>23546</v>
+      </c>
+      <c r="B283" t="s">
+        <v>199</v>
+      </c>
+      <c r="C283">
+        <v>3</v>
+      </c>
+      <c r="D283">
+        <v>48.5</v>
+      </c>
+      <c r="E283" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="A284">
+        <v>23660</v>
+      </c>
+      <c r="B284" t="s">
+        <v>200</v>
+      </c>
+      <c r="C284">
+        <v>2</v>
+      </c>
+      <c r="D284">
+        <v>258.5</v>
+      </c>
+      <c r="E284" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="A285">
+        <v>23920</v>
+      </c>
+      <c r="B285" t="s">
+        <v>201</v>
+      </c>
+      <c r="C285">
+        <v>2</v>
+      </c>
+      <c r="D285">
+        <v>254.5</v>
+      </c>
+      <c r="E285" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="A286">
+        <v>23994</v>
+      </c>
+      <c r="B286" t="s">
+        <v>202</v>
+      </c>
+      <c r="C286">
+        <v>25</v>
+      </c>
+      <c r="D286">
+        <v>384.25</v>
+      </c>
+      <c r="E286" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5">
+      <c r="A287">
+        <v>23994</v>
+      </c>
+      <c r="B287" t="s">
+        <v>202</v>
+      </c>
+      <c r="C287">
+        <v>29</v>
+      </c>
+      <c r="D287">
+        <v>768.5</v>
+      </c>
+      <c r="E287" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5">
+      <c r="A288">
+        <v>24126</v>
+      </c>
+      <c r="B288" t="s">
+        <v>203</v>
+      </c>
+      <c r="C288">
+        <v>3</v>
+      </c>
+      <c r="D288">
+        <v>116</v>
+      </c>
+      <c r="E288" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5">
+      <c r="A289">
+        <v>24126</v>
+      </c>
+      <c r="B289" t="s">
+        <v>203</v>
+      </c>
+      <c r="C289">
+        <v>1</v>
+      </c>
+      <c r="D289">
+        <v>1160</v>
+      </c>
+      <c r="E289" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5">
+      <c r="A290">
+        <v>24127</v>
+      </c>
+      <c r="B290" t="s">
+        <v>204</v>
+      </c>
+      <c r="C290">
+        <v>3</v>
+      </c>
+      <c r="D290">
+        <v>129.25</v>
+      </c>
+      <c r="E290" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5">
+      <c r="A291">
+        <v>24127</v>
+      </c>
+      <c r="B291" t="s">
+        <v>204</v>
+      </c>
+      <c r="C291">
+        <v>1</v>
+      </c>
+      <c r="D291">
+        <v>1292.5</v>
+      </c>
+      <c r="E291" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5">
+      <c r="A292">
+        <v>24618</v>
+      </c>
+      <c r="B292" t="s">
+        <v>205</v>
+      </c>
+      <c r="C292">
+        <v>3</v>
+      </c>
+      <c r="D292">
+        <v>104.25</v>
+      </c>
+      <c r="E292" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5">
+      <c r="A293">
+        <v>24618</v>
+      </c>
+      <c r="B293" t="s">
+        <v>205</v>
+      </c>
+      <c r="C293">
+        <v>1</v>
+      </c>
+      <c r="D293">
+        <v>625.5</v>
+      </c>
+      <c r="E293" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5">
+      <c r="A294">
+        <v>24667</v>
+      </c>
+      <c r="B294" t="s">
+        <v>206</v>
+      </c>
+      <c r="C294">
+        <v>1</v>
+      </c>
+      <c r="D294">
+        <v>102.25</v>
+      </c>
+      <c r="E294" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5">
+      <c r="A295">
+        <v>25278</v>
+      </c>
+      <c r="B295" t="s">
+        <v>207</v>
+      </c>
+      <c r="C295">
+        <v>2</v>
+      </c>
+      <c r="D295">
+        <v>109.75</v>
+      </c>
+      <c r="E295" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5">
+      <c r="A296">
+        <v>25344</v>
+      </c>
+      <c r="B296" t="s">
+        <v>208</v>
+      </c>
+      <c r="C296">
+        <v>3</v>
+      </c>
+      <c r="D296">
+        <v>229</v>
+      </c>
+      <c r="E296" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5">
+      <c r="A297">
+        <v>25344</v>
+      </c>
+      <c r="B297" t="s">
+        <v>208</v>
+      </c>
+      <c r="C297">
+        <v>1</v>
+      </c>
+      <c r="D297">
+        <v>2748</v>
+      </c>
+      <c r="E297" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/manual/output_1123_chunk_1.xlsx
+++ b/Pricing Logic/modules/manual/output_1123_chunk_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,10 +37,16 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>مكرونة شعرية بساطة - 1 كجم</t>
-  </si>
-  <si>
-    <t>-اريال أتوماتيك داونى - 9 كجم</t>
+    <t>صلصة هارفست ظرف - 30 جم</t>
+  </si>
+  <si>
+    <t>مناديل فاميليا مطبخ كلاسيك 5 رول + 1 رول هدية - 6 رول</t>
+  </si>
+  <si>
+    <t>صلصة هاينز - 360 جم</t>
+  </si>
+  <si>
+    <t>شوكولاتة ديرى ميلك بابلي اوريو - 27 جم</t>
   </si>
   <si>
     <t>YES</t>
@@ -401,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,7 +438,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>13486</v>
+        <v>346</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -441,27 +447,95 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>245.25</v>
+        <v>194</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>19687</v>
+        <v>346</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>48.5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>1886</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C3">
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>189.75</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>3478</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>382.75</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>25344</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>234.75</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>25344</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
         <v>1</v>
       </c>
-      <c r="D3">
-        <v>992.25</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
+      <c r="D7">
+        <v>2817</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
